--- a/change/test/block_PSNR.xlsx
+++ b/change/test/block_PSNR.xlsx
@@ -95,3138 +95,3138 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>25.911366815557937</v>
+        <v>33.648644784098359</v>
       </c>
       <c r="B1" s="0">
-        <v>25.200376122832431</v>
+        <v>32.071844580486577</v>
       </c>
       <c r="C1" s="0">
-        <v>25.56751404161831</v>
+        <v>34.024581426141879</v>
       </c>
       <c r="D1" s="0">
-        <v>25.606964646229152</v>
+        <v>34.423908166724011</v>
       </c>
       <c r="E1" s="0">
-        <v>28.358931682104416</v>
+        <v>32.878594457323288</v>
       </c>
       <c r="F1" s="0">
-        <v>27.108026364546596</v>
+        <v>31.558734028744961</v>
       </c>
       <c r="G1" s="0">
-        <v>24.744888824556227</v>
+        <v>32.446499619176969</v>
       </c>
       <c r="H1" s="0">
-        <v>28.965696620111814</v>
+        <v>31.494293971575267</v>
       </c>
       <c r="I1" s="0">
-        <v>24.753644266661045</v>
+        <v>32.032635860075729</v>
       </c>
       <c r="J1" s="0">
-        <v>26.123487341289703</v>
+        <v>32.257234796621191</v>
       </c>
       <c r="K1" s="0">
-        <v>25.711065453939828</v>
+        <v>33.540867012138321</v>
       </c>
       <c r="L1" s="0">
-        <v>25.055380023999682</v>
+        <v>33.231095424253915</v>
       </c>
       <c r="M1" s="0">
-        <v>26.783315998539543</v>
+        <v>34.234358031354226</v>
       </c>
       <c r="N1" s="0">
-        <v>26.719824696368327</v>
+        <v>33.045923715514469</v>
       </c>
       <c r="O1" s="0">
-        <v>25.421857973194658</v>
+        <v>34.729668464221305</v>
       </c>
       <c r="P1" s="0">
-        <v>23.938412846026374</v>
+        <v>33.626011940831482</v>
       </c>
       <c r="Q1" s="0">
-        <v>26.702084771315313</v>
+        <v>34.722003266364226</v>
       </c>
       <c r="R1" s="0">
-        <v>24.871393817460643</v>
+        <v>35.597182094533849</v>
       </c>
       <c r="S1" s="0">
-        <v>24.976518547292876</v>
+        <v>34.723947029241437</v>
       </c>
       <c r="T1" s="0">
-        <v>25.244013599687012</v>
+        <v>34.996883022939627</v>
       </c>
       <c r="U1" s="0">
-        <v>22.67803837840594</v>
+        <v>35.080119838950161</v>
       </c>
       <c r="V1" s="0">
-        <v>22.940298738482987</v>
+        <v>34.010798083163721</v>
       </c>
       <c r="W1" s="0">
-        <v>23.270726007430547</v>
+        <v>32.769211755130868</v>
       </c>
       <c r="X1" s="0">
-        <v>23.115896052355968</v>
+        <v>35.058272690482603</v>
       </c>
       <c r="Y1" s="0">
-        <v>20.080258721712624</v>
+        <v>21.565456109772654</v>
       </c>
       <c r="Z1" s="0">
-        <v>15.857485075468228</v>
+        <v>14.186759198906827</v>
       </c>
       <c r="AA1" s="0">
-        <v>14.402761495188003</v>
+        <v>12.772085097856564</v>
       </c>
       <c r="AB1" s="0">
-        <v>21.129880290955086</v>
+        <v>20.431650750492516</v>
       </c>
       <c r="AC1" s="0">
-        <v>22.389355735252657</v>
+        <v>22.044920341283834</v>
       </c>
       <c r="AD1" s="0">
-        <v>16.900844670571644</v>
+        <v>16.906469786441811</v>
       </c>
       <c r="AE1" s="0">
-        <v>18.914968173744626</v>
+        <v>18.318573366819653</v>
       </c>
       <c r="AF1" s="0">
-        <v>19.144420087253039</v>
+        <v>17.817115138899311</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>23.903342871118699</v>
+        <v>32.052288569250884</v>
       </c>
       <c r="B2" s="0">
-        <v>23.786201276290178</v>
+        <v>31.544988758286266</v>
       </c>
       <c r="C2" s="0">
-        <v>25.796643696743882</v>
+        <v>31.539073025193908</v>
       </c>
       <c r="D2" s="0">
-        <v>25.546234144859614</v>
+        <v>33.004727079818146</v>
       </c>
       <c r="E2" s="0">
-        <v>24.797184411506656</v>
+        <v>34.184402519348836</v>
       </c>
       <c r="F2" s="0">
-        <v>25.244534310363203</v>
+        <v>32.53244208483234</v>
       </c>
       <c r="G2" s="0">
-        <v>27.557560120429549</v>
+        <v>33.388497494997786</v>
       </c>
       <c r="H2" s="0">
-        <v>26.547911312990248</v>
+        <v>34.452361968627528</v>
       </c>
       <c r="I2" s="0">
-        <v>25.788584721147544</v>
+        <v>32.950355829804089</v>
       </c>
       <c r="J2" s="0">
-        <v>26.50034230587071</v>
+        <v>33.525749664920951</v>
       </c>
       <c r="K2" s="0">
-        <v>27.491060025552677</v>
+        <v>32.697563591281167</v>
       </c>
       <c r="L2" s="0">
-        <v>26.645554649040953</v>
+        <v>33.329266278705568</v>
       </c>
       <c r="M2" s="0">
-        <v>28.88606737564098</v>
+        <v>31.582305268364586</v>
       </c>
       <c r="N2" s="0">
-        <v>24.593334758006733</v>
+        <v>31.190891300614876</v>
       </c>
       <c r="O2" s="0">
-        <v>25.477784149739271</v>
+        <v>33.282545270254438</v>
       </c>
       <c r="P2" s="0">
-        <v>26.552086786077282</v>
+        <v>32.989982206712675</v>
       </c>
       <c r="Q2" s="0">
-        <v>25.68070283356009</v>
+        <v>32.885033075185277</v>
       </c>
       <c r="R2" s="0">
-        <v>26.735599863983794</v>
+        <v>34.595575962373019</v>
       </c>
       <c r="S2" s="0">
-        <v>26.024653694185563</v>
+        <v>35.357694249746302</v>
       </c>
       <c r="T2" s="0">
-        <v>23.826422754453269</v>
+        <v>34.727106443338876</v>
       </c>
       <c r="U2" s="0">
-        <v>25.78958960368114</v>
+        <v>34.256550449280603</v>
       </c>
       <c r="V2" s="0">
-        <v>24.338963284356797</v>
+        <v>35.614406618748013</v>
       </c>
       <c r="W2" s="0">
-        <v>23.401794101898776</v>
+        <v>36.019635623839143</v>
       </c>
       <c r="X2" s="0">
-        <v>24.174558186384388</v>
+        <v>35.203819823466048</v>
       </c>
       <c r="Y2" s="0">
-        <v>15.552624469401962</v>
+        <v>14.300831017841627</v>
       </c>
       <c r="Z2" s="0">
-        <v>15.279054477491931</v>
+        <v>14.412465796230812</v>
       </c>
       <c r="AA2" s="0">
-        <v>17.02056222719699</v>
+        <v>15.793387911503302</v>
       </c>
       <c r="AB2" s="0">
-        <v>20.974094592973781</v>
+        <v>19.537893267829581</v>
       </c>
       <c r="AC2" s="0">
-        <v>19.861366407025184</v>
+        <v>19.167989544371476</v>
       </c>
       <c r="AD2" s="0">
-        <v>16.233468763148416</v>
+        <v>16.187889982434708</v>
       </c>
       <c r="AE2" s="0">
-        <v>17.376452792206308</v>
+        <v>16.359482540534032</v>
       </c>
       <c r="AF2" s="0">
-        <v>19.474208653707031</v>
+        <v>19.257111082182256</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>23.947924659584068</v>
+        <v>35.349887305902264</v>
       </c>
       <c r="B3" s="0">
-        <v>25.678749578468462</v>
+        <v>35.190687185758037</v>
       </c>
       <c r="C3" s="0">
-        <v>26.539027272203217</v>
+        <v>32.436762287655327</v>
       </c>
       <c r="D3" s="0">
-        <v>24.840584419559271</v>
+        <v>32.513253137980371</v>
       </c>
       <c r="E3" s="0">
-        <v>26.349277700674307</v>
+        <v>31.118615909257684</v>
       </c>
       <c r="F3" s="0">
-        <v>27.740632779330969</v>
+        <v>29.517283830223967</v>
       </c>
       <c r="G3" s="0">
-        <v>28.791562928014685</v>
+        <v>31.305322640363684</v>
       </c>
       <c r="H3" s="0">
-        <v>26.033076733949009</v>
+        <v>29.637273102706484</v>
       </c>
       <c r="I3" s="0">
-        <v>29.659430953220443</v>
+        <v>33.248526259398645</v>
       </c>
       <c r="J3" s="0">
-        <v>28.059353378190309</v>
+        <v>30.977920652864562</v>
       </c>
       <c r="K3" s="0">
-        <v>25.766368922931086</v>
+        <v>31.825990545640579</v>
       </c>
       <c r="L3" s="0">
-        <v>26.722942651924786</v>
+        <v>30.094503990713818</v>
       </c>
       <c r="M3" s="0">
-        <v>27.660642859758934</v>
+        <v>32.227590744861708</v>
       </c>
       <c r="N3" s="0">
-        <v>26.209499671775852</v>
+        <v>31.770154558616937</v>
       </c>
       <c r="O3" s="0">
-        <v>27.658373997104128</v>
+        <v>32.111305530325119</v>
       </c>
       <c r="P3" s="0">
-        <v>26.517516860214521</v>
+        <v>31.090715951263146</v>
       </c>
       <c r="Q3" s="0">
-        <v>26.805570146027435</v>
+        <v>31.008836588685632</v>
       </c>
       <c r="R3" s="0">
-        <v>26.980233987058782</v>
+        <v>32.628861408706364</v>
       </c>
       <c r="S3" s="0">
-        <v>27.612858250316883</v>
+        <v>33.332633349239138</v>
       </c>
       <c r="T3" s="0">
-        <v>24.880792376020466</v>
+        <v>34.179765916799582</v>
       </c>
       <c r="U3" s="0">
-        <v>23.364308917312293</v>
+        <v>34.380211183698755</v>
       </c>
       <c r="V3" s="0">
-        <v>25.917681954629465</v>
+        <v>35.409915587346177</v>
       </c>
       <c r="W3" s="0">
-        <v>24.907691689809248</v>
+        <v>35.656879702618326</v>
       </c>
       <c r="X3" s="0">
-        <v>22.163952737239832</v>
+        <v>23.463886548507588</v>
       </c>
       <c r="Y3" s="0">
-        <v>15.315575803509226</v>
+        <v>14.098300148314635</v>
       </c>
       <c r="Z3" s="0">
-        <v>13.315013148988422</v>
+        <v>12.31567733887772</v>
       </c>
       <c r="AA3" s="0">
-        <v>20.042437752773917</v>
+        <v>19.669662120100682</v>
       </c>
       <c r="AB3" s="0">
-        <v>15.562796409106657</v>
+        <v>15.061039686794157</v>
       </c>
       <c r="AC3" s="0">
-        <v>18.411375848515867</v>
+        <v>17.701251136425661</v>
       </c>
       <c r="AD3" s="0">
-        <v>17.809069357245669</v>
+        <v>17.267977639631681</v>
       </c>
       <c r="AE3" s="0">
-        <v>21.012537846737011</v>
+        <v>20.257184660277691</v>
       </c>
       <c r="AF3" s="0">
-        <v>24.357308573518704</v>
+        <v>23.849053260452862</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>26.788486562313732</v>
+        <v>34.461853211384565</v>
       </c>
       <c r="B4" s="0">
-        <v>25.078611247025314</v>
+        <v>35.549105423245905</v>
       </c>
       <c r="C4" s="0">
-        <v>24.702999127110232</v>
+        <v>33.799542439535344</v>
       </c>
       <c r="D4" s="0">
-        <v>25.930895161237277</v>
+        <v>32.113829174650078</v>
       </c>
       <c r="E4" s="0">
-        <v>26.478047770996646</v>
+        <v>31.192441702895273</v>
       </c>
       <c r="F4" s="0">
-        <v>24.421219170083972</v>
+        <v>31.14027886524708</v>
       </c>
       <c r="G4" s="0">
-        <v>24.479308787203479</v>
+        <v>29.906869003056535</v>
       </c>
       <c r="H4" s="0">
-        <v>26.833696923387826</v>
+        <v>31.06138136533864</v>
       </c>
       <c r="I4" s="0">
-        <v>27.739541491312806</v>
+        <v>30.816129928716901</v>
       </c>
       <c r="J4" s="0">
-        <v>26.72222870093151</v>
+        <v>31.60953427259626</v>
       </c>
       <c r="K4" s="0">
-        <v>27.180746073424604</v>
+        <v>30.344905127661185</v>
       </c>
       <c r="L4" s="0">
-        <v>25.862940254707212</v>
+        <v>30.320247607655087</v>
       </c>
       <c r="M4" s="0">
-        <v>25.246326660125376</v>
+        <v>32.096254614964309</v>
       </c>
       <c r="N4" s="0">
-        <v>25.95895485394264</v>
+        <v>29.991579297415484</v>
       </c>
       <c r="O4" s="0">
-        <v>24.888220715433746</v>
+        <v>30.364804793690418</v>
       </c>
       <c r="P4" s="0">
-        <v>26.041412893610911</v>
+        <v>31.462996485471354</v>
       </c>
       <c r="Q4" s="0">
-        <v>25.289760514871237</v>
+        <v>30.798555010975328</v>
       </c>
       <c r="R4" s="0">
-        <v>26.010517132826848</v>
+        <v>31.700608797848325</v>
       </c>
       <c r="S4" s="0">
-        <v>24.431018322764615</v>
+        <v>31.835037178989197</v>
       </c>
       <c r="T4" s="0">
-        <v>23.591128357924017</v>
+        <v>33.052433002959759</v>
       </c>
       <c r="U4" s="0">
-        <v>24.57683361799242</v>
+        <v>34.968297208451915</v>
       </c>
       <c r="V4" s="0">
-        <v>23.194787234890001</v>
+        <v>35.633401995634905</v>
       </c>
       <c r="W4" s="0">
-        <v>23.876388117259857</v>
+        <v>35.740140331635828</v>
       </c>
       <c r="X4" s="0">
-        <v>19.758007151761781</v>
+        <v>19.167143845571296</v>
       </c>
       <c r="Y4" s="0">
-        <v>15.659283710315847</v>
+        <v>13.91893765356224</v>
       </c>
       <c r="Z4" s="0">
-        <v>16.868634835694259</v>
+        <v>16.096345696155726</v>
       </c>
       <c r="AA4" s="0">
-        <v>23.164657412587086</v>
+        <v>20.89500024719467</v>
       </c>
       <c r="AB4" s="0">
-        <v>14.313393340394601</v>
+        <v>14.163552602544275</v>
       </c>
       <c r="AC4" s="0">
-        <v>20.07248266061233</v>
+        <v>19.79557263654409</v>
       </c>
       <c r="AD4" s="0">
-        <v>22.060784280390706</v>
+        <v>20.481562433876206</v>
       </c>
       <c r="AE4" s="0">
-        <v>21.853107303618646</v>
+        <v>21.645241597230434</v>
       </c>
       <c r="AF4" s="0">
-        <v>24.177500956404572</v>
+        <v>23.196857001325672</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>26.804063336886092</v>
+        <v>34.960801671312495</v>
       </c>
       <c r="B5" s="0">
-        <v>24.639076700197204</v>
+        <v>35.051481964427886</v>
       </c>
       <c r="C5" s="0">
-        <v>24.690325986392921</v>
+        <v>34.188542063370825</v>
       </c>
       <c r="D5" s="0">
-        <v>24.279577393093671</v>
+        <v>33.46626232575543</v>
       </c>
       <c r="E5" s="0">
-        <v>25.915557685657234</v>
+        <v>32.375546443260703</v>
       </c>
       <c r="F5" s="0">
-        <v>24.252545617488064</v>
+        <v>32.661364316319514</v>
       </c>
       <c r="G5" s="0">
-        <v>24.942251049629817</v>
+        <v>32.048147023751497</v>
       </c>
       <c r="H5" s="0">
-        <v>24.23737555140039</v>
+        <v>34.072494664945992</v>
       </c>
       <c r="I5" s="0">
-        <v>26.101081213513627</v>
+        <v>33.769236766159828</v>
       </c>
       <c r="J5" s="0">
-        <v>24.522233659240655</v>
+        <v>32.870724714364819</v>
       </c>
       <c r="K5" s="0">
-        <v>25.524608024982832</v>
+        <v>33.167235943629635</v>
       </c>
       <c r="L5" s="0">
-        <v>25.129789917310219</v>
+        <v>33.518394173071179</v>
       </c>
       <c r="M5" s="0">
-        <v>24.305034270822652</v>
+        <v>33.341630393752197</v>
       </c>
       <c r="N5" s="0">
-        <v>24.978834461061755</v>
+        <v>32.887331685663312</v>
       </c>
       <c r="O5" s="0">
-        <v>25.252873580460506</v>
+        <v>33.430266006068251</v>
       </c>
       <c r="P5" s="0">
-        <v>22.80330924994789</v>
+        <v>34.538119974151783</v>
       </c>
       <c r="Q5" s="0">
-        <v>24.725747076895772</v>
+        <v>34.664647190688086</v>
       </c>
       <c r="R5" s="0">
-        <v>24.323993669733941</v>
+        <v>33.966113181120306</v>
       </c>
       <c r="S5" s="0">
-        <v>24.079313976820874</v>
+        <v>34.399823603995856</v>
       </c>
       <c r="T5" s="0">
-        <v>22.369233789050242</v>
+        <v>33.301525983278587</v>
       </c>
       <c r="U5" s="0">
-        <v>24.8303466349609</v>
+        <v>34.79686475192441</v>
       </c>
       <c r="V5" s="0">
-        <v>24.504283994955593</v>
+        <v>33.68356513030465</v>
       </c>
       <c r="W5" s="0">
-        <v>16.123150365275503</v>
+        <v>15.41148837842178</v>
       </c>
       <c r="X5" s="0">
-        <v>17.368283541824336</v>
+        <v>15.708326382450764</v>
       </c>
       <c r="Y5" s="0">
-        <v>23.484969807724646</v>
+        <v>20.8997747640902</v>
       </c>
       <c r="Z5" s="0">
-        <v>24.033155287944329</v>
+        <v>21.344489151279404</v>
       </c>
       <c r="AA5" s="0">
-        <v>24.475098353672319</v>
+        <v>24.903064752776093</v>
       </c>
       <c r="AB5" s="0">
-        <v>14.218540905592649</v>
+        <v>14.445850661826508</v>
       </c>
       <c r="AC5" s="0">
-        <v>24.645657568928673</v>
+        <v>22.745000146051883</v>
       </c>
       <c r="AD5" s="0">
-        <v>23.370462098723728</v>
+        <v>23.055722567895373</v>
       </c>
       <c r="AE5" s="0">
-        <v>21.319646208447214</v>
+        <v>20.477506144095269</v>
       </c>
       <c r="AF5" s="0">
-        <v>22.837203257285296</v>
+        <v>21.186042824325749</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>25.818755416417357</v>
+        <v>34.351072588605668</v>
       </c>
       <c r="B6" s="0">
-        <v>24.329321031003577</v>
+        <v>33.877712891753248</v>
       </c>
       <c r="C6" s="0">
-        <v>25.196093765475286</v>
+        <v>35.047793403325372</v>
       </c>
       <c r="D6" s="0">
-        <v>24.223417935798516</v>
+        <v>34.114084086124549</v>
       </c>
       <c r="E6" s="0">
-        <v>24.939729033907501</v>
+        <v>33.590347439780857</v>
       </c>
       <c r="F6" s="0">
-        <v>24.837235662034949</v>
+        <v>34.338495263975226</v>
       </c>
       <c r="G6" s="0">
-        <v>24.389609118726288</v>
+        <v>34.355891301017188</v>
       </c>
       <c r="H6" s="0">
-        <v>25.188546467652859</v>
+        <v>34.598323540104445</v>
       </c>
       <c r="I6" s="0">
-        <v>23.229582354653225</v>
+        <v>33.867192404526186</v>
       </c>
       <c r="J6" s="0">
-        <v>22.400979343146158</v>
+        <v>34.175200515201752</v>
       </c>
       <c r="K6" s="0">
-        <v>23.007514210911673</v>
+        <v>34.603853417368008</v>
       </c>
       <c r="L6" s="0">
-        <v>23.305860623991528</v>
+        <v>34.720415516483484</v>
       </c>
       <c r="M6" s="0">
-        <v>22.628868205911314</v>
+        <v>33.440532353492443</v>
       </c>
       <c r="N6" s="0">
-        <v>22.254933757728264</v>
+        <v>34.372069497446049</v>
       </c>
       <c r="O6" s="0">
-        <v>21.711225027115905</v>
+        <v>32.771734378024775</v>
       </c>
       <c r="P6" s="0">
-        <v>23.03505639639349</v>
+        <v>33.188483692782782</v>
       </c>
       <c r="Q6" s="0">
-        <v>21.484477505562349</v>
+        <v>31.560713000299181</v>
       </c>
       <c r="R6" s="0">
-        <v>22.00218109285067</v>
+        <v>33.157188313960255</v>
       </c>
       <c r="S6" s="0">
-        <v>24.284654731078845</v>
+        <v>30.812497120555985</v>
       </c>
       <c r="T6" s="0">
-        <v>23.448395091330934</v>
+        <v>33.01521467583234</v>
       </c>
       <c r="U6" s="0">
-        <v>15.724798767689323</v>
+        <v>16.043840722821635</v>
       </c>
       <c r="V6" s="0">
-        <v>17.009234266396515</v>
+        <v>15.785653580851129</v>
       </c>
       <c r="W6" s="0">
-        <v>16.53732319252245</v>
+        <v>15.286844029751451</v>
       </c>
       <c r="X6" s="0">
-        <v>26.939508409462047</v>
+        <v>25.976055640852938</v>
       </c>
       <c r="Y6" s="0">
-        <v>16.135940803570723</v>
+        <v>15.163010755153312</v>
       </c>
       <c r="Z6" s="0">
-        <v>21.011664933796808</v>
+        <v>20.531188840280027</v>
       </c>
       <c r="AA6" s="0">
-        <v>20.88664889993623</v>
+        <v>19.335318454680252</v>
       </c>
       <c r="AB6" s="0">
-        <v>15.321077694918682</v>
+        <v>14.740097080217488</v>
       </c>
       <c r="AC6" s="0">
-        <v>18.56038658329609</v>
+        <v>17.621674942293396</v>
       </c>
       <c r="AD6" s="0">
-        <v>19.097701594620386</v>
+        <v>18.769083226390563</v>
       </c>
       <c r="AE6" s="0">
-        <v>20.52284533217199</v>
+        <v>20.021212811184945</v>
       </c>
       <c r="AF6" s="0">
-        <v>23.055248173196674</v>
+        <v>22.689953756266839</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>24.276287413003949</v>
+        <v>34.211190428788186</v>
       </c>
       <c r="B7" s="0">
-        <v>23.852410393788453</v>
+        <v>34.835116878933725</v>
       </c>
       <c r="C7" s="0">
-        <v>24.620490339431438</v>
+        <v>33.301310410456928</v>
       </c>
       <c r="D7" s="0">
-        <v>23.104131032249398</v>
+        <v>34.280230803358457</v>
       </c>
       <c r="E7" s="0">
-        <v>23.406190294640318</v>
+        <v>32.798504439836378</v>
       </c>
       <c r="F7" s="0">
-        <v>24.571438310590061</v>
+        <v>33.388471802078634</v>
       </c>
       <c r="G7" s="0">
-        <v>23.328754388247216</v>
+        <v>32.943323592747056</v>
       </c>
       <c r="H7" s="0">
-        <v>23.220861478027604</v>
+        <v>32.771508035814968</v>
       </c>
       <c r="I7" s="0">
-        <v>23.765400132033143</v>
+        <v>32.652071615313339</v>
       </c>
       <c r="J7" s="0">
-        <v>23.155961014335311</v>
+        <v>33.846501589695208</v>
       </c>
       <c r="K7" s="0">
-        <v>22.82776174931033</v>
+        <v>31.654040408259601</v>
       </c>
       <c r="L7" s="0">
-        <v>22.423065654273678</v>
+        <v>31.59379927965518</v>
       </c>
       <c r="M7" s="0">
-        <v>21.989596918323265</v>
+        <v>31.740419100812471</v>
       </c>
       <c r="N7" s="0">
-        <v>22.229472331229907</v>
+        <v>32.147271359951041</v>
       </c>
       <c r="O7" s="0">
-        <v>21.756393354838508</v>
+        <v>30.314247538480373</v>
       </c>
       <c r="P7" s="0">
-        <v>22.525298135895333</v>
+        <v>30.194272925743654</v>
       </c>
       <c r="Q7" s="0">
-        <v>21.709045365298323</v>
+        <v>29.812160178173333</v>
       </c>
       <c r="R7" s="0">
-        <v>22.554740126782768</v>
+        <v>28.999173603296221</v>
       </c>
       <c r="S7" s="0">
-        <v>21.502101765797754</v>
+        <v>30.185844901849762</v>
       </c>
       <c r="T7" s="0">
-        <v>22.896329199212964</v>
+        <v>29.230024026455176</v>
       </c>
       <c r="U7" s="0">
-        <v>13.592833418556282</v>
+        <v>13.051833236491886</v>
       </c>
       <c r="V7" s="0">
-        <v>20.69589723516183</v>
+        <v>18.355011997284976</v>
       </c>
       <c r="W7" s="0">
-        <v>20.862312009941775</v>
+        <v>19.935878686339585</v>
       </c>
       <c r="X7" s="0">
-        <v>19.70831046290682</v>
+        <v>18.803826083044676</v>
       </c>
       <c r="Y7" s="0">
-        <v>15.122024390027564</v>
+        <v>14.384030795627567</v>
       </c>
       <c r="Z7" s="0">
-        <v>22.984640432192617</v>
+        <v>22.132622271082738</v>
       </c>
       <c r="AA7" s="0">
-        <v>22.929643198524822</v>
+        <v>23.766218046779368</v>
       </c>
       <c r="AB7" s="0">
-        <v>14.454308853241088</v>
+        <v>14.198828863377603</v>
       </c>
       <c r="AC7" s="0">
-        <v>21.924619514134424</v>
+        <v>22.245256751654793</v>
       </c>
       <c r="AD7" s="0">
-        <v>22.306901421108861</v>
+        <v>22.689362148469677</v>
       </c>
       <c r="AE7" s="0">
-        <v>16.109719935020955</v>
+        <v>15.783652870840887</v>
       </c>
       <c r="AF7" s="0">
-        <v>24.802343151277853</v>
+        <v>23.376056540295632</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>17.359472971750314</v>
+        <v>14.805752564111021</v>
       </c>
       <c r="B8" s="0">
-        <v>19.35846309655652</v>
+        <v>16.711392002414073</v>
       </c>
       <c r="C8" s="0">
-        <v>18.020632687532327</v>
+        <v>15.469377282963258</v>
       </c>
       <c r="D8" s="0">
-        <v>18.771757925918461</v>
+        <v>15.742318194764851</v>
       </c>
       <c r="E8" s="0">
-        <v>19.077367918658858</v>
+        <v>15.686435490958013</v>
       </c>
       <c r="F8" s="0">
-        <v>16.117435714553967</v>
+        <v>15.556168791981275</v>
       </c>
       <c r="G8" s="0">
-        <v>21.529562758478548</v>
+        <v>24.537715184101678</v>
       </c>
       <c r="H8" s="0">
-        <v>20.856379990438178</v>
+        <v>22.85316221693682</v>
       </c>
       <c r="I8" s="0">
-        <v>18.656342839245106</v>
+        <v>19.104765043164676</v>
       </c>
       <c r="J8" s="0">
-        <v>18.753906054335204</v>
+        <v>19.235280866548486</v>
       </c>
       <c r="K8" s="0">
-        <v>23.238027070448521</v>
+        <v>31.470413156254171</v>
       </c>
       <c r="L8" s="0">
-        <v>22.267488713868818</v>
+        <v>31.368924179806204</v>
       </c>
       <c r="M8" s="0">
-        <v>22.717586680749314</v>
+        <v>29.80252873717599</v>
       </c>
       <c r="N8" s="0">
-        <v>21.998272653517073</v>
+        <v>30.115936886819664</v>
       </c>
       <c r="O8" s="0">
-        <v>22.753420845615953</v>
+        <v>30.196840498991875</v>
       </c>
       <c r="P8" s="0">
-        <v>22.474828910848576</v>
+        <v>30.617861836059141</v>
       </c>
       <c r="Q8" s="0">
-        <v>22.182395909026255</v>
+        <v>29.650022092657629</v>
       </c>
       <c r="R8" s="0">
-        <v>21.480055664140721</v>
+        <v>28.438447867487092</v>
       </c>
       <c r="S8" s="0">
-        <v>21.697651514367635</v>
+        <v>30.077791719656926</v>
       </c>
       <c r="T8" s="0">
-        <v>21.712766885855768</v>
+        <v>28.892880559492504</v>
       </c>
       <c r="U8" s="0">
-        <v>12.193337203029593</v>
+        <v>11.132698079501678</v>
       </c>
       <c r="V8" s="0">
-        <v>24.185444921267155</v>
+        <v>24.029739378046131</v>
       </c>
       <c r="W8" s="0">
-        <v>22.490598260850611</v>
+        <v>21.731865049471317</v>
       </c>
       <c r="X8" s="0">
-        <v>17.254989825162667</v>
+        <v>16.628158328548984</v>
       </c>
       <c r="Y8" s="0">
-        <v>17.334046460353388</v>
+        <v>16.817911613386187</v>
       </c>
       <c r="Z8" s="0">
-        <v>23.834562344835561</v>
+        <v>22.091279520942443</v>
       </c>
       <c r="AA8" s="0">
-        <v>23.920301150965461</v>
+        <v>21.617932231919777</v>
       </c>
       <c r="AB8" s="0">
-        <v>14.073657585392215</v>
+        <v>13.986183076248251</v>
       </c>
       <c r="AC8" s="0">
-        <v>23.213301423714427</v>
+        <v>21.953849784842149</v>
       </c>
       <c r="AD8" s="0">
-        <v>22.080494495386468</v>
+        <v>21.954171444698648</v>
       </c>
       <c r="AE8" s="0">
-        <v>13.897835214296395</v>
+        <v>14.052752640560302</v>
       </c>
       <c r="AF8" s="0">
-        <v>24.900510889827316</v>
+        <v>25.66810344733376</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>25.901635136371034</v>
+        <v>21.460083084811767</v>
       </c>
       <c r="B9" s="0">
-        <v>27.626714169382414</v>
+        <v>22.083687046585595</v>
       </c>
       <c r="C9" s="0">
-        <v>27.542370988935076</v>
+        <v>22.765062088608413</v>
       </c>
       <c r="D9" s="0">
-        <v>28.531852833231785</v>
+        <v>22.197697893041717</v>
       </c>
       <c r="E9" s="0">
-        <v>28.065535575122006</v>
+        <v>22.33758977795592</v>
       </c>
       <c r="F9" s="0">
-        <v>29.241885307774499</v>
+        <v>21.533678376915159</v>
       </c>
       <c r="G9" s="0">
-        <v>25.502587201546532</v>
+        <v>21.032307418806479</v>
       </c>
       <c r="H9" s="0">
-        <v>20.691854210803378</v>
+        <v>17.569967944665375</v>
       </c>
       <c r="I9" s="0">
-        <v>25.538687117123562</v>
+        <v>20.976657304110141</v>
       </c>
       <c r="J9" s="0">
-        <v>29.452810567333401</v>
+        <v>20.431967164992297</v>
       </c>
       <c r="K9" s="0">
-        <v>25.797868066538243</v>
+        <v>18.398371354028075</v>
       </c>
       <c r="L9" s="0">
-        <v>19.648707095796123</v>
+        <v>17.271316559045768</v>
       </c>
       <c r="M9" s="0">
-        <v>23.858828884852738</v>
+        <v>19.460790489564488</v>
       </c>
       <c r="N9" s="0">
-        <v>23.220843665868877</v>
+        <v>18.292442015928149</v>
       </c>
       <c r="O9" s="0">
-        <v>21.048024560556378</v>
+        <v>18.039440557178199</v>
       </c>
       <c r="P9" s="0">
-        <v>19.339493772715915</v>
+        <v>16.534448104122689</v>
       </c>
       <c r="Q9" s="0">
-        <v>18.42159946541075</v>
+        <v>16.263284044217233</v>
       </c>
       <c r="R9" s="0">
-        <v>18.767517749645581</v>
+        <v>16.49618623562429</v>
       </c>
       <c r="S9" s="0">
-        <v>19.962860651489599</v>
+        <v>17.729990031992337</v>
       </c>
       <c r="T9" s="0">
-        <v>14.380688691691006</v>
+        <v>13.046049380018278</v>
       </c>
       <c r="U9" s="0">
-        <v>24.979901444810551</v>
+        <v>23.465136431304554</v>
       </c>
       <c r="V9" s="0">
-        <v>26.529531356747146</v>
+        <v>25.079713511513027</v>
       </c>
       <c r="W9" s="0">
-        <v>18.47844897087667</v>
+        <v>18.325281905101679</v>
       </c>
       <c r="X9" s="0">
-        <v>16.340361365091464</v>
+        <v>15.616206620333218</v>
       </c>
       <c r="Y9" s="0">
-        <v>26.680352575433332</v>
+        <v>23.882160612418502</v>
       </c>
       <c r="Z9" s="0">
-        <v>22.286705699731769</v>
+        <v>22.286018100308453</v>
       </c>
       <c r="AA9" s="0">
-        <v>22.495957862858667</v>
+        <v>22.831877109589893</v>
       </c>
       <c r="AB9" s="0">
-        <v>14.67023477917488</v>
+        <v>13.943776026565988</v>
       </c>
       <c r="AC9" s="0">
-        <v>24.236133025354327</v>
+        <v>22.255480331024597</v>
       </c>
       <c r="AD9" s="0">
-        <v>22.566700365851155</v>
+        <v>21.595566169391603</v>
       </c>
       <c r="AE9" s="0">
-        <v>13.025051086764439</v>
+        <v>13.136561170137293</v>
       </c>
       <c r="AF9" s="0">
-        <v>22.910404372883644</v>
+        <v>21.343819051626145</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>23.977922110167764</v>
+        <v>23.499889641229487</v>
       </c>
       <c r="B10" s="0">
-        <v>27.398700161970826</v>
+        <v>23.454430010731716</v>
       </c>
       <c r="C10" s="0">
-        <v>28.739074437654594</v>
+        <v>22.891859329241989</v>
       </c>
       <c r="D10" s="0">
-        <v>28.7536516006585</v>
+        <v>22.588976424019602</v>
       </c>
       <c r="E10" s="0">
-        <v>29.497579654628197</v>
+        <v>22.773951149955355</v>
       </c>
       <c r="F10" s="0">
-        <v>29.432700587458683</v>
+        <v>23.832308365626666</v>
       </c>
       <c r="G10" s="0">
-        <v>26.060489170481663</v>
+        <v>23.722233099921112</v>
       </c>
       <c r="H10" s="0">
-        <v>26.399469058905616</v>
+        <v>21.19160977073188</v>
       </c>
       <c r="I10" s="0">
-        <v>27.896751099645357</v>
+        <v>22.092096412333039</v>
       </c>
       <c r="J10" s="0">
-        <v>25.345393335199653</v>
+        <v>21.603057221575796</v>
       </c>
       <c r="K10" s="0">
-        <v>26.787685640690775</v>
+        <v>21.008547861888683</v>
       </c>
       <c r="L10" s="0">
-        <v>28.333064773957062</v>
+        <v>20.648004413325317</v>
       </c>
       <c r="M10" s="0">
-        <v>23.0780230726109</v>
+        <v>19.498160376807586</v>
       </c>
       <c r="N10" s="0">
-        <v>28.585731857939855</v>
+        <v>21.480253848170541</v>
       </c>
       <c r="O10" s="0">
-        <v>26.895180840626224</v>
+        <v>20.998415195310866</v>
       </c>
       <c r="P10" s="0">
-        <v>30.129133812822907</v>
+        <v>20.490821599628632</v>
       </c>
       <c r="Q10" s="0">
-        <v>28.603143103511009</v>
+        <v>19.979912673060742</v>
       </c>
       <c r="R10" s="0">
-        <v>27.024877350708376</v>
+        <v>20.41821599404291</v>
       </c>
       <c r="S10" s="0">
-        <v>23.654777425884834</v>
+        <v>20.168760526887691</v>
       </c>
       <c r="T10" s="0">
-        <v>25.818370085637032</v>
+        <v>23.46752331674292</v>
       </c>
       <c r="U10" s="0">
-        <v>24.633171542643275</v>
+        <v>23.837489687971463</v>
       </c>
       <c r="V10" s="0">
-        <v>25.10986004337898</v>
+        <v>22.807938464510617</v>
       </c>
       <c r="W10" s="0">
-        <v>20.723963321266552</v>
+        <v>20.599729799015421</v>
       </c>
       <c r="X10" s="0">
-        <v>14.578712430953821</v>
+        <v>14.070839945370658</v>
       </c>
       <c r="Y10" s="0">
-        <v>24.791794658504696</v>
+        <v>23.632889223366178</v>
       </c>
       <c r="Z10" s="0">
-        <v>21.804325504699303</v>
+        <v>21.870973714466029</v>
       </c>
       <c r="AA10" s="0">
-        <v>22.47785346340364</v>
+        <v>22.230298076919034</v>
       </c>
       <c r="AB10" s="0">
-        <v>13.245766996911883</v>
+        <v>12.825732568804092</v>
       </c>
       <c r="AC10" s="0">
-        <v>24.000465815980196</v>
+        <v>22.494150060133727</v>
       </c>
       <c r="AD10" s="0">
-        <v>23.633538647025723</v>
+        <v>23.852495758775628</v>
       </c>
       <c r="AE10" s="0">
-        <v>12.172976427827209</v>
+        <v>12.118395911427651</v>
       </c>
       <c r="AF10" s="0">
-        <v>17.65539356183713</v>
+        <v>17.940302889318559</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>24.859010722561909</v>
+        <v>22.916740597543725</v>
       </c>
       <c r="B11" s="0">
-        <v>28.637459012478335</v>
+        <v>22.944133459290704</v>
       </c>
       <c r="C11" s="0">
-        <v>27.765898779400636</v>
+        <v>23.377093230443172</v>
       </c>
       <c r="D11" s="0">
-        <v>25.835265362035294</v>
+        <v>20.553768412033161</v>
       </c>
       <c r="E11" s="0">
-        <v>27.884198246082377</v>
+        <v>22.334014291696789</v>
       </c>
       <c r="F11" s="0">
-        <v>25.780968635334798</v>
+        <v>24.594743644967068</v>
       </c>
       <c r="G11" s="0">
-        <v>29.518904690841406</v>
+        <v>23.958538440329129</v>
       </c>
       <c r="H11" s="0">
-        <v>29.016395784659629</v>
+        <v>22.809656383427242</v>
       </c>
       <c r="I11" s="0">
-        <v>25.744604120115323</v>
+        <v>21.8827601229968</v>
       </c>
       <c r="J11" s="0">
-        <v>25.060263327201845</v>
+        <v>23.149551972156893</v>
       </c>
       <c r="K11" s="0">
-        <v>25.321072035904564</v>
+        <v>22.692044564359044</v>
       </c>
       <c r="L11" s="0">
-        <v>26.971788236708431</v>
+        <v>21.382127520275162</v>
       </c>
       <c r="M11" s="0">
-        <v>25.341579516913896</v>
+        <v>20.452828954851597</v>
       </c>
       <c r="N11" s="0">
-        <v>27.154015225610792</v>
+        <v>20.378444962928054</v>
       </c>
       <c r="O11" s="0">
-        <v>27.262000486691527</v>
+        <v>21.565719293468849</v>
       </c>
       <c r="P11" s="0">
-        <v>28.384111774107321</v>
+        <v>21.254926475248219</v>
       </c>
       <c r="Q11" s="0">
-        <v>27.584417807485245</v>
+        <v>21.7499178813596</v>
       </c>
       <c r="R11" s="0">
-        <v>21.871744073093705</v>
+        <v>18.70729467050484</v>
       </c>
       <c r="S11" s="0">
-        <v>26.346178655808117</v>
+        <v>22.598083468001295</v>
       </c>
       <c r="T11" s="0">
-        <v>25.498944221668193</v>
+        <v>22.183429465219085</v>
       </c>
       <c r="U11" s="0">
-        <v>18.690440124447257</v>
+        <v>18.725037148787361</v>
       </c>
       <c r="V11" s="0">
-        <v>24.083189584570444</v>
+        <v>21.577451956593197</v>
       </c>
       <c r="W11" s="0">
-        <v>16.699291825090668</v>
+        <v>16.712365431709351</v>
       </c>
       <c r="X11" s="0">
-        <v>13.332654262680908</v>
+        <v>12.747385883242075</v>
       </c>
       <c r="Y11" s="0">
-        <v>22.530770368571361</v>
+        <v>21.180898061961688</v>
       </c>
       <c r="Z11" s="0">
-        <v>21.214789662304739</v>
+        <v>20.383235400940372</v>
       </c>
       <c r="AA11" s="0">
-        <v>20.32292245816592</v>
+        <v>19.47572976791086</v>
       </c>
       <c r="AB11" s="0">
-        <v>13.27777997407444</v>
+        <v>12.954295712401581</v>
       </c>
       <c r="AC11" s="0">
-        <v>20.545783760226158</v>
+        <v>20.316576674039585</v>
       </c>
       <c r="AD11" s="0">
-        <v>20.744938984795276</v>
+        <v>20.087210800579559</v>
       </c>
       <c r="AE11" s="0">
-        <v>13.73071806610702</v>
+        <v>13.599165506761633</v>
       </c>
       <c r="AF11" s="0">
-        <v>17.528611269699162</v>
+        <v>17.606632946513777</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>21.030740162121731</v>
+        <v>20.449074435664865</v>
       </c>
       <c r="B12" s="0">
-        <v>21.152996298836371</v>
+        <v>20.547857536924393</v>
       </c>
       <c r="C12" s="0">
-        <v>24.113388911481994</v>
+        <v>22.082014009747223</v>
       </c>
       <c r="D12" s="0">
-        <v>22.180132253209621</v>
+        <v>21.516308177366508</v>
       </c>
       <c r="E12" s="0">
-        <v>22.442613388901897</v>
+        <v>19.768394690601273</v>
       </c>
       <c r="F12" s="0">
-        <v>27.071589485465779</v>
+        <v>21.75571404925256</v>
       </c>
       <c r="G12" s="0">
-        <v>28.241727170130911</v>
+        <v>23.530656688986671</v>
       </c>
       <c r="H12" s="0">
-        <v>27.62516787389319</v>
+        <v>21.265700981066765</v>
       </c>
       <c r="I12" s="0">
-        <v>23.890579856314901</v>
+        <v>21.216243644395249</v>
       </c>
       <c r="J12" s="0">
-        <v>23.238948262904646</v>
+        <v>20.478402145906685</v>
       </c>
       <c r="K12" s="0">
-        <v>22.201844095487516</v>
+        <v>21.44762136111369</v>
       </c>
       <c r="L12" s="0">
-        <v>21.893964201584062</v>
+        <v>20.430301822178244</v>
       </c>
       <c r="M12" s="0">
-        <v>24.548984888544286</v>
+        <v>22.261942338991254</v>
       </c>
       <c r="N12" s="0">
-        <v>24.837033955036656</v>
+        <v>22.052205078940467</v>
       </c>
       <c r="O12" s="0">
-        <v>26.580556423898777</v>
+        <v>23.363646899578576</v>
       </c>
       <c r="P12" s="0">
-        <v>26.664042422481188</v>
+        <v>21.556256764619693</v>
       </c>
       <c r="Q12" s="0">
-        <v>24.555398554136524</v>
+        <v>22.225605636423424</v>
       </c>
       <c r="R12" s="0">
-        <v>24.575208343150393</v>
+        <v>22.333495893339975</v>
       </c>
       <c r="S12" s="0">
-        <v>22.043490784060474</v>
+        <v>21.058962878867298</v>
       </c>
       <c r="T12" s="0">
-        <v>21.010901931928338</v>
+        <v>19.415539563621873</v>
       </c>
       <c r="U12" s="0">
-        <v>18.204108235225714</v>
+        <v>18.207417738836391</v>
       </c>
       <c r="V12" s="0">
-        <v>19.714034156293611</v>
+        <v>18.394476371393392</v>
       </c>
       <c r="W12" s="0">
-        <v>22.428485452580659</v>
+        <v>22.091832996869037</v>
       </c>
       <c r="X12" s="0">
-        <v>13.565166704186254</v>
+        <v>13.210093424365015</v>
       </c>
       <c r="Y12" s="0">
-        <v>21.076034311012904</v>
+        <v>19.658587976435808</v>
       </c>
       <c r="Z12" s="0">
-        <v>20.89976782445488</v>
+        <v>19.423368596133589</v>
       </c>
       <c r="AA12" s="0">
-        <v>18.512302038737726</v>
+        <v>18.729786751966252</v>
       </c>
       <c r="AB12" s="0">
-        <v>13.531821858586927</v>
+        <v>12.952954403622243</v>
       </c>
       <c r="AC12" s="0">
-        <v>17.717633063365582</v>
+        <v>17.552465423161564</v>
       </c>
       <c r="AD12" s="0">
-        <v>18.804110897220291</v>
+        <v>17.286577336081685</v>
       </c>
       <c r="AE12" s="0">
-        <v>14.144310047349187</v>
+        <v>13.914497472778125</v>
       </c>
       <c r="AF12" s="0">
-        <v>20.859563353048344</v>
+        <v>20.058791221772282</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>23.493429434848817</v>
+        <v>23.696849212384912</v>
       </c>
       <c r="B13" s="0">
-        <v>22.15870782092756</v>
+        <v>21.168421892903147</v>
       </c>
       <c r="C13" s="0">
-        <v>20.999041065372076</v>
+        <v>21.015023835981147</v>
       </c>
       <c r="D13" s="0">
-        <v>23.656814150460249</v>
+        <v>22.56113238910946</v>
       </c>
       <c r="E13" s="0">
-        <v>23.05465898325934</v>
+        <v>21.841114363472141</v>
       </c>
       <c r="F13" s="0">
-        <v>21.901047867427465</v>
+        <v>20.8408139229679</v>
       </c>
       <c r="G13" s="0">
-        <v>22.491449636335886</v>
+        <v>19.688874755303004</v>
       </c>
       <c r="H13" s="0">
-        <v>22.046076414360822</v>
+        <v>21.059922874941321</v>
       </c>
       <c r="I13" s="0">
-        <v>21.97250663306712</v>
+        <v>20.839768692396202</v>
       </c>
       <c r="J13" s="0">
-        <v>19.408609018397261</v>
+        <v>18.731510287457958</v>
       </c>
       <c r="K13" s="0">
-        <v>20.27353461827186</v>
+        <v>19.143187279091073</v>
       </c>
       <c r="L13" s="0">
-        <v>20.822122772989502</v>
+        <v>20.950965082300236</v>
       </c>
       <c r="M13" s="0">
-        <v>22.669275970630565</v>
+        <v>21.796882192523857</v>
       </c>
       <c r="N13" s="0">
-        <v>21.662999856802095</v>
+        <v>22.35821203160706</v>
       </c>
       <c r="O13" s="0">
-        <v>23.480280022956123</v>
+        <v>23.173195413660977</v>
       </c>
       <c r="P13" s="0">
-        <v>26.204603196263566</v>
+        <v>23.969432748114379</v>
       </c>
       <c r="Q13" s="0">
-        <v>24.226836675744487</v>
+        <v>23.402105805753266</v>
       </c>
       <c r="R13" s="0">
-        <v>24.227047136227039</v>
+        <v>22.615594046366795</v>
       </c>
       <c r="S13" s="0">
-        <v>21.2377885563752</v>
+        <v>20.73227539844261</v>
       </c>
       <c r="T13" s="0">
-        <v>19.61769771279674</v>
+        <v>18.982043028015148</v>
       </c>
       <c r="U13" s="0">
-        <v>18.127129437590451</v>
+        <v>17.04328753003341</v>
       </c>
       <c r="V13" s="0">
-        <v>19.145713946967248</v>
+        <v>17.638950481190033</v>
       </c>
       <c r="W13" s="0">
-        <v>21.975839100544917</v>
+        <v>20.509198020899191</v>
       </c>
       <c r="X13" s="0">
-        <v>12.62252842269611</v>
+        <v>12.662559532338252</v>
       </c>
       <c r="Y13" s="0">
-        <v>20.139334972642821</v>
+        <v>17.829302929037041</v>
       </c>
       <c r="Z13" s="0">
-        <v>18.970899647548293</v>
+        <v>18.099859485374299</v>
       </c>
       <c r="AA13" s="0">
-        <v>17.838857915575822</v>
+        <v>16.997910403139652</v>
       </c>
       <c r="AB13" s="0">
-        <v>14.183316058630409</v>
+        <v>13.542006119925642</v>
       </c>
       <c r="AC13" s="0">
-        <v>17.455455102106534</v>
+        <v>17.141001207337155</v>
       </c>
       <c r="AD13" s="0">
-        <v>18.318622761525233</v>
+        <v>17.782605228741048</v>
       </c>
       <c r="AE13" s="0">
-        <v>15.479167415301578</v>
+        <v>15.035813879716088</v>
       </c>
       <c r="AF13" s="0">
-        <v>18.602206681440077</v>
+        <v>18.139160079479073</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>23.152258436069722</v>
+        <v>22.679150064922954</v>
       </c>
       <c r="B14" s="0">
-        <v>23.335473009472363</v>
+        <v>21.771168898536782</v>
       </c>
       <c r="C14" s="0">
-        <v>22.796928247257718</v>
+        <v>23.429728360376217</v>
       </c>
       <c r="D14" s="0">
-        <v>23.145069039500306</v>
+        <v>21.753284498639669</v>
       </c>
       <c r="E14" s="0">
-        <v>23.859967660956514</v>
+        <v>22.988932651326557</v>
       </c>
       <c r="F14" s="0">
-        <v>20.480006669667098</v>
+        <v>19.623725557500109</v>
       </c>
       <c r="G14" s="0">
-        <v>23.234143596499827</v>
+        <v>22.786862542142963</v>
       </c>
       <c r="H14" s="0">
-        <v>23.401242318071006</v>
+        <v>22.62166866326508</v>
       </c>
       <c r="I14" s="0">
-        <v>23.170823054940929</v>
+        <v>23.093649444812684</v>
       </c>
       <c r="J14" s="0">
-        <v>18.617670989152224</v>
+        <v>19.270344296449643</v>
       </c>
       <c r="K14" s="0">
-        <v>23.162748398040481</v>
+        <v>22.97201433609882</v>
       </c>
       <c r="L14" s="0">
-        <v>19.998351705060561</v>
+        <v>19.301066831158195</v>
       </c>
       <c r="M14" s="0">
-        <v>22.200561064545056</v>
+        <v>21.279244085725601</v>
       </c>
       <c r="N14" s="0">
-        <v>22.564595439973701</v>
+        <v>21.870857335238671</v>
       </c>
       <c r="O14" s="0">
-        <v>19.598823372765825</v>
+        <v>19.670177374516278</v>
       </c>
       <c r="P14" s="0">
-        <v>25.571678777776992</v>
+        <v>23.358390071080827</v>
       </c>
       <c r="Q14" s="0">
-        <v>23.469715643707218</v>
+        <v>22.763716970188142</v>
       </c>
       <c r="R14" s="0">
-        <v>20.681261131145465</v>
+        <v>20.087778519389925</v>
       </c>
       <c r="S14" s="0">
-        <v>21.810465731232874</v>
+        <v>20.006268101726871</v>
       </c>
       <c r="T14" s="0">
-        <v>19.955528273350978</v>
+        <v>18.876101605570334</v>
       </c>
       <c r="U14" s="0">
-        <v>18.452526532415995</v>
+        <v>18.401686797443254</v>
       </c>
       <c r="V14" s="0">
-        <v>18.167591178763985</v>
+        <v>17.790022347991542</v>
       </c>
       <c r="W14" s="0">
-        <v>19.336708691920023</v>
+        <v>18.26604119776573</v>
       </c>
       <c r="X14" s="0">
-        <v>14.103426572672815</v>
+        <v>13.008022668235853</v>
       </c>
       <c r="Y14" s="0">
-        <v>19.376232018554841</v>
+        <v>18.327597323449929</v>
       </c>
       <c r="Z14" s="0">
-        <v>18.347361780302048</v>
+        <v>17.211491531063416</v>
       </c>
       <c r="AA14" s="0">
-        <v>17.510178387832902</v>
+        <v>16.794079762567033</v>
       </c>
       <c r="AB14" s="0">
-        <v>14.026117096511959</v>
+        <v>13.836539167434328</v>
       </c>
       <c r="AC14" s="0">
-        <v>16.042183200720491</v>
+        <v>15.879624766033951</v>
       </c>
       <c r="AD14" s="0">
-        <v>17.15702915596529</v>
+        <v>16.383961838169643</v>
       </c>
       <c r="AE14" s="0">
-        <v>13.979304259765616</v>
+        <v>13.934453624795236</v>
       </c>
       <c r="AF14" s="0">
-        <v>18.207039474176007</v>
+        <v>17.75973957361019</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>22.259400696210704</v>
+        <v>22.206930619601039</v>
       </c>
       <c r="B15" s="0">
-        <v>23.352283893481115</v>
+        <v>22.064728001061571</v>
       </c>
       <c r="C15" s="0">
-        <v>22.87950796437006</v>
+        <v>20.487291174865984</v>
       </c>
       <c r="D15" s="0">
-        <v>24.194746836988109</v>
+        <v>22.389841481573761</v>
       </c>
       <c r="E15" s="0">
-        <v>22.936734141166959</v>
+        <v>21.478868028719948</v>
       </c>
       <c r="F15" s="0">
-        <v>23.319279926796401</v>
+        <v>22.158399625565657</v>
       </c>
       <c r="G15" s="0">
-        <v>23.254569948713666</v>
+        <v>20.934616876723386</v>
       </c>
       <c r="H15" s="0">
-        <v>22.245144604393765</v>
+        <v>21.85139198944308</v>
       </c>
       <c r="I15" s="0">
-        <v>23.138195579777641</v>
+        <v>21.469227074854615</v>
       </c>
       <c r="J15" s="0">
-        <v>19.555142874602133</v>
+        <v>19.525204279250705</v>
       </c>
       <c r="K15" s="0">
-        <v>17.917470379702806</v>
+        <v>17.999535609367193</v>
       </c>
       <c r="L15" s="0">
-        <v>16.444896931150094</v>
+        <v>16.230565153213131</v>
       </c>
       <c r="M15" s="0">
-        <v>18.138823750409895</v>
+        <v>17.942415411112862</v>
       </c>
       <c r="N15" s="0">
-        <v>19.153311903105681</v>
+        <v>18.567942025278715</v>
       </c>
       <c r="O15" s="0">
-        <v>18.764688235833059</v>
+        <v>17.809577131861452</v>
       </c>
       <c r="P15" s="0">
-        <v>20.759698054693384</v>
+        <v>20.422225503908571</v>
       </c>
       <c r="Q15" s="0">
-        <v>23.77746793473435</v>
+        <v>22.130180507023852</v>
       </c>
       <c r="R15" s="0">
-        <v>22.048700102067528</v>
+        <v>20.409565271283505</v>
       </c>
       <c r="S15" s="0">
-        <v>21.304939542938236</v>
+        <v>20.362989266353996</v>
       </c>
       <c r="T15" s="0">
-        <v>20.144805287806307</v>
+        <v>18.597317368958176</v>
       </c>
       <c r="U15" s="0">
-        <v>20.068607639706091</v>
+        <v>18.618646587827055</v>
       </c>
       <c r="V15" s="0">
-        <v>18.674425545045118</v>
+        <v>17.486242235757341</v>
       </c>
       <c r="W15" s="0">
-        <v>21.004802423711844</v>
+        <v>18.24146005832548</v>
       </c>
       <c r="X15" s="0">
-        <v>15.072557974330007</v>
+        <v>14.465989443752875</v>
       </c>
       <c r="Y15" s="0">
-        <v>20.002913710973345</v>
+        <v>18.776019050662779</v>
       </c>
       <c r="Z15" s="0">
-        <v>19.749047326252629</v>
+        <v>18.136584570576929</v>
       </c>
       <c r="AA15" s="0">
-        <v>19.070791111059879</v>
+        <v>18.198869421472747</v>
       </c>
       <c r="AB15" s="0">
-        <v>15.62330113353304</v>
+        <v>14.621719023711117</v>
       </c>
       <c r="AC15" s="0">
-        <v>16.489326655807037</v>
+        <v>14.752793024818336</v>
       </c>
       <c r="AD15" s="0">
-        <v>15.9743951572787</v>
+        <v>15.811654903769533</v>
       </c>
       <c r="AE15" s="0">
-        <v>13.105036924780011</v>
+        <v>13.172975373548875</v>
       </c>
       <c r="AF15" s="0">
-        <v>21.393282338593799</v>
+        <v>20.276347874410519</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>24.078973529592371</v>
+        <v>21.842651834655467</v>
       </c>
       <c r="B16" s="0">
-        <v>16.178535467596987</v>
+        <v>16.387870606394475</v>
       </c>
       <c r="C16" s="0">
-        <v>18.551557878144507</v>
+        <v>17.724069835262107</v>
       </c>
       <c r="D16" s="0">
-        <v>15.172672506811587</v>
+        <v>15.15984807103651</v>
       </c>
       <c r="E16" s="0">
-        <v>16.234848179607269</v>
+        <v>16.000808312235886</v>
       </c>
       <c r="F16" s="0">
-        <v>19.258094557927766</v>
+        <v>19.252300405265025</v>
       </c>
       <c r="G16" s="0">
-        <v>17.944373543976035</v>
+        <v>17.757065635457106</v>
       </c>
       <c r="H16" s="0">
-        <v>19.396172820030117</v>
+        <v>18.626651586025403</v>
       </c>
       <c r="I16" s="0">
-        <v>19.081672378217686</v>
+        <v>16.638126637071718</v>
       </c>
       <c r="J16" s="0">
-        <v>19.789725394897047</v>
+        <v>17.591915595000799</v>
       </c>
       <c r="K16" s="0">
-        <v>23.313412517049041</v>
+        <v>19.466873578078129</v>
       </c>
       <c r="L16" s="0">
-        <v>19.820666895282425</v>
+        <v>17.04071707791805</v>
       </c>
       <c r="M16" s="0">
-        <v>18.109141340678228</v>
+        <v>16.363832779326216</v>
       </c>
       <c r="N16" s="0">
-        <v>16.198523109901711</v>
+        <v>14.639281598516538</v>
       </c>
       <c r="O16" s="0">
-        <v>25.677406169139022</v>
+        <v>20.001569604013177</v>
       </c>
       <c r="P16" s="0">
-        <v>29.377904315137677</v>
+        <v>19.173491865077153</v>
       </c>
       <c r="Q16" s="0">
-        <v>20.726672054653797</v>
+        <v>16.767060108862172</v>
       </c>
       <c r="R16" s="0">
-        <v>26.889164997739279</v>
+        <v>19.826611486885483</v>
       </c>
       <c r="S16" s="0">
-        <v>22.950213534291336</v>
+        <v>18.456155849106324</v>
       </c>
       <c r="T16" s="0">
-        <v>19.344277538304095</v>
+        <v>15.650162165761582</v>
       </c>
       <c r="U16" s="0">
-        <v>21.942432595707775</v>
+        <v>17.701224624970976</v>
       </c>
       <c r="V16" s="0">
-        <v>20.879727658556174</v>
+        <v>17.223500454223746</v>
       </c>
       <c r="W16" s="0">
-        <v>21.914738556512443</v>
+        <v>16.899760048990995</v>
       </c>
       <c r="X16" s="0">
-        <v>18.707619332329973</v>
+        <v>16.221757964538661</v>
       </c>
       <c r="Y16" s="0">
-        <v>19.390513659622691</v>
+        <v>17.894552857064753</v>
       </c>
       <c r="Z16" s="0">
-        <v>19.906442164240683</v>
+        <v>18.258291832064266</v>
       </c>
       <c r="AA16" s="0">
-        <v>18.53553904915022</v>
+        <v>17.792627108978238</v>
       </c>
       <c r="AB16" s="0">
-        <v>17.245789714949041</v>
+        <v>15.429233119304275</v>
       </c>
       <c r="AC16" s="0">
-        <v>17.169705341974513</v>
+        <v>17.322656963069612</v>
       </c>
       <c r="AD16" s="0">
-        <v>22.157449244668332</v>
+        <v>20.214691392893258</v>
       </c>
       <c r="AE16" s="0">
-        <v>15.736081680493907</v>
+        <v>15.892887122281492</v>
       </c>
       <c r="AF16" s="0">
-        <v>27.495987142688968</v>
+        <v>20.864694632957537</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>19.874149359841311</v>
+        <v>19.058572590467396</v>
       </c>
       <c r="B17" s="0">
-        <v>19.780181173265142</v>
+        <v>18.21529281387749</v>
       </c>
       <c r="C17" s="0">
-        <v>19.260309171666947</v>
+        <v>18.363115187187049</v>
       </c>
       <c r="D17" s="0">
-        <v>19.560152570671399</v>
+        <v>17.567362456827745</v>
       </c>
       <c r="E17" s="0">
-        <v>25.379810359411085</v>
+        <v>20.54977440155044</v>
       </c>
       <c r="F17" s="0">
-        <v>25.916077032760594</v>
+        <v>19.915072093959402</v>
       </c>
       <c r="G17" s="0">
-        <v>25.697013232370661</v>
+        <v>19.957248670113458</v>
       </c>
       <c r="H17" s="0">
-        <v>26.702056422025251</v>
+        <v>19.15263802102357</v>
       </c>
       <c r="I17" s="0">
-        <v>25.607901844616986</v>
+        <v>20.380256538679294</v>
       </c>
       <c r="J17" s="0">
-        <v>17.742958057362934</v>
+        <v>16.606964225984253</v>
       </c>
       <c r="K17" s="0">
-        <v>14.85592408922869</v>
+        <v>14.487422060750282</v>
       </c>
       <c r="L17" s="0">
-        <v>16.006841575224446</v>
+        <v>14.942232616103635</v>
       </c>
       <c r="M17" s="0">
-        <v>18.471597082850163</v>
+        <v>15.850694533728259</v>
       </c>
       <c r="N17" s="0">
-        <v>29.724069455793543</v>
+        <v>20.391126833171779</v>
       </c>
       <c r="O17" s="0">
-        <v>32.587419737589926</v>
+        <v>19.064125650482492</v>
       </c>
       <c r="P17" s="0">
-        <v>32.189726475293263</v>
+        <v>19.590580404358739</v>
       </c>
       <c r="Q17" s="0">
-        <v>18.138308667037986</v>
+        <v>16.37303376083787</v>
       </c>
       <c r="R17" s="0">
-        <v>32.900137338513488</v>
+        <v>21.113579717691835</v>
       </c>
       <c r="S17" s="0">
-        <v>32.616471979372534</v>
+        <v>21.321220736388121</v>
       </c>
       <c r="T17" s="0">
-        <v>26.014441706159527</v>
+        <v>18.919381566470868</v>
       </c>
       <c r="U17" s="0">
-        <v>19.821547559158795</v>
+        <v>16.69785781408364</v>
       </c>
       <c r="V17" s="0">
-        <v>19.082538163583688</v>
+        <v>16.462679448164049</v>
       </c>
       <c r="W17" s="0">
-        <v>22.102641771104125</v>
+        <v>17.192553391549229</v>
       </c>
       <c r="X17" s="0">
-        <v>22.367604972767332</v>
+        <v>19.232624901633017</v>
       </c>
       <c r="Y17" s="0">
-        <v>24.68279978693197</v>
+        <v>18.628529554913875</v>
       </c>
       <c r="Z17" s="0">
-        <v>26.061626124987569</v>
+        <v>20.727895443159447</v>
       </c>
       <c r="AA17" s="0">
-        <v>27.10930770516644</v>
+        <v>20.529655524287733</v>
       </c>
       <c r="AB17" s="0">
-        <v>26.514397060839848</v>
+        <v>20.855043604924603</v>
       </c>
       <c r="AC17" s="0">
-        <v>26.312710071705187</v>
+        <v>19.699580837403097</v>
       </c>
       <c r="AD17" s="0">
-        <v>24.91237947934065</v>
+        <v>21.020061218604909</v>
       </c>
       <c r="AE17" s="0">
-        <v>17.719771746168504</v>
+        <v>16.164777357437373</v>
       </c>
       <c r="AF17" s="0">
-        <v>27.72135635526503</v>
+        <v>20.543240119301519</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>26.338801991454602</v>
+        <v>21.240238563900085</v>
       </c>
       <c r="B18" s="0">
-        <v>25.518563043095696</v>
+        <v>21.808646085106691</v>
       </c>
       <c r="C18" s="0">
-        <v>24.214374374945695</v>
+        <v>20.343348901018295</v>
       </c>
       <c r="D18" s="0">
-        <v>27.019254064327022</v>
+        <v>19.884835757231045</v>
       </c>
       <c r="E18" s="0">
-        <v>30.890977284632228</v>
+        <v>19.131536351685554</v>
       </c>
       <c r="F18" s="0">
-        <v>30.588746805941124</v>
+        <v>22.683473324614965</v>
       </c>
       <c r="G18" s="0">
-        <v>24.016171933177006</v>
+        <v>19.624779339761147</v>
       </c>
       <c r="H18" s="0">
-        <v>16.802259742126601</v>
+        <v>15.979136616766453</v>
       </c>
       <c r="I18" s="0">
-        <v>14.532799194823461</v>
+        <v>14.207721746202797</v>
       </c>
       <c r="J18" s="0">
-        <v>17.601756648347365</v>
+        <v>16.76097087362503</v>
       </c>
       <c r="K18" s="0">
-        <v>17.007736617219205</v>
+        <v>15.578011839762295</v>
       </c>
       <c r="L18" s="0">
-        <v>19.312863918738149</v>
+        <v>16.695834066751448</v>
       </c>
       <c r="M18" s="0">
-        <v>31.044888705458071</v>
+        <v>19.07598515361876</v>
       </c>
       <c r="N18" s="0">
-        <v>33.469061225500056</v>
+        <v>20.65159206120201</v>
       </c>
       <c r="O18" s="0">
-        <v>31.667190343865137</v>
+        <v>19.290866745060789</v>
       </c>
       <c r="P18" s="0">
-        <v>31.809936120689237</v>
+        <v>20.861516350303582</v>
       </c>
       <c r="Q18" s="0">
-        <v>19.546068443298168</v>
+        <v>17.706700904883132</v>
       </c>
       <c r="R18" s="0">
-        <v>17.751956896021962</v>
+        <v>15.771396616567898</v>
       </c>
       <c r="S18" s="0">
-        <v>33.129862872642406</v>
+        <v>20.93277368564053</v>
       </c>
       <c r="T18" s="0">
-        <v>33.683884646741461</v>
+        <v>20.142893018809829</v>
       </c>
       <c r="U18" s="0">
-        <v>31.180445501523977</v>
+        <v>21.387094331802018</v>
       </c>
       <c r="V18" s="0">
-        <v>22.467304767998812</v>
+        <v>19.247307647282067</v>
       </c>
       <c r="W18" s="0">
-        <v>18.369226723603667</v>
+        <v>15.92497676675864</v>
       </c>
       <c r="X18" s="0">
-        <v>19.097616125883032</v>
+        <v>17.059523915705608</v>
       </c>
       <c r="Y18" s="0">
-        <v>20.605498686977896</v>
+        <v>17.216656744238442</v>
       </c>
       <c r="Z18" s="0">
-        <v>22.208126449361679</v>
+        <v>17.838784931165598</v>
       </c>
       <c r="AA18" s="0">
-        <v>22.77741796060527</v>
+        <v>19.458782252432762</v>
       </c>
       <c r="AB18" s="0">
-        <v>33.016879741186223</v>
+        <v>20.625341521706257</v>
       </c>
       <c r="AC18" s="0">
-        <v>30.598270877721873</v>
+        <v>20.541383109546523</v>
       </c>
       <c r="AD18" s="0">
-        <v>27.44818927512345</v>
+        <v>20.422736445898984</v>
       </c>
       <c r="AE18" s="0">
-        <v>25.975736538322764</v>
+        <v>19.854590198355243</v>
       </c>
       <c r="AF18" s="0">
-        <v>27.577739578887233</v>
+        <v>20.692766495595166</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>28.723182469061342</v>
+        <v>21.198726301855856</v>
       </c>
       <c r="B19" s="0">
-        <v>31.83155112482617</v>
+        <v>20.67866387744369</v>
       </c>
       <c r="C19" s="0">
-        <v>29.51121607907627</v>
+        <v>24.626738115221087</v>
       </c>
       <c r="D19" s="0">
-        <v>28.7821673864022</v>
+        <v>21.487323797174728</v>
       </c>
       <c r="E19" s="0">
-        <v>19.265619833308826</v>
+        <v>17.649866239327654</v>
       </c>
       <c r="F19" s="0">
-        <v>19.054770365303867</v>
+        <v>16.776335473750329</v>
       </c>
       <c r="G19" s="0">
-        <v>15.072860808820863</v>
+        <v>14.792150736918163</v>
       </c>
       <c r="H19" s="0">
-        <v>17.723120561109802</v>
+        <v>17.134154885956455</v>
       </c>
       <c r="I19" s="0">
-        <v>18.933350254692137</v>
+        <v>17.266191384813592</v>
       </c>
       <c r="J19" s="0">
-        <v>15.891815915192922</v>
+        <v>14.435794103502726</v>
       </c>
       <c r="K19" s="0">
-        <v>24.530305530536527</v>
+        <v>19.315255216555023</v>
       </c>
       <c r="L19" s="0">
-        <v>27.024402718964282</v>
+        <v>19.714219817839524</v>
       </c>
       <c r="M19" s="0">
-        <v>32.877672432250613</v>
+        <v>19.588566090616112</v>
       </c>
       <c r="N19" s="0">
-        <v>30.188434050047821</v>
+        <v>20.359773244568697</v>
       </c>
       <c r="O19" s="0">
-        <v>32.805353385341888</v>
+        <v>20.528401730050771</v>
       </c>
       <c r="P19" s="0">
-        <v>32.791511677443907</v>
+        <v>21.234675567094229</v>
       </c>
       <c r="Q19" s="0">
-        <v>27.760292154542601</v>
+        <v>19.898689570306672</v>
       </c>
       <c r="R19" s="0">
-        <v>20.349515503124614</v>
+        <v>16.94322439195755</v>
       </c>
       <c r="S19" s="0">
-        <v>28.490869231292876</v>
+        <v>20.428693819126444</v>
       </c>
       <c r="T19" s="0">
-        <v>32.999450243722777</v>
+        <v>19.563805172553714</v>
       </c>
       <c r="U19" s="0">
-        <v>25.19311583680966</v>
+        <v>19.317740621950325</v>
       </c>
       <c r="V19" s="0">
-        <v>30.908054091678299</v>
+        <v>20.201437389959796</v>
       </c>
       <c r="W19" s="0">
-        <v>31.938910568842442</v>
+        <v>20.536544841618756</v>
       </c>
       <c r="X19" s="0">
-        <v>21.048942154727818</v>
+        <v>17.920602620259693</v>
       </c>
       <c r="Y19" s="0">
-        <v>17.153392552947498</v>
+        <v>14.959185194185114</v>
       </c>
       <c r="Z19" s="0">
-        <v>19.060690458675914</v>
+        <v>17.087410162950015</v>
       </c>
       <c r="AA19" s="0">
-        <v>23.246695072669574</v>
+        <v>19.090288099420537</v>
       </c>
       <c r="AB19" s="0">
-        <v>21.817703666195296</v>
+        <v>17.990457190574062</v>
       </c>
       <c r="AC19" s="0">
-        <v>21.700559900708019</v>
+        <v>18.298704848822119</v>
       </c>
       <c r="AD19" s="0">
-        <v>24.401287573962879</v>
+        <v>20.169047521611393</v>
       </c>
       <c r="AE19" s="0">
-        <v>28.569109922975322</v>
+        <v>20.788351916389978</v>
       </c>
       <c r="AF19" s="0">
-        <v>27.711580041104533</v>
+        <v>25.491379941090308</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>29.154238909659647</v>
+        <v>21.297453975325894</v>
       </c>
       <c r="B20" s="0">
-        <v>23.287603159605336</v>
+        <v>20.552199783162305</v>
       </c>
       <c r="C20" s="0">
-        <v>16.215309861807537</v>
+        <v>15.331923679455791</v>
       </c>
       <c r="D20" s="0">
-        <v>17.614968770859509</v>
+        <v>16.167311742871529</v>
       </c>
       <c r="E20" s="0">
-        <v>17.858067019657145</v>
+        <v>17.594426225500559</v>
       </c>
       <c r="F20" s="0">
-        <v>17.835193542039963</v>
+        <v>17.045292290318145</v>
       </c>
       <c r="G20" s="0">
-        <v>23.715668732918228</v>
+        <v>18.713037987225402</v>
       </c>
       <c r="H20" s="0">
-        <v>16.221319138203597</v>
+        <v>14.43484131611406</v>
       </c>
       <c r="I20" s="0">
-        <v>17.231477821041608</v>
+        <v>16.131209703111498</v>
       </c>
       <c r="J20" s="0">
-        <v>25.544934149433715</v>
+        <v>19.245649884981514</v>
       </c>
       <c r="K20" s="0">
-        <v>28.367563384515794</v>
+        <v>20.953892430512177</v>
       </c>
       <c r="L20" s="0">
-        <v>32.658594607373658</v>
+        <v>19.549157370596561</v>
       </c>
       <c r="M20" s="0">
-        <v>26.213944207921777</v>
+        <v>21.590712411321135</v>
       </c>
       <c r="N20" s="0">
-        <v>30.950688216187444</v>
+        <v>19.979181397840005</v>
       </c>
       <c r="O20" s="0">
-        <v>34.737219630920919</v>
+        <v>20.16800154770965</v>
       </c>
       <c r="P20" s="0">
-        <v>29.940218148855049</v>
+        <v>21.330037938385225</v>
       </c>
       <c r="Q20" s="0">
-        <v>32.274968544388351</v>
+        <v>19.157778265399589</v>
       </c>
       <c r="R20" s="0">
-        <v>14.45623603437452</v>
+        <v>13.726240130418288</v>
       </c>
       <c r="S20" s="0">
-        <v>29.188629934853836</v>
+        <v>19.662712494563522</v>
       </c>
       <c r="T20" s="0">
-        <v>29.930928646038055</v>
+        <v>22.295743321100794</v>
       </c>
       <c r="U20" s="0">
-        <v>32.271533618252583</v>
+        <v>20.629456972448473</v>
       </c>
       <c r="V20" s="0">
-        <v>30.919768391451736</v>
+        <v>20.522157488008666</v>
       </c>
       <c r="W20" s="0">
-        <v>31.301192978175472</v>
+        <v>20.771262638746038</v>
       </c>
       <c r="X20" s="0">
-        <v>29.277951655942314</v>
+        <v>19.932405721838219</v>
       </c>
       <c r="Y20" s="0">
-        <v>31.549138297200507</v>
+        <v>19.996518775269479</v>
       </c>
       <c r="Z20" s="0">
-        <v>19.988707615989938</v>
+        <v>17.044093674642376</v>
       </c>
       <c r="AA20" s="0">
-        <v>16.78187761365113</v>
+        <v>14.821364940876254</v>
       </c>
       <c r="AB20" s="0">
-        <v>18.804188372103546</v>
+        <v>16.831830200396841</v>
       </c>
       <c r="AC20" s="0">
-        <v>23.637623784775748</v>
+        <v>19.809748714352288</v>
       </c>
       <c r="AD20" s="0">
-        <v>24.425539863819601</v>
+        <v>18.294118254199979</v>
       </c>
       <c r="AE20" s="0">
-        <v>23.07009825693612</v>
+        <v>17.281353814937241</v>
       </c>
       <c r="AF20" s="0">
-        <v>24.365681170968074</v>
+        <v>19.992002807304658</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>15.17623618737356</v>
+        <v>14.258271278770792</v>
       </c>
       <c r="B21" s="0">
-        <v>16.92221847060862</v>
+        <v>15.486141212991615</v>
       </c>
       <c r="C21" s="0">
-        <v>18.365673771709115</v>
+        <v>18.590660121032951</v>
       </c>
       <c r="D21" s="0">
-        <v>18.287595009920388</v>
+        <v>17.543878590310594</v>
       </c>
       <c r="E21" s="0">
-        <v>29.818286879675625</v>
+        <v>18.276738906044049</v>
       </c>
       <c r="F21" s="0">
-        <v>18.405412788200852</v>
+        <v>16.792577118407824</v>
       </c>
       <c r="G21" s="0">
-        <v>15.366524424281934</v>
+        <v>14.342630637230807</v>
       </c>
       <c r="H21" s="0">
-        <v>21.425576627095374</v>
+        <v>18.048061525861222</v>
       </c>
       <c r="I21" s="0">
-        <v>27.560375341457814</v>
+        <v>19.607098064904164</v>
       </c>
       <c r="J21" s="0">
-        <v>31.496894543843457</v>
+        <v>20.437301779138615</v>
       </c>
       <c r="K21" s="0">
-        <v>32.728051129975235</v>
+        <v>20.302732939597323</v>
       </c>
       <c r="L21" s="0">
-        <v>33.563835929493685</v>
+        <v>18.499431293376713</v>
       </c>
       <c r="M21" s="0">
-        <v>29.842570674030267</v>
+        <v>17.966556706051573</v>
       </c>
       <c r="N21" s="0">
-        <v>33.163060148658118</v>
+        <v>18.470449098711804</v>
       </c>
       <c r="O21" s="0">
-        <v>26.499351394994058</v>
+        <v>18.589318322317069</v>
       </c>
       <c r="P21" s="0">
-        <v>31.887991921440801</v>
+        <v>22.168795644848991</v>
       </c>
       <c r="Q21" s="0">
-        <v>32.041685406761353</v>
+        <v>20.848476476322688</v>
       </c>
       <c r="R21" s="0">
-        <v>18.757991382852634</v>
+        <v>16.043623507813777</v>
       </c>
       <c r="S21" s="0">
-        <v>23.487145412798945</v>
+        <v>18.621897251011362</v>
       </c>
       <c r="T21" s="0">
-        <v>30.432906801383119</v>
+        <v>19.688983846516123</v>
       </c>
       <c r="U21" s="0">
-        <v>33.77814102064962</v>
+        <v>22.256431419793962</v>
       </c>
       <c r="V21" s="0">
-        <v>29.570098559356872</v>
+        <v>20.035905829817896</v>
       </c>
       <c r="W21" s="0">
-        <v>32.194653159594417</v>
+        <v>20.54405345775152</v>
       </c>
       <c r="X21" s="0">
-        <v>31.309954610493087</v>
+        <v>19.765670427323585</v>
       </c>
       <c r="Y21" s="0">
-        <v>31.227691055600694</v>
+        <v>19.215730877309504</v>
       </c>
       <c r="Z21" s="0">
-        <v>31.145602261630785</v>
+        <v>20.697031486862606</v>
       </c>
       <c r="AA21" s="0">
-        <v>30.855503039417357</v>
+        <v>21.932874831668482</v>
       </c>
       <c r="AB21" s="0">
-        <v>19.07466207061168</v>
+        <v>16.675121037869371</v>
       </c>
       <c r="AC21" s="0">
-        <v>15.895165071168385</v>
+        <v>13.885705563793241</v>
       </c>
       <c r="AD21" s="0">
-        <v>19.785932657088701</v>
+        <v>16.934526790114624</v>
       </c>
       <c r="AE21" s="0">
-        <v>28.646527046977383</v>
+        <v>20.201547912394403</v>
       </c>
       <c r="AF21" s="0">
-        <v>25.136660688867352</v>
+        <v>19.250746273081173</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>17.605370826296856</v>
+        <v>17.207283212173593</v>
       </c>
       <c r="B22" s="0">
-        <v>17.680666087161207</v>
+        <v>17.216237758699183</v>
       </c>
       <c r="C22" s="0">
-        <v>27.282043850439578</v>
+        <v>19.666365871132218</v>
       </c>
       <c r="D22" s="0">
-        <v>25.54805255748137</v>
+        <v>19.506261591005234</v>
       </c>
       <c r="E22" s="0">
-        <v>16.020892988670433</v>
+        <v>14.870836373749178</v>
       </c>
       <c r="F22" s="0">
-        <v>17.103830492726615</v>
+        <v>14.849017559286459</v>
       </c>
       <c r="G22" s="0">
-        <v>28.022530643510358</v>
+        <v>19.077713536181943</v>
       </c>
       <c r="H22" s="0">
-        <v>28.545567597281483</v>
+        <v>21.635405309678426</v>
       </c>
       <c r="I22" s="0">
-        <v>30.554055706506599</v>
+        <v>20.952541478139683</v>
       </c>
       <c r="J22" s="0">
-        <v>32.918667370872917</v>
+        <v>19.032401206529901</v>
       </c>
       <c r="K22" s="0">
-        <v>31.876105192011725</v>
+        <v>19.913757879233927</v>
       </c>
       <c r="L22" s="0">
-        <v>30.547605458597609</v>
+        <v>16.706160578262086</v>
       </c>
       <c r="M22" s="0">
-        <v>33.44236890213589</v>
+        <v>19.443157001745583</v>
       </c>
       <c r="N22" s="0">
-        <v>30.165353466467735</v>
+        <v>20.890580731384958</v>
       </c>
       <c r="O22" s="0">
-        <v>28.744801101043929</v>
+        <v>18.560583642951883</v>
       </c>
       <c r="P22" s="0">
-        <v>33.991220623976098</v>
+        <v>21.298689414775104</v>
       </c>
       <c r="Q22" s="0">
-        <v>29.326952570858509</v>
+        <v>21.907469598366582</v>
       </c>
       <c r="R22" s="0">
-        <v>33.66591414769379</v>
+        <v>20.233865543808818</v>
       </c>
       <c r="S22" s="0">
-        <v>27.363433653450222</v>
+        <v>18.838512702948556</v>
       </c>
       <c r="T22" s="0">
-        <v>31.906636803286467</v>
+        <v>19.793574713757359</v>
       </c>
       <c r="U22" s="0">
-        <v>33.74069239953397</v>
+        <v>19.841484311931229</v>
       </c>
       <c r="V22" s="0">
-        <v>33.590352824091468</v>
+        <v>21.081356973950935</v>
       </c>
       <c r="W22" s="0">
-        <v>29.110185185850398</v>
+        <v>21.705588978428374</v>
       </c>
       <c r="X22" s="0">
-        <v>31.051970516877596</v>
+        <v>21.555256469530274</v>
       </c>
       <c r="Y22" s="0">
-        <v>29.575899310388046</v>
+        <v>19.8759290029139</v>
       </c>
       <c r="Z22" s="0">
-        <v>29.838026074667393</v>
+        <v>22.166650213490012</v>
       </c>
       <c r="AA22" s="0">
-        <v>31.942409705324266</v>
+        <v>19.890652942203992</v>
       </c>
       <c r="AB22" s="0">
-        <v>33.310773638289099</v>
+        <v>21.501189664278307</v>
       </c>
       <c r="AC22" s="0">
-        <v>31.317533446773346</v>
+        <v>21.991558362852004</v>
       </c>
       <c r="AD22" s="0">
-        <v>17.951380754789483</v>
+        <v>15.821516759944487</v>
       </c>
       <c r="AE22" s="0">
-        <v>16.047391563677358</v>
+        <v>14.208431893803011</v>
       </c>
       <c r="AF22" s="0">
-        <v>19.85961448182487</v>
+        <v>16.66616957697941</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>25.995756945246239</v>
+        <v>20.160342954366275</v>
       </c>
       <c r="B23" s="0">
-        <v>29.597061797884734</v>
+        <v>19.653593249315183</v>
       </c>
       <c r="C23" s="0">
-        <v>18.093724077078551</v>
+        <v>16.568981403590357</v>
       </c>
       <c r="D23" s="0">
-        <v>14.590212617252673</v>
+        <v>13.965721356977543</v>
       </c>
       <c r="E23" s="0">
-        <v>19.351046831956456</v>
+        <v>16.449860672139781</v>
       </c>
       <c r="F23" s="0">
-        <v>32.422598476490627</v>
+        <v>20.545825160485393</v>
       </c>
       <c r="G23" s="0">
-        <v>33.834631676518498</v>
+        <v>19.725650436979379</v>
       </c>
       <c r="H23" s="0">
-        <v>33.917376737241206</v>
+        <v>20.158822557530272</v>
       </c>
       <c r="I23" s="0">
-        <v>33.191291990431303</v>
+        <v>19.634799609256746</v>
       </c>
       <c r="J23" s="0">
-        <v>31.317021801734043</v>
+        <v>20.804681490153687</v>
       </c>
       <c r="K23" s="0">
-        <v>31.815671714922718</v>
+        <v>19.27021766385678</v>
       </c>
       <c r="L23" s="0">
-        <v>33.783812886817081</v>
+        <v>16.573997238094719</v>
       </c>
       <c r="M23" s="0">
-        <v>31.277901779667388</v>
+        <v>20.237636308317878</v>
       </c>
       <c r="N23" s="0">
-        <v>27.413218382295625</v>
+        <v>20.187898769449475</v>
       </c>
       <c r="O23" s="0">
-        <v>32.519171084275349</v>
+        <v>18.4287433610866</v>
       </c>
       <c r="P23" s="0">
-        <v>32.137435144091455</v>
+        <v>19.723973013901031</v>
       </c>
       <c r="Q23" s="0">
-        <v>31.987577448928185</v>
+        <v>18.758460274331856</v>
       </c>
       <c r="R23" s="0">
-        <v>27.205751872204292</v>
+        <v>20.794223992909664</v>
       </c>
       <c r="S23" s="0">
-        <v>18.330529503686876</v>
+        <v>15.663768296524509</v>
       </c>
       <c r="T23" s="0">
-        <v>31.374544213812658</v>
+        <v>19.706514657411958</v>
       </c>
       <c r="U23" s="0">
-        <v>30.53775721652076</v>
+        <v>23.976863345530283</v>
       </c>
       <c r="V23" s="0">
-        <v>33.874706642154003</v>
+        <v>20.062776991376264</v>
       </c>
       <c r="W23" s="0">
-        <v>33.748705123110206</v>
+        <v>20.164840948557984</v>
       </c>
       <c r="X23" s="0">
-        <v>31.748960232168383</v>
+        <v>19.788157506968801</v>
       </c>
       <c r="Y23" s="0">
-        <v>33.327222796379068</v>
+        <v>20.854176863710098</v>
       </c>
       <c r="Z23" s="0">
-        <v>29.376555900463991</v>
+        <v>20.008175903253324</v>
       </c>
       <c r="AA23" s="0">
-        <v>33.459046103530049</v>
+        <v>20.90236650952804</v>
       </c>
       <c r="AB23" s="0">
-        <v>31.569716946737564</v>
+        <v>22.725139652395555</v>
       </c>
       <c r="AC23" s="0">
-        <v>27.463390514572176</v>
+        <v>21.890437099006927</v>
       </c>
       <c r="AD23" s="0">
-        <v>33.72406304685645</v>
+        <v>18.203213697357185</v>
       </c>
       <c r="AE23" s="0">
-        <v>29.466197722632657</v>
+        <v>18.638861538711563</v>
       </c>
       <c r="AF23" s="0">
-        <v>17.471841717712884</v>
+        <v>15.92285842119902</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>29.316357596586364</v>
+        <v>20.776530532232307</v>
       </c>
       <c r="B24" s="0">
-        <v>17.010449575636187</v>
+        <v>15.507895096711158</v>
       </c>
       <c r="C24" s="0">
-        <v>16.315082572850503</v>
+        <v>14.656634340925692</v>
       </c>
       <c r="D24" s="0">
-        <v>25.800295713728289</v>
+        <v>19.557898219552182</v>
       </c>
       <c r="E24" s="0">
-        <v>27.454246832569154</v>
+        <v>20.772365487451868</v>
       </c>
       <c r="F24" s="0">
-        <v>32.550462982042617</v>
+        <v>21.406174027298736</v>
       </c>
       <c r="G24" s="0">
-        <v>29.071065461374225</v>
+        <v>19.99442643351431</v>
       </c>
       <c r="H24" s="0">
-        <v>32.248614306653486</v>
+        <v>21.409348224828967</v>
       </c>
       <c r="I24" s="0">
-        <v>29.042072146797132</v>
+        <v>20.83769749935426</v>
       </c>
       <c r="J24" s="0">
-        <v>32.663588707508239</v>
+        <v>20.856064654293004</v>
       </c>
       <c r="K24" s="0">
-        <v>30.032471057066484</v>
+        <v>20.826840522896084</v>
       </c>
       <c r="L24" s="0">
-        <v>28.61514760883011</v>
+        <v>16.917196045755496</v>
       </c>
       <c r="M24" s="0">
-        <v>30.600457589433702</v>
+        <v>20.061519139064913</v>
       </c>
       <c r="N24" s="0">
-        <v>29.538672648469984</v>
+        <v>19.708415853514186</v>
       </c>
       <c r="O24" s="0">
-        <v>27.976693096525413</v>
+        <v>18.036403734878501</v>
       </c>
       <c r="P24" s="0">
-        <v>34.225367092570409</v>
+        <v>19.628330039326357</v>
       </c>
       <c r="Q24" s="0">
-        <v>28.563292144291967</v>
+        <v>20.935540969305713</v>
       </c>
       <c r="R24" s="0">
-        <v>29.578479135197718</v>
+        <v>20.473449564241342</v>
       </c>
       <c r="S24" s="0">
-        <v>14.483873946174091</v>
+        <v>14.539631820366925</v>
       </c>
       <c r="T24" s="0">
-        <v>16.457786456311503</v>
+        <v>14.88386378103111</v>
       </c>
       <c r="U24" s="0">
-        <v>31.736914622594266</v>
+        <v>20.636999054778578</v>
       </c>
       <c r="V24" s="0">
-        <v>32.617182321203188</v>
+        <v>20.32376752566066</v>
       </c>
       <c r="W24" s="0">
-        <v>28.819863812568659</v>
+        <v>20.922948323028482</v>
       </c>
       <c r="X24" s="0">
-        <v>30.277443014668709</v>
+        <v>20.867536430214614</v>
       </c>
       <c r="Y24" s="0">
-        <v>33.986989642255779</v>
+        <v>21.079354367065648</v>
       </c>
       <c r="Z24" s="0">
-        <v>27.913616156724391</v>
+        <v>20.517613578132654</v>
       </c>
       <c r="AA24" s="0">
-        <v>32.205876297042501</v>
+        <v>19.44314476182544</v>
       </c>
       <c r="AB24" s="0">
-        <v>32.337172035479703</v>
+        <v>19.74232070088491</v>
       </c>
       <c r="AC24" s="0">
-        <v>31.927029020978722</v>
+        <v>19.512705812641212</v>
       </c>
       <c r="AD24" s="0">
-        <v>32.789812484862395</v>
+        <v>19.332612344917351</v>
       </c>
       <c r="AE24" s="0">
-        <v>32.362368645407955</v>
+        <v>20.440710412794164</v>
       </c>
       <c r="AF24" s="0">
-        <v>32.423414439433877</v>
+        <v>20.188921025176882</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>15.238496093062949</v>
+        <v>14.387916965175284</v>
       </c>
       <c r="B25" s="0">
-        <v>17.239130606741387</v>
+        <v>15.411853188904407</v>
       </c>
       <c r="C25" s="0">
-        <v>31.795849934151398</v>
+        <v>21.175882216650152</v>
       </c>
       <c r="D25" s="0">
-        <v>33.125808216437107</v>
+        <v>20.289557182123403</v>
       </c>
       <c r="E25" s="0">
-        <v>33.799293294159881</v>
+        <v>21.515846917397784</v>
       </c>
       <c r="F25" s="0">
-        <v>32.526314403430632</v>
+        <v>19.339796774245588</v>
       </c>
       <c r="G25" s="0">
-        <v>32.468254250241529</v>
+        <v>19.211024103176676</v>
       </c>
       <c r="H25" s="0">
-        <v>31.237518145473192</v>
+        <v>20.032523927935703</v>
       </c>
       <c r="I25" s="0">
-        <v>29.554978412792188</v>
+        <v>20.636293683601863</v>
       </c>
       <c r="J25" s="0">
-        <v>33.372028764261913</v>
+        <v>20.550698472112003</v>
       </c>
       <c r="K25" s="0">
-        <v>30.999375935964938</v>
+        <v>21.42165245797117</v>
       </c>
       <c r="L25" s="0">
-        <v>29.626590705815467</v>
+        <v>17.026123517151866</v>
       </c>
       <c r="M25" s="0">
-        <v>32.614781283292587</v>
+        <v>18.449118550383162</v>
       </c>
       <c r="N25" s="0">
-        <v>31.342878341326987</v>
+        <v>18.565361415087821</v>
       </c>
       <c r="O25" s="0">
-        <v>32.75604313750371</v>
+        <v>17.990896534925856</v>
       </c>
       <c r="P25" s="0">
-        <v>31.4571167883466</v>
+        <v>20.236479631805544</v>
       </c>
       <c r="Q25" s="0">
-        <v>31.783995874608021</v>
+        <v>20.387052501652633</v>
       </c>
       <c r="R25" s="0">
-        <v>31.29114844326892</v>
+        <v>21.197031841038502</v>
       </c>
       <c r="S25" s="0">
-        <v>13.717767868233073</v>
+        <v>13.421069972030375</v>
       </c>
       <c r="T25" s="0">
-        <v>14.450611633184629</v>
+        <v>13.275023923778724</v>
       </c>
       <c r="U25" s="0">
-        <v>26.386828482451371</v>
+        <v>21.581983484972554</v>
       </c>
       <c r="V25" s="0">
-        <v>31.194353237480943</v>
+        <v>21.682635478579137</v>
       </c>
       <c r="W25" s="0">
-        <v>31.879783747507524</v>
+        <v>20.773514352854669</v>
       </c>
       <c r="X25" s="0">
-        <v>33.604365293410098</v>
+        <v>21.097106999494898</v>
       </c>
       <c r="Y25" s="0">
-        <v>28.861486554684561</v>
+        <v>20.806014807982237</v>
       </c>
       <c r="Z25" s="0">
-        <v>30.607041582517894</v>
+        <v>21.500844919159967</v>
       </c>
       <c r="AA25" s="0">
-        <v>28.502240272185354</v>
+        <v>19.761460621219541</v>
       </c>
       <c r="AB25" s="0">
-        <v>33.194655614353834</v>
+        <v>21.781340788525707</v>
       </c>
       <c r="AC25" s="0">
-        <v>32.091065124815508</v>
+        <v>21.740304311783383</v>
       </c>
       <c r="AD25" s="0">
-        <v>31.945497632351195</v>
+        <v>21.128526958181773</v>
       </c>
       <c r="AE25" s="0">
-        <v>32.459887431310655</v>
+        <v>21.02449793390474</v>
       </c>
       <c r="AF25" s="0">
-        <v>28.735413813011892</v>
+        <v>19.558540618490742</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>21.35779082402772</v>
+        <v>18.618675791273237</v>
       </c>
       <c r="B26" s="0">
-        <v>29.128207788841706</v>
+        <v>21.022395798881757</v>
       </c>
       <c r="C26" s="0">
-        <v>32.189696773404165</v>
+        <v>21.349684949191783</v>
       </c>
       <c r="D26" s="0">
-        <v>33.107502073162657</v>
+        <v>19.858397341018986</v>
       </c>
       <c r="E26" s="0">
-        <v>31.347018829453273</v>
+        <v>21.077451444971462</v>
       </c>
       <c r="F26" s="0">
-        <v>30.710727192722821</v>
+        <v>20.995410480229999</v>
       </c>
       <c r="G26" s="0">
-        <v>27.65461045750369</v>
+        <v>21.954496358926544</v>
       </c>
       <c r="H26" s="0">
-        <v>28.534197979677373</v>
+        <v>20.383299290755232</v>
       </c>
       <c r="I26" s="0">
-        <v>33.633143459927226</v>
+        <v>20.170022870794803</v>
       </c>
       <c r="J26" s="0">
-        <v>32.340608646367599</v>
+        <v>20.320768682518352</v>
       </c>
       <c r="K26" s="0">
-        <v>29.506949935928969</v>
+        <v>20.48619396335291</v>
       </c>
       <c r="L26" s="0">
-        <v>32.468766908813784</v>
+        <v>20.110656880572925</v>
       </c>
       <c r="M26" s="0">
-        <v>30.326326079611214</v>
+        <v>22.497774547154407</v>
       </c>
       <c r="N26" s="0">
-        <v>32.671782976140491</v>
+        <v>19.689167818999984</v>
       </c>
       <c r="O26" s="0">
-        <v>30.486694455301976</v>
+        <v>21.180967291415929</v>
       </c>
       <c r="P26" s="0">
-        <v>32.595927661571871</v>
+        <v>20.754089200433917</v>
       </c>
       <c r="Q26" s="0">
-        <v>31.159189411193388</v>
+        <v>20.700218660508959</v>
       </c>
       <c r="R26" s="0">
-        <v>31.782432200172824</v>
+        <v>21.426430471304915</v>
       </c>
       <c r="S26" s="0">
-        <v>16.108053686444013</v>
+        <v>15.505528493213481</v>
       </c>
       <c r="T26" s="0">
-        <v>17.261243348426955</v>
+        <v>16.290884257820547</v>
       </c>
       <c r="U26" s="0">
-        <v>30.19101223369336</v>
+        <v>19.578009141296391</v>
       </c>
       <c r="V26" s="0">
-        <v>33.932698877314749</v>
+        <v>20.757168881153916</v>
       </c>
       <c r="W26" s="0">
-        <v>32.473881367022393</v>
+        <v>21.467208533277919</v>
       </c>
       <c r="X26" s="0">
-        <v>32.44091629127287</v>
+        <v>19.657428723489151</v>
       </c>
       <c r="Y26" s="0">
-        <v>29.848374867842111</v>
+        <v>22.01061599880536</v>
       </c>
       <c r="Z26" s="0">
-        <v>32.542872152388846</v>
+        <v>20.285570535935094</v>
       </c>
       <c r="AA26" s="0">
-        <v>32.744253427360839</v>
+        <v>18.454313688312642</v>
       </c>
       <c r="AB26" s="0">
-        <v>32.343857349384699</v>
+        <v>19.95867637148098</v>
       </c>
       <c r="AC26" s="0">
-        <v>30.592387889599774</v>
+        <v>20.446425496156703</v>
       </c>
       <c r="AD26" s="0">
-        <v>32.927010552139492</v>
+        <v>21.272135416446392</v>
       </c>
       <c r="AE26" s="0">
-        <v>29.092640650043741</v>
+        <v>21.549330895470131</v>
       </c>
       <c r="AF26" s="0">
-        <v>32.282271183534746</v>
+        <v>18.530951476265852</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>27.58571587238167</v>
+        <v>20.979415457660579</v>
       </c>
       <c r="B27" s="0">
-        <v>32.336811830443224</v>
+        <v>19.995423152931632</v>
       </c>
       <c r="C27" s="0">
-        <v>30.709091911776301</v>
+        <v>21.91526158798424</v>
       </c>
       <c r="D27" s="0">
-        <v>30.511467817733955</v>
+        <v>23.422460875694242</v>
       </c>
       <c r="E27" s="0">
-        <v>30.539629909897851</v>
+        <v>21.297158480913502</v>
       </c>
       <c r="F27" s="0">
-        <v>29.84159037336881</v>
+        <v>21.345561944185441</v>
       </c>
       <c r="G27" s="0">
-        <v>26.703044690536419</v>
+        <v>21.114959779998177</v>
       </c>
       <c r="H27" s="0">
-        <v>27.876756399978653</v>
+        <v>21.017518258882745</v>
       </c>
       <c r="I27" s="0">
-        <v>30.662710580794435</v>
+        <v>21.182660507137211</v>
       </c>
       <c r="J27" s="0">
-        <v>31.08587361412356</v>
+        <v>20.837349713154882</v>
       </c>
       <c r="K27" s="0">
-        <v>31.222132252328656</v>
+        <v>20.270200896332533</v>
       </c>
       <c r="L27" s="0">
-        <v>30.047879728327246</v>
+        <v>20.417527814836514</v>
       </c>
       <c r="M27" s="0">
-        <v>29.16360281494153</v>
+        <v>22.167909812783861</v>
       </c>
       <c r="N27" s="0">
-        <v>32.120457742275889</v>
+        <v>21.045394355843904</v>
       </c>
       <c r="O27" s="0">
-        <v>30.768746979999989</v>
+        <v>21.463939505060683</v>
       </c>
       <c r="P27" s="0">
-        <v>29.473957829304993</v>
+        <v>20.535949148100219</v>
       </c>
       <c r="Q27" s="0">
-        <v>30.17779308310957</v>
+        <v>20.35958975742426</v>
       </c>
       <c r="R27" s="0">
-        <v>28.229435548368023</v>
+        <v>19.637714923121056</v>
       </c>
       <c r="S27" s="0">
-        <v>27.947452907644724</v>
+        <v>21.692476853864232</v>
       </c>
       <c r="T27" s="0">
-        <v>19.325460055623193</v>
+        <v>16.922709148802969</v>
       </c>
       <c r="U27" s="0">
-        <v>19.470557653391957</v>
+        <v>16.934741324421474</v>
       </c>
       <c r="V27" s="0">
-        <v>29.17383606786732</v>
+        <v>20.052580128013318</v>
       </c>
       <c r="W27" s="0">
-        <v>29.496212800701429</v>
+        <v>20.411191860868136</v>
       </c>
       <c r="X27" s="0">
-        <v>27.181040833697061</v>
+        <v>19.809613673886751</v>
       </c>
       <c r="Y27" s="0">
-        <v>32.026214109738056</v>
+        <v>22.96911675611954</v>
       </c>
       <c r="Z27" s="0">
-        <v>32.265884897597985</v>
+        <v>24.005662906505666</v>
       </c>
       <c r="AA27" s="0">
-        <v>30.588644673514509</v>
+        <v>20.1480529617907</v>
       </c>
       <c r="AB27" s="0">
-        <v>31.636951104750104</v>
+        <v>19.964500701376302</v>
       </c>
       <c r="AC27" s="0">
-        <v>30.304371489677862</v>
+        <v>19.611558664155012</v>
       </c>
       <c r="AD27" s="0">
-        <v>29.519002684930431</v>
+        <v>19.89205865767768</v>
       </c>
       <c r="AE27" s="0">
-        <v>28.062089027101813</v>
+        <v>21.184831451341807</v>
       </c>
       <c r="AF27" s="0">
-        <v>27.888029861225803</v>
+        <v>18.992450701393398</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>31.37326546512579</v>
+        <v>21.50847609876088</v>
       </c>
       <c r="B28" s="0">
-        <v>31.392706484005515</v>
+        <v>21.763967958158791</v>
       </c>
       <c r="C28" s="0">
-        <v>26.950566526861909</v>
+        <v>22.35435113607371</v>
       </c>
       <c r="D28" s="0">
-        <v>29.468953950536005</v>
+        <v>20.32614967028946</v>
       </c>
       <c r="E28" s="0">
-        <v>28.861478828323087</v>
+        <v>20.757425837526235</v>
       </c>
       <c r="F28" s="0">
-        <v>29.492856903047553</v>
+        <v>19.968554892573085</v>
       </c>
       <c r="G28" s="0">
-        <v>31.038882484165441</v>
+        <v>20.476879577284876</v>
       </c>
       <c r="H28" s="0">
-        <v>31.913896981512401</v>
+        <v>20.858181331023911</v>
       </c>
       <c r="I28" s="0">
-        <v>31.803782113493728</v>
+        <v>21.764480654583561</v>
       </c>
       <c r="J28" s="0">
-        <v>31.780493203742218</v>
+        <v>20.911680426404665</v>
       </c>
       <c r="K28" s="0">
-        <v>30.440134069700569</v>
+        <v>19.773620176743822</v>
       </c>
       <c r="L28" s="0">
-        <v>27.719840786808199</v>
+        <v>20.440559457014345</v>
       </c>
       <c r="M28" s="0">
-        <v>31.313157012190679</v>
+        <v>20.267987427935232</v>
       </c>
       <c r="N28" s="0">
-        <v>31.260256502211639</v>
+        <v>20.754465229469364</v>
       </c>
       <c r="O28" s="0">
-        <v>28.733428829246982</v>
+        <v>20.148131369341673</v>
       </c>
       <c r="P28" s="0">
-        <v>31.342168105803061</v>
+        <v>20.242281724014184</v>
       </c>
       <c r="Q28" s="0">
-        <v>28.724213838376514</v>
+        <v>20.190848708446033</v>
       </c>
       <c r="R28" s="0">
-        <v>30.737962133412616</v>
+        <v>19.481648947704926</v>
       </c>
       <c r="S28" s="0">
-        <v>31.422429034126043</v>
+        <v>20.608934330667527</v>
       </c>
       <c r="T28" s="0">
-        <v>30.699066381355522</v>
+        <v>21.261254516525106</v>
       </c>
       <c r="U28" s="0">
-        <v>29.628348579961212</v>
+        <v>18.404543301305868</v>
       </c>
       <c r="V28" s="0">
-        <v>29.671576741464825</v>
+        <v>20.439202053908815</v>
       </c>
       <c r="W28" s="0">
-        <v>32.813778849702167</v>
+        <v>22.174513892492755</v>
       </c>
       <c r="X28" s="0">
-        <v>31.940026798062071</v>
+        <v>19.83019941905691</v>
       </c>
       <c r="Y28" s="0">
-        <v>31.466064384813262</v>
+        <v>21.505393407328029</v>
       </c>
       <c r="Z28" s="0">
-        <v>30.358445351928122</v>
+        <v>22.25445942661888</v>
       </c>
       <c r="AA28" s="0">
-        <v>29.682021031245789</v>
+        <v>19.602899467719084</v>
       </c>
       <c r="AB28" s="0">
-        <v>32.276896798858758</v>
+        <v>19.913013772731073</v>
       </c>
       <c r="AC28" s="0">
-        <v>29.826237238095409</v>
+        <v>19.88484262869467</v>
       </c>
       <c r="AD28" s="0">
-        <v>30.293345503995099</v>
+        <v>20.343399715894591</v>
       </c>
       <c r="AE28" s="0">
-        <v>28.462371170750895</v>
+        <v>19.565290278418953</v>
       </c>
       <c r="AF28" s="0">
-        <v>32.306184862433284</v>
+        <v>20.255442162039195</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>29.553099387102627</v>
+        <v>20.987086048201313</v>
       </c>
       <c r="B29" s="0">
-        <v>30.435758536844176</v>
+        <v>22.643602783591877</v>
       </c>
       <c r="C29" s="0">
-        <v>30.881974326563682</v>
+        <v>21.274579830790962</v>
       </c>
       <c r="D29" s="0">
-        <v>29.511283736774669</v>
+        <v>20.4153938818001</v>
       </c>
       <c r="E29" s="0">
-        <v>31.910942736913594</v>
+        <v>21.400674390661333</v>
       </c>
       <c r="F29" s="0">
-        <v>29.803340586383268</v>
+        <v>20.651963606876052</v>
       </c>
       <c r="G29" s="0">
-        <v>31.061084888946404</v>
+        <v>21.530225652256636</v>
       </c>
       <c r="H29" s="0">
-        <v>31.578901152299409</v>
+        <v>21.467525767875195</v>
       </c>
       <c r="I29" s="0">
-        <v>27.655476967430424</v>
+        <v>19.747902061549965</v>
       </c>
       <c r="J29" s="0">
-        <v>31.365422522677051</v>
+        <v>21.512004297515851</v>
       </c>
       <c r="K29" s="0">
-        <v>31.917191526369738</v>
+        <v>21.368782264424819</v>
       </c>
       <c r="L29" s="0">
-        <v>30.244368450169997</v>
+        <v>20.336423333972853</v>
       </c>
       <c r="M29" s="0">
-        <v>31.451644581818453</v>
+        <v>21.728855480810676</v>
       </c>
       <c r="N29" s="0">
-        <v>29.89235156007247</v>
+        <v>20.829127479312053</v>
       </c>
       <c r="O29" s="0">
-        <v>30.202451659266512</v>
+        <v>21.420130320084198</v>
       </c>
       <c r="P29" s="0">
-        <v>30.503296674192747</v>
+        <v>19.731920661567003</v>
       </c>
       <c r="Q29" s="0">
-        <v>26.275618551558821</v>
+        <v>21.14332967042245</v>
       </c>
       <c r="R29" s="0">
-        <v>27.045893084283922</v>
+        <v>22.848892707210627</v>
       </c>
       <c r="S29" s="0">
-        <v>31.74545306263045</v>
+        <v>21.858470560165138</v>
       </c>
       <c r="T29" s="0">
-        <v>29.013979735138005</v>
+        <v>20.771167981071123</v>
       </c>
       <c r="U29" s="0">
-        <v>28.875776944629507</v>
+        <v>19.719528826999341</v>
       </c>
       <c r="V29" s="0">
-        <v>32.304902395417493</v>
+        <v>20.411797916677262</v>
       </c>
       <c r="W29" s="0">
-        <v>30.629790855981355</v>
+        <v>20.98864725212519</v>
       </c>
       <c r="X29" s="0">
-        <v>32.456221448293412</v>
+        <v>21.247844740090656</v>
       </c>
       <c r="Y29" s="0">
-        <v>32.072966029788205</v>
+        <v>21.300959940823429</v>
       </c>
       <c r="Z29" s="0">
-        <v>30.60524321884315</v>
+        <v>21.264119173579026</v>
       </c>
       <c r="AA29" s="0">
-        <v>30.70159624192766</v>
+        <v>21.586936187378839</v>
       </c>
       <c r="AB29" s="0">
-        <v>30.078260052242189</v>
+        <v>20.05276481060012</v>
       </c>
       <c r="AC29" s="0">
-        <v>31.08581327047666</v>
+        <v>20.636196761262852</v>
       </c>
       <c r="AD29" s="0">
-        <v>31.508081913784601</v>
+        <v>20.410048889645708</v>
       </c>
       <c r="AE29" s="0">
-        <v>31.449632255925643</v>
+        <v>21.221744392807473</v>
       </c>
       <c r="AF29" s="0">
-        <v>30.745822631195843</v>
+        <v>21.334585626346161</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>32.308677433573557</v>
+        <v>22.021825115829099</v>
       </c>
       <c r="B30" s="0">
-        <v>30.467438006083654</v>
+        <v>19.273835634463222</v>
       </c>
       <c r="C30" s="0">
-        <v>32.069165284469697</v>
+        <v>18.939885119583963</v>
       </c>
       <c r="D30" s="0">
-        <v>31.770780108849884</v>
+        <v>21.436718618103868</v>
       </c>
       <c r="E30" s="0">
-        <v>27.614837235265675</v>
+        <v>21.572170260008562</v>
       </c>
       <c r="F30" s="0">
-        <v>32.180892617996349</v>
+        <v>20.549283407779228</v>
       </c>
       <c r="G30" s="0">
-        <v>31.018322230372068</v>
+        <v>21.503368442389291</v>
       </c>
       <c r="H30" s="0">
-        <v>29.832510447085433</v>
+        <v>22.282524219368156</v>
       </c>
       <c r="I30" s="0">
-        <v>29.570041452896231</v>
+        <v>19.271817219291311</v>
       </c>
       <c r="J30" s="0">
-        <v>31.499893567725255</v>
+        <v>21.850477498147328</v>
       </c>
       <c r="K30" s="0">
-        <v>32.974093806662488</v>
+        <v>20.503787112704757</v>
       </c>
       <c r="L30" s="0">
-        <v>31.581567890475508</v>
+        <v>19.65298992664065</v>
       </c>
       <c r="M30" s="0">
-        <v>27.394202447618948</v>
+        <v>20.639837585332543</v>
       </c>
       <c r="N30" s="0">
-        <v>30.366181155656754</v>
+        <v>20.560703962275785</v>
       </c>
       <c r="O30" s="0">
-        <v>32.016341696482307</v>
+        <v>21.364054765708577</v>
       </c>
       <c r="P30" s="0">
-        <v>31.463690915731831</v>
+        <v>20.849331300973386</v>
       </c>
       <c r="Q30" s="0">
-        <v>31.250698701027183</v>
+        <v>19.77133916394094</v>
       </c>
       <c r="R30" s="0">
-        <v>27.799502673262715</v>
+        <v>22.596176588417837</v>
       </c>
       <c r="S30" s="0">
-        <v>30.819870444912887</v>
+        <v>21.32050100275146</v>
       </c>
       <c r="T30" s="0">
-        <v>29.194758076779227</v>
+        <v>19.520910420228532</v>
       </c>
       <c r="U30" s="0">
-        <v>30.840307539576894</v>
+        <v>21.065495196624532</v>
       </c>
       <c r="V30" s="0">
-        <v>29.993172481312659</v>
+        <v>19.364972668510024</v>
       </c>
       <c r="W30" s="0">
-        <v>31.277207494978853</v>
+        <v>20.052638150755165</v>
       </c>
       <c r="X30" s="0">
-        <v>29.836020999327218</v>
+        <v>21.389277001173582</v>
       </c>
       <c r="Y30" s="0">
-        <v>29.350712947108065</v>
+        <v>22.125735537522164</v>
       </c>
       <c r="Z30" s="0">
-        <v>30.372005318138022</v>
+        <v>20.398815259693595</v>
       </c>
       <c r="AA30" s="0">
-        <v>28.975020663543233</v>
+        <v>20.639407578134296</v>
       </c>
       <c r="AB30" s="0">
-        <v>29.759069008274036</v>
+        <v>18.497317290258369</v>
       </c>
       <c r="AC30" s="0">
-        <v>25.266232535900116</v>
+        <v>20.185557588915589</v>
       </c>
       <c r="AD30" s="0">
-        <v>27.980855166076012</v>
+        <v>19.753379997331635</v>
       </c>
       <c r="AE30" s="0">
-        <v>31.193168993469705</v>
+        <v>19.831454557813949</v>
       </c>
       <c r="AF30" s="0">
-        <v>29.719348323515025</v>
+        <v>20.117478146737113</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>30.727140905029628</v>
+        <v>20.428298392990168</v>
       </c>
       <c r="B31" s="0">
-        <v>28.110472871730718</v>
+        <v>19.640264462779953</v>
       </c>
       <c r="C31" s="0">
-        <v>30.148705839427731</v>
+        <v>20.469501571146452</v>
       </c>
       <c r="D31" s="0">
-        <v>32.432093391990804</v>
+        <v>20.765481986363742</v>
       </c>
       <c r="E31" s="0">
-        <v>31.351071810874529</v>
+        <v>21.756311717073075</v>
       </c>
       <c r="F31" s="0">
-        <v>32.383166032420213</v>
+        <v>20.762190599031527</v>
       </c>
       <c r="G31" s="0">
-        <v>28.738003293950911</v>
+        <v>21.041880580773295</v>
       </c>
       <c r="H31" s="0">
-        <v>30.76567952335558</v>
+        <v>21.058633311862621</v>
       </c>
       <c r="I31" s="0">
-        <v>30.909814499193789</v>
+        <v>21.038789742391852</v>
       </c>
       <c r="J31" s="0">
-        <v>32.321092581675885</v>
+        <v>21.299439001125798</v>
       </c>
       <c r="K31" s="0">
-        <v>32.824509975590281</v>
+        <v>20.272565011621104</v>
       </c>
       <c r="L31" s="0">
-        <v>31.711362440035597</v>
+        <v>21.727228594950574</v>
       </c>
       <c r="M31" s="0">
-        <v>27.707991858798565</v>
+        <v>22.436109221691595</v>
       </c>
       <c r="N31" s="0">
-        <v>30.693101248944554</v>
+        <v>21.67811967163054</v>
       </c>
       <c r="O31" s="0">
-        <v>31.172185907456068</v>
+        <v>20.065390183948075</v>
       </c>
       <c r="P31" s="0">
-        <v>29.401466082865287</v>
+        <v>20.452333188743065</v>
       </c>
       <c r="Q31" s="0">
-        <v>30.620240232043837</v>
+        <v>22.61192214608139</v>
       </c>
       <c r="R31" s="0">
-        <v>30.70184109874781</v>
+        <v>20.466243778150531</v>
       </c>
       <c r="S31" s="0">
-        <v>26.967675444009881</v>
+        <v>20.961430395714615</v>
       </c>
       <c r="T31" s="0">
-        <v>29.741919359284324</v>
+        <v>18.933814760633247</v>
       </c>
       <c r="U31" s="0">
-        <v>29.730025592473126</v>
+        <v>21.661868672755041</v>
       </c>
       <c r="V31" s="0">
-        <v>29.469274803678339</v>
+        <v>21.789429511144576</v>
       </c>
       <c r="W31" s="0">
-        <v>29.893150970190021</v>
+        <v>21.326804269867679</v>
       </c>
       <c r="X31" s="0">
-        <v>30.691969212921187</v>
+        <v>20.755564991495106</v>
       </c>
       <c r="Y31" s="0">
-        <v>29.684507099877273</v>
+        <v>20.546490653605911</v>
       </c>
       <c r="Z31" s="0">
-        <v>31.157578737823481</v>
+        <v>21.79510890132109</v>
       </c>
       <c r="AA31" s="0">
-        <v>30.975082550283265</v>
+        <v>22.097721744937747</v>
       </c>
       <c r="AB31" s="0">
-        <v>30.829315538001243</v>
+        <v>19.8268119052196</v>
       </c>
       <c r="AC31" s="0">
-        <v>28.541167146965023</v>
+        <v>20.280277676391933</v>
       </c>
       <c r="AD31" s="0">
-        <v>29.610757458019066</v>
+        <v>21.053164938199451</v>
       </c>
       <c r="AE31" s="0">
-        <v>25.485772933080387</v>
+        <v>21.543579655331456</v>
       </c>
       <c r="AF31" s="0">
-        <v>30.716061294402056</v>
+        <v>20.890692778801476</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>30.844084488316135</v>
+        <v>20.374621104137375</v>
       </c>
       <c r="B32" s="0">
-        <v>31.548504624977305</v>
+        <v>19.849996915643221</v>
       </c>
       <c r="C32" s="0">
-        <v>30.732805462695186</v>
+        <v>20.898765283680977</v>
       </c>
       <c r="D32" s="0">
-        <v>31.463362108324993</v>
+        <v>20.781569878674343</v>
       </c>
       <c r="E32" s="0">
-        <v>27.149617661093703</v>
+        <v>21.857587611238088</v>
       </c>
       <c r="F32" s="0">
-        <v>32.466070513697929</v>
+        <v>22.106824855791672</v>
       </c>
       <c r="G32" s="0">
-        <v>32.175234370511369</v>
+        <v>21.023449841789919</v>
       </c>
       <c r="H32" s="0">
-        <v>30.667499477783654</v>
+        <v>21.42768643953195</v>
       </c>
       <c r="I32" s="0">
-        <v>29.887725074678478</v>
+        <v>19.523043152539874</v>
       </c>
       <c r="J32" s="0">
-        <v>28.417373334221381</v>
+        <v>20.772657281897743</v>
       </c>
       <c r="K32" s="0">
-        <v>30.93976338076985</v>
+        <v>19.962047861390321</v>
       </c>
       <c r="L32" s="0">
-        <v>29.431148432717833</v>
+        <v>19.588187861163338</v>
       </c>
       <c r="M32" s="0">
-        <v>29.534354091056692</v>
+        <v>19.402178037056451</v>
       </c>
       <c r="N32" s="0">
-        <v>31.834850419954904</v>
+        <v>19.454873092945171</v>
       </c>
       <c r="O32" s="0">
-        <v>29.696433379996737</v>
+        <v>19.802109263159828</v>
       </c>
       <c r="P32" s="0">
-        <v>32.212063463519264</v>
+        <v>22.049593120485941</v>
       </c>
       <c r="Q32" s="0">
-        <v>31.084638801253064</v>
+        <v>21.682143545467941</v>
       </c>
       <c r="R32" s="0">
-        <v>29.806707990505437</v>
+        <v>22.332390770151331</v>
       </c>
       <c r="S32" s="0">
-        <v>31.34382103826588</v>
+        <v>20.499321760248801</v>
       </c>
       <c r="T32" s="0">
-        <v>30.729566177486248</v>
+        <v>21.674420367071882</v>
       </c>
       <c r="U32" s="0">
-        <v>30.757510833554676</v>
+        <v>19.590281854928811</v>
       </c>
       <c r="V32" s="0">
-        <v>30.266708105546197</v>
+        <v>19.159239881699651</v>
       </c>
       <c r="W32" s="0">
-        <v>30.191205584744793</v>
+        <v>18.869278487630233</v>
       </c>
       <c r="X32" s="0">
-        <v>29.289190885325578</v>
+        <v>21.842796174852413</v>
       </c>
       <c r="Y32" s="0">
-        <v>29.634740239409865</v>
+        <v>20.086833673513116</v>
       </c>
       <c r="Z32" s="0">
-        <v>29.567735972093999</v>
+        <v>21.164251417453546</v>
       </c>
       <c r="AA32" s="0">
-        <v>30.856405873123446</v>
+        <v>20.906650114158616</v>
       </c>
       <c r="AB32" s="0">
-        <v>29.924961492776223</v>
+        <v>19.938048591076971</v>
       </c>
       <c r="AC32" s="0">
-        <v>29.772524297078181</v>
+        <v>21.964435619366931</v>
       </c>
       <c r="AD32" s="0">
-        <v>30.6355061700182</v>
+        <v>19.657638667702216</v>
       </c>
       <c r="AE32" s="0">
-        <v>28.263264580433727</v>
+        <v>20.751159269610575</v>
       </c>
       <c r="AF32" s="0">
-        <v>29.643527334176824</v>
+        <v>19.657234175805108</v>
       </c>
     </row>
   </sheetData>

--- a/change/test/block_PSNR.xlsx
+++ b/change/test/block_PSNR.xlsx
@@ -95,3138 +95,3138 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>33.648644784098359</v>
+        <v>20.781379015968447</v>
       </c>
       <c r="B1" s="0">
-        <v>32.071844580486577</v>
+        <v>20.943240124262541</v>
       </c>
       <c r="C1" s="0">
-        <v>34.024581426141879</v>
+        <v>20.309947394380607</v>
       </c>
       <c r="D1" s="0">
-        <v>34.423908166724011</v>
+        <v>20.328084867846975</v>
       </c>
       <c r="E1" s="0">
-        <v>32.878594457323288</v>
+        <v>20.798854292806386</v>
       </c>
       <c r="F1" s="0">
-        <v>31.558734028744961</v>
+        <v>21.022302850716645</v>
       </c>
       <c r="G1" s="0">
-        <v>32.446499619176969</v>
+        <v>20.672987888330955</v>
       </c>
       <c r="H1" s="0">
-        <v>31.494293971575267</v>
+        <v>21.093908935047732</v>
       </c>
       <c r="I1" s="0">
-        <v>32.032635860075729</v>
+        <v>21.677267783229404</v>
       </c>
       <c r="J1" s="0">
-        <v>32.257234796621191</v>
+        <v>20.157689034935228</v>
       </c>
       <c r="K1" s="0">
-        <v>33.540867012138321</v>
+        <v>20.517295143345041</v>
       </c>
       <c r="L1" s="0">
-        <v>33.231095424253915</v>
+        <v>20.849427299435646</v>
       </c>
       <c r="M1" s="0">
-        <v>34.234358031354226</v>
+        <v>20.799720158500747</v>
       </c>
       <c r="N1" s="0">
-        <v>33.045923715514469</v>
+        <v>20.132453071205312</v>
       </c>
       <c r="O1" s="0">
-        <v>34.729668464221305</v>
+        <v>20.207255617498063</v>
       </c>
       <c r="P1" s="0">
-        <v>33.626011940831482</v>
+        <v>20.146698783414628</v>
       </c>
       <c r="Q1" s="0">
-        <v>34.722003266364226</v>
+        <v>20.15452511334523</v>
       </c>
       <c r="R1" s="0">
-        <v>35.597182094533849</v>
+        <v>19.902529863856131</v>
       </c>
       <c r="S1" s="0">
-        <v>34.723947029241437</v>
+        <v>20.004796082021478</v>
       </c>
       <c r="T1" s="0">
-        <v>34.996883022939627</v>
+        <v>19.526852887146365</v>
       </c>
       <c r="U1" s="0">
-        <v>35.080119838950161</v>
+        <v>20.133830280043647</v>
       </c>
       <c r="V1" s="0">
-        <v>34.010798083163721</v>
+        <v>19.335154810829668</v>
       </c>
       <c r="W1" s="0">
-        <v>32.769211755130868</v>
+        <v>19.155655754468487</v>
       </c>
       <c r="X1" s="0">
-        <v>35.058272690482603</v>
+        <v>19.284272342340682</v>
       </c>
       <c r="Y1" s="0">
-        <v>21.565456109772654</v>
+        <v>18.727055940926011</v>
       </c>
       <c r="Z1" s="0">
-        <v>14.186759198906827</v>
+        <v>15.506491676772317</v>
       </c>
       <c r="AA1" s="0">
-        <v>12.772085097856564</v>
+        <v>14.622881936748584</v>
       </c>
       <c r="AB1" s="0">
-        <v>20.431650750492516</v>
+        <v>20.872394805390439</v>
       </c>
       <c r="AC1" s="0">
-        <v>22.044920341283834</v>
+        <v>22.737460944632055</v>
       </c>
       <c r="AD1" s="0">
-        <v>16.906469786441811</v>
+        <v>16.931531787126751</v>
       </c>
       <c r="AE1" s="0">
-        <v>18.318573366819653</v>
+        <v>19.245023034476329</v>
       </c>
       <c r="AF1" s="0">
-        <v>17.817115138899311</v>
+        <v>18.580174832002239</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>32.052288569250884</v>
+        <v>20.214398248437391</v>
       </c>
       <c r="B2" s="0">
-        <v>31.544988758286266</v>
+        <v>20.076093389598629</v>
       </c>
       <c r="C2" s="0">
-        <v>31.539073025193908</v>
+        <v>20.585391207610073</v>
       </c>
       <c r="D2" s="0">
-        <v>33.004727079818146</v>
+        <v>20.749903125765918</v>
       </c>
       <c r="E2" s="0">
-        <v>34.184402519348836</v>
+        <v>20.936051636645455</v>
       </c>
       <c r="F2" s="0">
-        <v>32.53244208483234</v>
+        <v>20.950160623190719</v>
       </c>
       <c r="G2" s="0">
-        <v>33.388497494997786</v>
+        <v>20.554088586496874</v>
       </c>
       <c r="H2" s="0">
-        <v>34.452361968627528</v>
+        <v>20.65210953947075</v>
       </c>
       <c r="I2" s="0">
-        <v>32.950355829804089</v>
+        <v>20.592996893139617</v>
       </c>
       <c r="J2" s="0">
-        <v>33.525749664920951</v>
+        <v>20.722492650070961</v>
       </c>
       <c r="K2" s="0">
-        <v>32.697563591281167</v>
+        <v>21.157021153135204</v>
       </c>
       <c r="L2" s="0">
-        <v>33.329266278705568</v>
+        <v>21.318680962240144</v>
       </c>
       <c r="M2" s="0">
-        <v>31.582305268364586</v>
+        <v>21.236013712304477</v>
       </c>
       <c r="N2" s="0">
-        <v>31.190891300614876</v>
+        <v>20.945364629283105</v>
       </c>
       <c r="O2" s="0">
-        <v>33.282545270254438</v>
+        <v>20.81082910818327</v>
       </c>
       <c r="P2" s="0">
-        <v>32.989982206712675</v>
+        <v>21.010409044666503</v>
       </c>
       <c r="Q2" s="0">
-        <v>32.885033075185277</v>
+        <v>20.81508613148462</v>
       </c>
       <c r="R2" s="0">
-        <v>34.595575962373019</v>
+        <v>20.355863857251908</v>
       </c>
       <c r="S2" s="0">
-        <v>35.357694249746302</v>
+        <v>21.036772196527977</v>
       </c>
       <c r="T2" s="0">
-        <v>34.727106443338876</v>
+        <v>20.146072796482876</v>
       </c>
       <c r="U2" s="0">
-        <v>34.256550449280603</v>
+        <v>19.715634588296382</v>
       </c>
       <c r="V2" s="0">
-        <v>35.614406618748013</v>
+        <v>19.835677305920711</v>
       </c>
       <c r="W2" s="0">
-        <v>36.019635623839143</v>
+        <v>19.834493146231992</v>
       </c>
       <c r="X2" s="0">
-        <v>35.203819823466048</v>
+        <v>19.308032026902254</v>
       </c>
       <c r="Y2" s="0">
-        <v>14.300831017841627</v>
+        <v>15.831255852698279</v>
       </c>
       <c r="Z2" s="0">
-        <v>14.412465796230812</v>
+        <v>15.149260232370505</v>
       </c>
       <c r="AA2" s="0">
-        <v>15.793387911503302</v>
+        <v>17.126349476216014</v>
       </c>
       <c r="AB2" s="0">
-        <v>19.537893267829581</v>
+        <v>20.727242971495571</v>
       </c>
       <c r="AC2" s="0">
-        <v>19.167989544371476</v>
+        <v>20.390529718961744</v>
       </c>
       <c r="AD2" s="0">
-        <v>16.187889982434708</v>
+        <v>16.226875887043555</v>
       </c>
       <c r="AE2" s="0">
-        <v>16.359482540534032</v>
+        <v>17.387225516660596</v>
       </c>
       <c r="AF2" s="0">
-        <v>19.257111082182256</v>
+        <v>19.284963324071882</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>35.349887305902264</v>
+        <v>19.755928815114817</v>
       </c>
       <c r="B3" s="0">
-        <v>35.190687185758037</v>
+        <v>19.73904015900893</v>
       </c>
       <c r="C3" s="0">
-        <v>32.436762287655327</v>
+        <v>20.318777083933092</v>
       </c>
       <c r="D3" s="0">
-        <v>32.513253137980371</v>
+        <v>21.186792509257252</v>
       </c>
       <c r="E3" s="0">
-        <v>31.118615909257684</v>
+        <v>21.454052139157707</v>
       </c>
       <c r="F3" s="0">
-        <v>29.517283830223967</v>
+        <v>21.763611495299934</v>
       </c>
       <c r="G3" s="0">
-        <v>31.305322640363684</v>
+        <v>21.43527954336691</v>
       </c>
       <c r="H3" s="0">
-        <v>29.637273102706484</v>
+        <v>21.377333319812863</v>
       </c>
       <c r="I3" s="0">
-        <v>33.248526259398645</v>
+        <v>21.023983652178984</v>
       </c>
       <c r="J3" s="0">
-        <v>30.977920652864562</v>
+        <v>20.743214368804086</v>
       </c>
       <c r="K3" s="0">
-        <v>31.825990545640579</v>
+        <v>21.243571842092553</v>
       </c>
       <c r="L3" s="0">
-        <v>30.094503990713818</v>
+        <v>20.944822669632515</v>
       </c>
       <c r="M3" s="0">
-        <v>32.227590744861708</v>
+        <v>22.276848183200713</v>
       </c>
       <c r="N3" s="0">
-        <v>31.770154558616937</v>
+        <v>21.382897790344888</v>
       </c>
       <c r="O3" s="0">
-        <v>32.111305530325119</v>
+        <v>21.266534791714633</v>
       </c>
       <c r="P3" s="0">
-        <v>31.090715951263146</v>
+        <v>21.239202363611813</v>
       </c>
       <c r="Q3" s="0">
-        <v>31.008836588685632</v>
+        <v>20.946701362066204</v>
       </c>
       <c r="R3" s="0">
-        <v>32.628861408706364</v>
+        <v>21.594638410117028</v>
       </c>
       <c r="S3" s="0">
-        <v>33.332633349239138</v>
+        <v>20.607391365783489</v>
       </c>
       <c r="T3" s="0">
-        <v>34.179765916799582</v>
+        <v>21.11315351774472</v>
       </c>
       <c r="U3" s="0">
-        <v>34.380211183698755</v>
+        <v>20.645871696035869</v>
       </c>
       <c r="V3" s="0">
-        <v>35.409915587346177</v>
+        <v>20.276496835366022</v>
       </c>
       <c r="W3" s="0">
-        <v>35.656879702618326</v>
+        <v>20.802177330108606</v>
       </c>
       <c r="X3" s="0">
-        <v>23.463886548507588</v>
+        <v>19.198570402797849</v>
       </c>
       <c r="Y3" s="0">
-        <v>14.098300148314635</v>
+        <v>15.449636809135299</v>
       </c>
       <c r="Z3" s="0">
-        <v>12.31567733887772</v>
+        <v>13.535476023844186</v>
       </c>
       <c r="AA3" s="0">
-        <v>19.669662120100682</v>
+        <v>20.200129814581992</v>
       </c>
       <c r="AB3" s="0">
-        <v>15.061039686794157</v>
+        <v>15.443219588064029</v>
       </c>
       <c r="AC3" s="0">
-        <v>17.701251136425661</v>
+        <v>18.579225158959094</v>
       </c>
       <c r="AD3" s="0">
-        <v>17.267977639631681</v>
+        <v>17.859886232641138</v>
       </c>
       <c r="AE3" s="0">
-        <v>20.257184660277691</v>
+        <v>21.042211742707856</v>
       </c>
       <c r="AF3" s="0">
-        <v>23.849053260452862</v>
+        <v>23.989468434892082</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>34.461853211384565</v>
+        <v>20.870921617342113</v>
       </c>
       <c r="B4" s="0">
-        <v>35.549105423245905</v>
+        <v>20.616291836479725</v>
       </c>
       <c r="C4" s="0">
-        <v>33.799542439535344</v>
+        <v>20.333150122048199</v>
       </c>
       <c r="D4" s="0">
-        <v>32.113829174650078</v>
+        <v>21.447593096232744</v>
       </c>
       <c r="E4" s="0">
-        <v>31.192441702895273</v>
+        <v>21.528947186471783</v>
       </c>
       <c r="F4" s="0">
-        <v>31.14027886524708</v>
+        <v>20.987316669820419</v>
       </c>
       <c r="G4" s="0">
-        <v>29.906869003056535</v>
+        <v>21.570323518626672</v>
       </c>
       <c r="H4" s="0">
-        <v>31.06138136533864</v>
+        <v>21.356137698681906</v>
       </c>
       <c r="I4" s="0">
-        <v>30.816129928716901</v>
+        <v>21.167399139346642</v>
       </c>
       <c r="J4" s="0">
-        <v>31.60953427259626</v>
+        <v>20.878685680330019</v>
       </c>
       <c r="K4" s="0">
-        <v>30.344905127661185</v>
+        <v>21.467422665784788</v>
       </c>
       <c r="L4" s="0">
-        <v>30.320247607655087</v>
+        <v>20.976126616929932</v>
       </c>
       <c r="M4" s="0">
-        <v>32.096254614964309</v>
+        <v>20.893294455623675</v>
       </c>
       <c r="N4" s="0">
-        <v>29.991579297415484</v>
+        <v>21.080290724370776</v>
       </c>
       <c r="O4" s="0">
-        <v>30.364804793690418</v>
+        <v>21.016911767355495</v>
       </c>
       <c r="P4" s="0">
-        <v>31.462996485471354</v>
+        <v>20.728773994791688</v>
       </c>
       <c r="Q4" s="0">
-        <v>30.798555010975328</v>
+        <v>20.9320571402321</v>
       </c>
       <c r="R4" s="0">
-        <v>31.700608797848325</v>
+        <v>20.986569520976033</v>
       </c>
       <c r="S4" s="0">
-        <v>31.835037178989197</v>
+        <v>20.242848832001087</v>
       </c>
       <c r="T4" s="0">
-        <v>33.052433002959759</v>
+        <v>20.128598692285003</v>
       </c>
       <c r="U4" s="0">
-        <v>34.968297208451915</v>
+        <v>20.128483209426395</v>
       </c>
       <c r="V4" s="0">
-        <v>35.633401995634905</v>
+        <v>20.620870805752524</v>
       </c>
       <c r="W4" s="0">
-        <v>35.740140331635828</v>
+        <v>20.03583778965686</v>
       </c>
       <c r="X4" s="0">
-        <v>19.167143845571296</v>
+        <v>18.204173994872402</v>
       </c>
       <c r="Y4" s="0">
-        <v>13.91893765356224</v>
+        <v>15.494626975788286</v>
       </c>
       <c r="Z4" s="0">
-        <v>16.096345696155726</v>
+        <v>16.917958140284274</v>
       </c>
       <c r="AA4" s="0">
-        <v>20.89500024719467</v>
+        <v>23.541170379517979</v>
       </c>
       <c r="AB4" s="0">
-        <v>14.163552602544275</v>
+        <v>14.301442882328796</v>
       </c>
       <c r="AC4" s="0">
-        <v>19.79557263654409</v>
+        <v>20.248172135439265</v>
       </c>
       <c r="AD4" s="0">
-        <v>20.481562433876206</v>
+        <v>22.436598552789363</v>
       </c>
       <c r="AE4" s="0">
-        <v>21.645241597230434</v>
+        <v>22.266980629259518</v>
       </c>
       <c r="AF4" s="0">
-        <v>23.196857001325672</v>
+        <v>24.235721362188166</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>34.960801671312495</v>
+        <v>20.010832682216176</v>
       </c>
       <c r="B5" s="0">
-        <v>35.051481964427886</v>
+        <v>20.180650880892657</v>
       </c>
       <c r="C5" s="0">
-        <v>34.188542063370825</v>
+        <v>20.972102516229164</v>
       </c>
       <c r="D5" s="0">
-        <v>33.46626232575543</v>
+        <v>20.917399706897072</v>
       </c>
       <c r="E5" s="0">
-        <v>32.375546443260703</v>
+        <v>20.094210711547177</v>
       </c>
       <c r="F5" s="0">
-        <v>32.661364316319514</v>
+        <v>20.543610756515029</v>
       </c>
       <c r="G5" s="0">
-        <v>32.048147023751497</v>
+        <v>20.323911500568002</v>
       </c>
       <c r="H5" s="0">
-        <v>34.072494664945992</v>
+        <v>21.232795049854282</v>
       </c>
       <c r="I5" s="0">
-        <v>33.769236766159828</v>
+        <v>20.610712498254202</v>
       </c>
       <c r="J5" s="0">
-        <v>32.870724714364819</v>
+        <v>20.172436493499426</v>
       </c>
       <c r="K5" s="0">
-        <v>33.167235943629635</v>
+        <v>19.644345296552711</v>
       </c>
       <c r="L5" s="0">
-        <v>33.518394173071179</v>
+        <v>20.058969669535422</v>
       </c>
       <c r="M5" s="0">
-        <v>33.341630393752197</v>
+        <v>19.60697032856087</v>
       </c>
       <c r="N5" s="0">
-        <v>32.887331685663312</v>
+        <v>19.838125227301717</v>
       </c>
       <c r="O5" s="0">
-        <v>33.430266006068251</v>
+        <v>20.122623799937163</v>
       </c>
       <c r="P5" s="0">
-        <v>34.538119974151783</v>
+        <v>20.034139993088399</v>
       </c>
       <c r="Q5" s="0">
-        <v>34.664647190688086</v>
+        <v>19.739942628365373</v>
       </c>
       <c r="R5" s="0">
-        <v>33.966113181120306</v>
+        <v>19.238925810310445</v>
       </c>
       <c r="S5" s="0">
-        <v>34.399823603995856</v>
+        <v>19.35067485082055</v>
       </c>
       <c r="T5" s="0">
-        <v>33.301525983278587</v>
+        <v>19.534400209834295</v>
       </c>
       <c r="U5" s="0">
-        <v>34.79686475192441</v>
+        <v>19.593066882358578</v>
       </c>
       <c r="V5" s="0">
-        <v>33.68356513030465</v>
+        <v>19.986903591935945</v>
       </c>
       <c r="W5" s="0">
-        <v>15.41148837842178</v>
+        <v>16.095501485672898</v>
       </c>
       <c r="X5" s="0">
-        <v>15.708326382450764</v>
+        <v>17.791415629009649</v>
       </c>
       <c r="Y5" s="0">
-        <v>20.8997747640902</v>
+        <v>23.793727517063232</v>
       </c>
       <c r="Z5" s="0">
-        <v>21.344489151279404</v>
+        <v>24.497346066518606</v>
       </c>
       <c r="AA5" s="0">
-        <v>24.903064752776093</v>
+        <v>25.673878810557198</v>
       </c>
       <c r="AB5" s="0">
-        <v>14.445850661826508</v>
+        <v>14.66014892956794</v>
       </c>
       <c r="AC5" s="0">
-        <v>22.745000146051883</v>
+        <v>24.509424615434309</v>
       </c>
       <c r="AD5" s="0">
-        <v>23.055722567895373</v>
+        <v>23.543549798116565</v>
       </c>
       <c r="AE5" s="0">
-        <v>20.477506144095269</v>
+        <v>21.191006900596747</v>
       </c>
       <c r="AF5" s="0">
-        <v>21.186042824325749</v>
+        <v>24.177010966690403</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>34.351072588605668</v>
+        <v>20.39064958723398</v>
       </c>
       <c r="B6" s="0">
-        <v>33.877712891753248</v>
+        <v>20.152882898855523</v>
       </c>
       <c r="C6" s="0">
-        <v>35.047793403325372</v>
+        <v>20.288979932827807</v>
       </c>
       <c r="D6" s="0">
-        <v>34.114084086124549</v>
+        <v>20.121221328476096</v>
       </c>
       <c r="E6" s="0">
-        <v>33.590347439780857</v>
+        <v>19.723645718417789</v>
       </c>
       <c r="F6" s="0">
-        <v>34.338495263975226</v>
+        <v>19.862849337085137</v>
       </c>
       <c r="G6" s="0">
-        <v>34.355891301017188</v>
+        <v>20.173579546529648</v>
       </c>
       <c r="H6" s="0">
-        <v>34.598323540104445</v>
+        <v>20.057940764486482</v>
       </c>
       <c r="I6" s="0">
-        <v>33.867192404526186</v>
+        <v>19.362553337316658</v>
       </c>
       <c r="J6" s="0">
-        <v>34.175200515201752</v>
+        <v>19.634478749167833</v>
       </c>
       <c r="K6" s="0">
-        <v>34.603853417368008</v>
+        <v>19.510927727480102</v>
       </c>
       <c r="L6" s="0">
-        <v>34.720415516483484</v>
+        <v>19.543708736554002</v>
       </c>
       <c r="M6" s="0">
-        <v>33.440532353492443</v>
+        <v>19.72825644699337</v>
       </c>
       <c r="N6" s="0">
-        <v>34.372069497446049</v>
+        <v>19.507282391869435</v>
       </c>
       <c r="O6" s="0">
-        <v>32.771734378024775</v>
+        <v>18.786664003214913</v>
       </c>
       <c r="P6" s="0">
-        <v>33.188483692782782</v>
+        <v>18.985573872984713</v>
       </c>
       <c r="Q6" s="0">
-        <v>31.560713000299181</v>
+        <v>19.050316638014834</v>
       </c>
       <c r="R6" s="0">
-        <v>33.157188313960255</v>
+        <v>18.835938393378399</v>
       </c>
       <c r="S6" s="0">
-        <v>30.812497120555985</v>
+        <v>19.055135878235998</v>
       </c>
       <c r="T6" s="0">
-        <v>33.01521467583234</v>
+        <v>19.340281151071789</v>
       </c>
       <c r="U6" s="0">
-        <v>16.043840722821635</v>
+        <v>15.344361365827123</v>
       </c>
       <c r="V6" s="0">
-        <v>15.785653580851129</v>
+        <v>16.72646390415747</v>
       </c>
       <c r="W6" s="0">
-        <v>15.286844029751451</v>
+        <v>16.611914037488283</v>
       </c>
       <c r="X6" s="0">
-        <v>25.976055640852938</v>
+        <v>27.531223862224188</v>
       </c>
       <c r="Y6" s="0">
-        <v>15.163010755153312</v>
+        <v>16.622449484994068</v>
       </c>
       <c r="Z6" s="0">
-        <v>20.531188840280027</v>
+        <v>21.786071735474458</v>
       </c>
       <c r="AA6" s="0">
-        <v>19.335318454680252</v>
+        <v>20.827542348246304</v>
       </c>
       <c r="AB6" s="0">
-        <v>14.740097080217488</v>
+        <v>15.294371217737092</v>
       </c>
       <c r="AC6" s="0">
-        <v>17.621674942293396</v>
+        <v>18.362004076719501</v>
       </c>
       <c r="AD6" s="0">
-        <v>18.769083226390563</v>
+        <v>19.015939278967583</v>
       </c>
       <c r="AE6" s="0">
-        <v>20.021212811184945</v>
+        <v>20.703226658901528</v>
       </c>
       <c r="AF6" s="0">
-        <v>22.689953756266839</v>
+        <v>24.448174383819858</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>34.211190428788186</v>
+        <v>19.357488058644584</v>
       </c>
       <c r="B7" s="0">
-        <v>34.835116878933725</v>
+        <v>19.663692953355486</v>
       </c>
       <c r="C7" s="0">
-        <v>33.301310410456928</v>
+        <v>19.319363192866533</v>
       </c>
       <c r="D7" s="0">
-        <v>34.280230803358457</v>
+        <v>19.788047827797403</v>
       </c>
       <c r="E7" s="0">
-        <v>32.798504439836378</v>
+        <v>19.132735500001559</v>
       </c>
       <c r="F7" s="0">
-        <v>33.388471802078634</v>
+        <v>19.197025170974612</v>
       </c>
       <c r="G7" s="0">
-        <v>32.943323592747056</v>
+        <v>19.372302143782626</v>
       </c>
       <c r="H7" s="0">
-        <v>32.771508035814968</v>
+        <v>19.358176801456825</v>
       </c>
       <c r="I7" s="0">
-        <v>32.652071615313339</v>
+        <v>19.397724121486924</v>
       </c>
       <c r="J7" s="0">
-        <v>33.846501589695208</v>
+        <v>19.11824482448419</v>
       </c>
       <c r="K7" s="0">
-        <v>31.654040408259601</v>
+        <v>19.282007671372142</v>
       </c>
       <c r="L7" s="0">
-        <v>31.59379927965518</v>
+        <v>19.05488852795974</v>
       </c>
       <c r="M7" s="0">
-        <v>31.740419100812471</v>
+        <v>18.674013350050064</v>
       </c>
       <c r="N7" s="0">
-        <v>32.147271359951041</v>
+        <v>18.304905323593111</v>
       </c>
       <c r="O7" s="0">
-        <v>30.314247538480373</v>
+        <v>18.676667475684603</v>
       </c>
       <c r="P7" s="0">
-        <v>30.194272925743654</v>
+        <v>18.369678332821401</v>
       </c>
       <c r="Q7" s="0">
-        <v>29.812160178173333</v>
+        <v>18.486710883396768</v>
       </c>
       <c r="R7" s="0">
-        <v>28.999173603296221</v>
+        <v>18.724227040336054</v>
       </c>
       <c r="S7" s="0">
-        <v>30.185844901849762</v>
+        <v>18.527955395199221</v>
       </c>
       <c r="T7" s="0">
-        <v>29.230024026455176</v>
+        <v>18.588234519917243</v>
       </c>
       <c r="U7" s="0">
-        <v>13.051833236491886</v>
+        <v>13.776448672571657</v>
       </c>
       <c r="V7" s="0">
-        <v>18.355011997284976</v>
+        <v>20.746027127283057</v>
       </c>
       <c r="W7" s="0">
-        <v>19.935878686339585</v>
+        <v>20.756439617271255</v>
       </c>
       <c r="X7" s="0">
-        <v>18.803826083044676</v>
+        <v>19.613333899405383</v>
       </c>
       <c r="Y7" s="0">
-        <v>14.384030795627567</v>
+        <v>14.966075655204513</v>
       </c>
       <c r="Z7" s="0">
-        <v>22.132622271082738</v>
+        <v>25.03158501286444</v>
       </c>
       <c r="AA7" s="0">
-        <v>23.766218046779368</v>
+        <v>24.002276833829711</v>
       </c>
       <c r="AB7" s="0">
-        <v>14.198828863377603</v>
+        <v>14.633760861924758</v>
       </c>
       <c r="AC7" s="0">
-        <v>22.245256751654793</v>
+        <v>23.058972861668053</v>
       </c>
       <c r="AD7" s="0">
-        <v>22.689362148469677</v>
+        <v>23.883488756514254</v>
       </c>
       <c r="AE7" s="0">
-        <v>15.783652870840887</v>
+        <v>16.234332330228483</v>
       </c>
       <c r="AF7" s="0">
-        <v>23.376056540295632</v>
+        <v>25.914272647442541</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>14.805752564111021</v>
+        <v>17.517213736224523</v>
       </c>
       <c r="B8" s="0">
-        <v>16.711392002414073</v>
+        <v>19.236880639153352</v>
       </c>
       <c r="C8" s="0">
-        <v>15.469377282963258</v>
+        <v>19.84311907971049</v>
       </c>
       <c r="D8" s="0">
-        <v>15.742318194764851</v>
+        <v>19.650359781609318</v>
       </c>
       <c r="E8" s="0">
-        <v>15.686435490958013</v>
+        <v>19.470499811456879</v>
       </c>
       <c r="F8" s="0">
-        <v>15.556168791981275</v>
+        <v>16.252594766420824</v>
       </c>
       <c r="G8" s="0">
-        <v>24.537715184101678</v>
+        <v>18.62726176948745</v>
       </c>
       <c r="H8" s="0">
-        <v>22.85316221693682</v>
+        <v>17.790683099525783</v>
       </c>
       <c r="I8" s="0">
-        <v>19.104765043164676</v>
+        <v>17.356653806644765</v>
       </c>
       <c r="J8" s="0">
-        <v>19.235280866548486</v>
+        <v>17.806129340993476</v>
       </c>
       <c r="K8" s="0">
-        <v>31.470413156254171</v>
+        <v>18.865541077312724</v>
       </c>
       <c r="L8" s="0">
-        <v>31.368924179806204</v>
+        <v>18.698772955984463</v>
       </c>
       <c r="M8" s="0">
-        <v>29.80252873717599</v>
+        <v>18.647348379915719</v>
       </c>
       <c r="N8" s="0">
-        <v>30.115936886819664</v>
+        <v>18.472707686666872</v>
       </c>
       <c r="O8" s="0">
-        <v>30.196840498991875</v>
+        <v>18.506706634017377</v>
       </c>
       <c r="P8" s="0">
-        <v>30.617861836059141</v>
+        <v>18.216464502546529</v>
       </c>
       <c r="Q8" s="0">
-        <v>29.650022092657629</v>
+        <v>18.786088985778843</v>
       </c>
       <c r="R8" s="0">
-        <v>28.438447867487092</v>
+        <v>18.702297673337952</v>
       </c>
       <c r="S8" s="0">
-        <v>30.077791719656926</v>
+        <v>18.566357117843225</v>
       </c>
       <c r="T8" s="0">
-        <v>28.892880559492504</v>
+        <v>18.341775719225627</v>
       </c>
       <c r="U8" s="0">
-        <v>11.132698079501678</v>
+        <v>12.712979189617368</v>
       </c>
       <c r="V8" s="0">
-        <v>24.029739378046131</v>
+        <v>25.29858318716709</v>
       </c>
       <c r="W8" s="0">
-        <v>21.731865049471317</v>
+        <v>23.155578286979946</v>
       </c>
       <c r="X8" s="0">
-        <v>16.628158328548984</v>
+        <v>17.240484599802038</v>
       </c>
       <c r="Y8" s="0">
-        <v>16.817911613386187</v>
+        <v>17.369672572443953</v>
       </c>
       <c r="Z8" s="0">
-        <v>22.091279520942443</v>
+        <v>23.498081130101941</v>
       </c>
       <c r="AA8" s="0">
-        <v>21.617932231919777</v>
+        <v>24.326227600653528</v>
       </c>
       <c r="AB8" s="0">
-        <v>13.986183076248251</v>
+        <v>14.402095799375083</v>
       </c>
       <c r="AC8" s="0">
-        <v>21.953849784842149</v>
+        <v>23.763347804009584</v>
       </c>
       <c r="AD8" s="0">
-        <v>21.954171444698648</v>
+        <v>22.819997276556599</v>
       </c>
       <c r="AE8" s="0">
-        <v>14.052752640560302</v>
+        <v>14.003427730884269</v>
       </c>
       <c r="AF8" s="0">
-        <v>25.66810344733376</v>
+        <v>26.193935043092722</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>21.460083084811767</v>
+        <v>27.913169823603027</v>
       </c>
       <c r="B9" s="0">
-        <v>22.083687046585595</v>
+        <v>26.299875355373569</v>
       </c>
       <c r="C9" s="0">
-        <v>22.765062088608413</v>
+        <v>25.345639128025212</v>
       </c>
       <c r="D9" s="0">
-        <v>22.197697893041717</v>
+        <v>27.477216465817243</v>
       </c>
       <c r="E9" s="0">
-        <v>22.33758977795592</v>
+        <v>26.412931411801956</v>
       </c>
       <c r="F9" s="0">
-        <v>21.533678376915159</v>
+        <v>26.148579931587435</v>
       </c>
       <c r="G9" s="0">
-        <v>21.032307418806479</v>
+        <v>25.449727027447061</v>
       </c>
       <c r="H9" s="0">
-        <v>17.569967944665375</v>
+        <v>20.315010132154367</v>
       </c>
       <c r="I9" s="0">
-        <v>20.976657304110141</v>
+        <v>24.853271719414881</v>
       </c>
       <c r="J9" s="0">
-        <v>20.431967164992297</v>
+        <v>27.039907297208163</v>
       </c>
       <c r="K9" s="0">
-        <v>18.398371354028075</v>
+        <v>23.838896097081342</v>
       </c>
       <c r="L9" s="0">
-        <v>17.271316559045768</v>
+        <v>19.128368592369608</v>
       </c>
       <c r="M9" s="0">
-        <v>19.460790489564488</v>
+        <v>23.36545519555299</v>
       </c>
       <c r="N9" s="0">
-        <v>18.292442015928149</v>
+        <v>21.313395211837385</v>
       </c>
       <c r="O9" s="0">
-        <v>18.039440557178199</v>
+        <v>20.164402192593872</v>
       </c>
       <c r="P9" s="0">
-        <v>16.534448104122689</v>
+        <v>19.540936773873227</v>
       </c>
       <c r="Q9" s="0">
-        <v>16.263284044217233</v>
+        <v>18.915679050831393</v>
       </c>
       <c r="R9" s="0">
-        <v>16.49618623562429</v>
+        <v>19.398308466551871</v>
       </c>
       <c r="S9" s="0">
-        <v>17.729990031992337</v>
+        <v>19.284997294164274</v>
       </c>
       <c r="T9" s="0">
-        <v>13.046049380018278</v>
+        <v>15.032073986339057</v>
       </c>
       <c r="U9" s="0">
-        <v>23.465136431304554</v>
+        <v>24.400574482683759</v>
       </c>
       <c r="V9" s="0">
-        <v>25.079713511513027</v>
+        <v>26.663359960208993</v>
       </c>
       <c r="W9" s="0">
-        <v>18.325281905101679</v>
+        <v>18.347712856809245</v>
       </c>
       <c r="X9" s="0">
-        <v>15.616206620333218</v>
+        <v>16.365850274488277</v>
       </c>
       <c r="Y9" s="0">
-        <v>23.882160612418502</v>
+        <v>25.125973782621664</v>
       </c>
       <c r="Z9" s="0">
-        <v>22.286018100308453</v>
+        <v>22.838092459612515</v>
       </c>
       <c r="AA9" s="0">
-        <v>22.831877109589893</v>
+        <v>23.7640355225364</v>
       </c>
       <c r="AB9" s="0">
-        <v>13.943776026565988</v>
+        <v>14.71646001815752</v>
       </c>
       <c r="AC9" s="0">
-        <v>22.255480331024597</v>
+        <v>24.310286868506367</v>
       </c>
       <c r="AD9" s="0">
-        <v>21.595566169391603</v>
+        <v>22.639431156729508</v>
       </c>
       <c r="AE9" s="0">
-        <v>13.136561170137293</v>
+        <v>13.05967727060944</v>
       </c>
       <c r="AF9" s="0">
-        <v>21.343819051626145</v>
+        <v>23.018426720900752</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>23.499889641229487</v>
+        <v>27.26082737919716</v>
       </c>
       <c r="B10" s="0">
-        <v>23.454430010731716</v>
+        <v>25.260785484585288</v>
       </c>
       <c r="C10" s="0">
-        <v>22.891859329241989</v>
+        <v>27.569434288444</v>
       </c>
       <c r="D10" s="0">
-        <v>22.588976424019602</v>
+        <v>26.075151980593358</v>
       </c>
       <c r="E10" s="0">
-        <v>22.773951149955355</v>
+        <v>27.80131834285384</v>
       </c>
       <c r="F10" s="0">
-        <v>23.832308365626666</v>
+        <v>28.563706069529072</v>
       </c>
       <c r="G10" s="0">
-        <v>23.722233099921112</v>
+        <v>26.702350395172093</v>
       </c>
       <c r="H10" s="0">
-        <v>21.19160977073188</v>
+        <v>25.845554020054923</v>
       </c>
       <c r="I10" s="0">
-        <v>22.092096412333039</v>
+        <v>25.77813693305788</v>
       </c>
       <c r="J10" s="0">
-        <v>21.603057221575796</v>
+        <v>24.288717704573514</v>
       </c>
       <c r="K10" s="0">
-        <v>21.008547861888683</v>
+        <v>26.212828626322878</v>
       </c>
       <c r="L10" s="0">
-        <v>20.648004413325317</v>
+        <v>25.441624650670065</v>
       </c>
       <c r="M10" s="0">
-        <v>19.498160376807586</v>
+        <v>22.289198255428335</v>
       </c>
       <c r="N10" s="0">
-        <v>21.480253848170541</v>
+        <v>25.823253628360824</v>
       </c>
       <c r="O10" s="0">
-        <v>20.998415195310866</v>
+        <v>27.753882941119056</v>
       </c>
       <c r="P10" s="0">
-        <v>20.490821599628632</v>
+        <v>26.217952175024916</v>
       </c>
       <c r="Q10" s="0">
-        <v>19.979912673060742</v>
+        <v>26.709032711283257</v>
       </c>
       <c r="R10" s="0">
-        <v>20.41821599404291</v>
+        <v>25.756566224531952</v>
       </c>
       <c r="S10" s="0">
-        <v>20.168760526887691</v>
+        <v>23.865203748433537</v>
       </c>
       <c r="T10" s="0">
-        <v>23.46752331674292</v>
+        <v>25.444654683947583</v>
       </c>
       <c r="U10" s="0">
-        <v>23.837489687971463</v>
+        <v>25.291643200111253</v>
       </c>
       <c r="V10" s="0">
-        <v>22.807938464510617</v>
+        <v>24.471356409761988</v>
       </c>
       <c r="W10" s="0">
-        <v>20.599729799015421</v>
+        <v>20.748020496590755</v>
       </c>
       <c r="X10" s="0">
-        <v>14.070839945370658</v>
+        <v>14.590893988266075</v>
       </c>
       <c r="Y10" s="0">
-        <v>23.632889223366178</v>
+        <v>24.727291338031613</v>
       </c>
       <c r="Z10" s="0">
-        <v>21.870973714466029</v>
+        <v>21.728539769566275</v>
       </c>
       <c r="AA10" s="0">
-        <v>22.230298076919034</v>
+        <v>22.703585264110309</v>
       </c>
       <c r="AB10" s="0">
-        <v>12.825732568804092</v>
+        <v>13.267244255667771</v>
       </c>
       <c r="AC10" s="0">
-        <v>22.494150060133727</v>
+        <v>24.435833743969965</v>
       </c>
       <c r="AD10" s="0">
-        <v>23.852495758775628</v>
+        <v>25.922705880913707</v>
       </c>
       <c r="AE10" s="0">
-        <v>12.118395911427651</v>
+        <v>12.124261299501848</v>
       </c>
       <c r="AF10" s="0">
-        <v>17.940302889318559</v>
+        <v>17.979043127792568</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>22.916740597543725</v>
+        <v>26.530106498568617</v>
       </c>
       <c r="B11" s="0">
-        <v>22.944133459290704</v>
+        <v>26.571715724841685</v>
       </c>
       <c r="C11" s="0">
-        <v>23.377093230443172</v>
+        <v>28.299560039131329</v>
       </c>
       <c r="D11" s="0">
-        <v>20.553768412033161</v>
+        <v>26.768235070705181</v>
       </c>
       <c r="E11" s="0">
-        <v>22.334014291696789</v>
+        <v>25.713303128494054</v>
       </c>
       <c r="F11" s="0">
-        <v>24.594743644967068</v>
+        <v>26.678903507860326</v>
       </c>
       <c r="G11" s="0">
-        <v>23.958538440329129</v>
+        <v>28.120470228749962</v>
       </c>
       <c r="H11" s="0">
-        <v>22.809656383427242</v>
+        <v>25.917643855704458</v>
       </c>
       <c r="I11" s="0">
-        <v>21.8827601229968</v>
+        <v>26.323484127452232</v>
       </c>
       <c r="J11" s="0">
-        <v>23.149551972156893</v>
+        <v>24.02679099702155</v>
       </c>
       <c r="K11" s="0">
-        <v>22.692044564359044</v>
+        <v>24.71389877058256</v>
       </c>
       <c r="L11" s="0">
-        <v>21.382127520275162</v>
+        <v>25.915178487381528</v>
       </c>
       <c r="M11" s="0">
-        <v>20.452828954851597</v>
+        <v>23.959188012646795</v>
       </c>
       <c r="N11" s="0">
-        <v>20.378444962928054</v>
+        <v>27.290552166006982</v>
       </c>
       <c r="O11" s="0">
-        <v>21.565719293468849</v>
+        <v>29.146613502826632</v>
       </c>
       <c r="P11" s="0">
-        <v>21.254926475248219</v>
+        <v>26.34998594454126</v>
       </c>
       <c r="Q11" s="0">
-        <v>21.7499178813596</v>
+        <v>27.756015863083682</v>
       </c>
       <c r="R11" s="0">
-        <v>18.70729467050484</v>
+        <v>21.272631488732657</v>
       </c>
       <c r="S11" s="0">
-        <v>22.598083468001295</v>
+        <v>25.973333661249249</v>
       </c>
       <c r="T11" s="0">
-        <v>22.183429465219085</v>
+        <v>25.357296789068073</v>
       </c>
       <c r="U11" s="0">
-        <v>18.725037148787361</v>
+        <v>18.913198989403305</v>
       </c>
       <c r="V11" s="0">
-        <v>21.577451956593197</v>
+        <v>24.394197479973766</v>
       </c>
       <c r="W11" s="0">
-        <v>16.712365431709351</v>
+        <v>16.532829715444311</v>
       </c>
       <c r="X11" s="0">
-        <v>12.747385883242075</v>
+        <v>13.356360612884535</v>
       </c>
       <c r="Y11" s="0">
-        <v>21.180898061961688</v>
+        <v>22.329935400757304</v>
       </c>
       <c r="Z11" s="0">
-        <v>20.383235400940372</v>
+        <v>20.936681779716935</v>
       </c>
       <c r="AA11" s="0">
-        <v>19.47572976791086</v>
+        <v>20.395999902333468</v>
       </c>
       <c r="AB11" s="0">
-        <v>12.954295712401581</v>
+        <v>13.490416799806722</v>
       </c>
       <c r="AC11" s="0">
-        <v>20.316576674039585</v>
+        <v>20.745207814974552</v>
       </c>
       <c r="AD11" s="0">
-        <v>20.087210800579559</v>
+        <v>21.184097984365504</v>
       </c>
       <c r="AE11" s="0">
-        <v>13.599165506761633</v>
+        <v>13.56814320329355</v>
       </c>
       <c r="AF11" s="0">
-        <v>17.606632946513777</v>
+        <v>17.628758911387024</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>20.449074435664865</v>
+        <v>21.230328723906883</v>
       </c>
       <c r="B12" s="0">
-        <v>20.547857536924393</v>
+        <v>21.145573523415415</v>
       </c>
       <c r="C12" s="0">
-        <v>22.082014009747223</v>
+        <v>24.350109632449708</v>
       </c>
       <c r="D12" s="0">
-        <v>21.516308177366508</v>
+        <v>22.958749506136154</v>
       </c>
       <c r="E12" s="0">
-        <v>19.768394690601273</v>
+        <v>22.647990448653466</v>
       </c>
       <c r="F12" s="0">
-        <v>21.75571404925256</v>
+        <v>26.130564564982876</v>
       </c>
       <c r="G12" s="0">
-        <v>23.530656688986671</v>
+        <v>23.755150381010303</v>
       </c>
       <c r="H12" s="0">
-        <v>21.265700981066765</v>
+        <v>25.974879679155769</v>
       </c>
       <c r="I12" s="0">
-        <v>21.216243644395249</v>
+        <v>24.234581843680239</v>
       </c>
       <c r="J12" s="0">
-        <v>20.478402145906685</v>
+        <v>22.491943099212641</v>
       </c>
       <c r="K12" s="0">
-        <v>21.44762136111369</v>
+        <v>22.864157312785114</v>
       </c>
       <c r="L12" s="0">
-        <v>20.430301822178244</v>
+        <v>22.26007161848419</v>
       </c>
       <c r="M12" s="0">
-        <v>22.261942338991254</v>
+        <v>24.563573748357381</v>
       </c>
       <c r="N12" s="0">
-        <v>22.052205078940467</v>
+        <v>24.91954370727807</v>
       </c>
       <c r="O12" s="0">
-        <v>23.363646899578576</v>
+        <v>27.084210929311311</v>
       </c>
       <c r="P12" s="0">
-        <v>21.556256764619693</v>
+        <v>26.342926403693305</v>
       </c>
       <c r="Q12" s="0">
-        <v>22.225605636423424</v>
+        <v>25.271541947445947</v>
       </c>
       <c r="R12" s="0">
-        <v>22.333495893339975</v>
+        <v>24.283232669077766</v>
       </c>
       <c r="S12" s="0">
-        <v>21.058962878867298</v>
+        <v>21.728892105241428</v>
       </c>
       <c r="T12" s="0">
-        <v>19.415539563621873</v>
+        <v>21.007193420601062</v>
       </c>
       <c r="U12" s="0">
-        <v>18.207417738836391</v>
+        <v>18.082625648571888</v>
       </c>
       <c r="V12" s="0">
-        <v>18.394476371393392</v>
+        <v>19.727924077333331</v>
       </c>
       <c r="W12" s="0">
-        <v>22.091832996869037</v>
+        <v>22.255102726079812</v>
       </c>
       <c r="X12" s="0">
-        <v>13.210093424365015</v>
+        <v>13.54945953856501</v>
       </c>
       <c r="Y12" s="0">
-        <v>19.658587976435808</v>
+        <v>21.627968081987753</v>
       </c>
       <c r="Z12" s="0">
-        <v>19.423368596133589</v>
+        <v>21.280525163269587</v>
       </c>
       <c r="AA12" s="0">
-        <v>18.729786751966252</v>
+        <v>18.901389747987547</v>
       </c>
       <c r="AB12" s="0">
-        <v>12.952954403622243</v>
+        <v>13.733089756436543</v>
       </c>
       <c r="AC12" s="0">
-        <v>17.552465423161564</v>
+        <v>17.928070811753528</v>
       </c>
       <c r="AD12" s="0">
-        <v>17.286577336081685</v>
+        <v>18.918373513168312</v>
       </c>
       <c r="AE12" s="0">
-        <v>13.914497472778125</v>
+        <v>14.215678226844696</v>
       </c>
       <c r="AF12" s="0">
-        <v>20.058791221772282</v>
+        <v>20.358471862285832</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>23.696849212384912</v>
+        <v>24.133229526521369</v>
       </c>
       <c r="B13" s="0">
-        <v>21.168421892903147</v>
+        <v>21.842586250907775</v>
       </c>
       <c r="C13" s="0">
-        <v>21.015023835981147</v>
+        <v>21.850986825168345</v>
       </c>
       <c r="D13" s="0">
-        <v>22.56113238910946</v>
+        <v>23.635371607017611</v>
       </c>
       <c r="E13" s="0">
-        <v>21.841114363472141</v>
+        <v>22.711988434003743</v>
       </c>
       <c r="F13" s="0">
-        <v>20.8408139229679</v>
+        <v>21.856714765761055</v>
       </c>
       <c r="G13" s="0">
-        <v>19.688874755303004</v>
+        <v>23.147138178072709</v>
       </c>
       <c r="H13" s="0">
-        <v>21.059922874941321</v>
+        <v>22.078647631075459</v>
       </c>
       <c r="I13" s="0">
-        <v>20.839768692396202</v>
+        <v>22.189485438119799</v>
       </c>
       <c r="J13" s="0">
-        <v>18.731510287457958</v>
+        <v>19.317169910588298</v>
       </c>
       <c r="K13" s="0">
-        <v>19.143187279091073</v>
+        <v>20.337862829235412</v>
       </c>
       <c r="L13" s="0">
-        <v>20.950965082300236</v>
+        <v>21.151505420575205</v>
       </c>
       <c r="M13" s="0">
-        <v>21.796882192523857</v>
+        <v>23.137677133151811</v>
       </c>
       <c r="N13" s="0">
-        <v>22.35821203160706</v>
+        <v>22.455931170926196</v>
       </c>
       <c r="O13" s="0">
-        <v>23.173195413660977</v>
+        <v>23.711667114661626</v>
       </c>
       <c r="P13" s="0">
-        <v>23.969432748114379</v>
+        <v>26.215490380706711</v>
       </c>
       <c r="Q13" s="0">
-        <v>23.402105805753266</v>
+        <v>24.723587771939069</v>
       </c>
       <c r="R13" s="0">
-        <v>22.615594046366795</v>
+        <v>24.289070277617022</v>
       </c>
       <c r="S13" s="0">
-        <v>20.73227539844261</v>
+        <v>20.884672398763705</v>
       </c>
       <c r="T13" s="0">
-        <v>18.982043028015148</v>
+        <v>19.614480757150655</v>
       </c>
       <c r="U13" s="0">
-        <v>17.04328753003341</v>
+        <v>18.076158086837481</v>
       </c>
       <c r="V13" s="0">
-        <v>17.638950481190033</v>
+        <v>19.244561983246246</v>
       </c>
       <c r="W13" s="0">
-        <v>20.509198020899191</v>
+        <v>21.722848509065578</v>
       </c>
       <c r="X13" s="0">
-        <v>12.662559532338252</v>
+        <v>12.700867863454414</v>
       </c>
       <c r="Y13" s="0">
-        <v>17.829302929037041</v>
+        <v>19.889068112964829</v>
       </c>
       <c r="Z13" s="0">
-        <v>18.099859485374299</v>
+        <v>19.112855124551881</v>
       </c>
       <c r="AA13" s="0">
-        <v>16.997910403139652</v>
+        <v>17.648087092057423</v>
       </c>
       <c r="AB13" s="0">
-        <v>13.542006119925642</v>
+        <v>14.192240675030643</v>
       </c>
       <c r="AC13" s="0">
-        <v>17.141001207337155</v>
+        <v>17.733940467138357</v>
       </c>
       <c r="AD13" s="0">
-        <v>17.782605228741048</v>
+        <v>18.194707541257618</v>
       </c>
       <c r="AE13" s="0">
-        <v>15.035813879716088</v>
+        <v>15.471996192307586</v>
       </c>
       <c r="AF13" s="0">
-        <v>18.139160079479073</v>
+        <v>18.52939319311055</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>22.679150064922954</v>
+        <v>22.265601532713468</v>
       </c>
       <c r="B14" s="0">
-        <v>21.771168898536782</v>
+        <v>22.246956005407121</v>
       </c>
       <c r="C14" s="0">
-        <v>23.429728360376217</v>
+        <v>23.856546887056425</v>
       </c>
       <c r="D14" s="0">
-        <v>21.753284498639669</v>
+        <v>23.221332624542882</v>
       </c>
       <c r="E14" s="0">
-        <v>22.988932651326557</v>
+        <v>24.450557250545593</v>
       </c>
       <c r="F14" s="0">
-        <v>19.623725557500109</v>
+        <v>20.139150803375752</v>
       </c>
       <c r="G14" s="0">
-        <v>22.786862542142963</v>
+        <v>23.518694474262212</v>
       </c>
       <c r="H14" s="0">
-        <v>22.62166866326508</v>
+        <v>23.744272577942048</v>
       </c>
       <c r="I14" s="0">
-        <v>23.093649444812684</v>
+        <v>24.082037109808514</v>
       </c>
       <c r="J14" s="0">
-        <v>19.270344296449643</v>
+        <v>19.558462802112778</v>
       </c>
       <c r="K14" s="0">
-        <v>22.97201433609882</v>
+        <v>23.913229211555951</v>
       </c>
       <c r="L14" s="0">
-        <v>19.301066831158195</v>
+        <v>20.279366894101095</v>
       </c>
       <c r="M14" s="0">
-        <v>21.279244085725601</v>
+        <v>22.525707276104256</v>
       </c>
       <c r="N14" s="0">
-        <v>21.870857335238671</v>
+        <v>22.083262558297136</v>
       </c>
       <c r="O14" s="0">
-        <v>19.670177374516278</v>
+        <v>19.723411271976655</v>
       </c>
       <c r="P14" s="0">
-        <v>23.358390071080827</v>
+        <v>25.642409677341753</v>
       </c>
       <c r="Q14" s="0">
-        <v>22.763716970188142</v>
+        <v>23.159646355150958</v>
       </c>
       <c r="R14" s="0">
-        <v>20.087778519389925</v>
+        <v>20.374270364330037</v>
       </c>
       <c r="S14" s="0">
-        <v>20.006268101726871</v>
+        <v>22.151190850701798</v>
       </c>
       <c r="T14" s="0">
-        <v>18.876101605570334</v>
+        <v>20.105559842263428</v>
       </c>
       <c r="U14" s="0">
-        <v>18.401686797443254</v>
+        <v>19.51360101058976</v>
       </c>
       <c r="V14" s="0">
-        <v>17.790022347991542</v>
+        <v>18.270068288439717</v>
       </c>
       <c r="W14" s="0">
-        <v>18.26604119776573</v>
+        <v>19.700632734598756</v>
       </c>
       <c r="X14" s="0">
-        <v>13.008022668235853</v>
+        <v>14.020782914216575</v>
       </c>
       <c r="Y14" s="0">
-        <v>18.327597323449929</v>
+        <v>19.517747068609641</v>
       </c>
       <c r="Z14" s="0">
-        <v>17.211491531063416</v>
+        <v>18.2219641473888</v>
       </c>
       <c r="AA14" s="0">
-        <v>16.794079762567033</v>
+        <v>17.817452791223683</v>
       </c>
       <c r="AB14" s="0">
-        <v>13.836539167434328</v>
+        <v>14.090218873397395</v>
       </c>
       <c r="AC14" s="0">
-        <v>15.879624766033951</v>
+        <v>16.000700888108589</v>
       </c>
       <c r="AD14" s="0">
-        <v>16.383961838169643</v>
+        <v>17.176633004558781</v>
       </c>
       <c r="AE14" s="0">
-        <v>13.934453624795236</v>
+        <v>14.030312491029047</v>
       </c>
       <c r="AF14" s="0">
-        <v>17.75973957361019</v>
+        <v>18.285462197321102</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>22.206930619601039</v>
+        <v>23.205619150610353</v>
       </c>
       <c r="B15" s="0">
-        <v>22.064728001061571</v>
+        <v>22.572832937183836</v>
       </c>
       <c r="C15" s="0">
-        <v>20.487291174865984</v>
+        <v>23.080269917879875</v>
       </c>
       <c r="D15" s="0">
-        <v>22.389841481573761</v>
+        <v>24.122739088918649</v>
       </c>
       <c r="E15" s="0">
-        <v>21.478868028719948</v>
+        <v>22.461861074122091</v>
       </c>
       <c r="F15" s="0">
-        <v>22.158399625565657</v>
+        <v>22.401436983934456</v>
       </c>
       <c r="G15" s="0">
-        <v>20.934616876723386</v>
+        <v>22.120611902959272</v>
       </c>
       <c r="H15" s="0">
-        <v>21.85139198944308</v>
+        <v>21.739584666638116</v>
       </c>
       <c r="I15" s="0">
-        <v>21.469227074854615</v>
+        <v>23.105019543640321</v>
       </c>
       <c r="J15" s="0">
-        <v>19.525204279250705</v>
+        <v>19.955577445454246</v>
       </c>
       <c r="K15" s="0">
-        <v>17.999535609367193</v>
+        <v>18.298727451863066</v>
       </c>
       <c r="L15" s="0">
-        <v>16.230565153213131</v>
+        <v>17.145395801016107</v>
       </c>
       <c r="M15" s="0">
-        <v>17.942415411112862</v>
+        <v>19.656209157101728</v>
       </c>
       <c r="N15" s="0">
-        <v>18.567942025278715</v>
+        <v>19.06866227577207</v>
       </c>
       <c r="O15" s="0">
-        <v>17.809577131861452</v>
+        <v>18.716387803813795</v>
       </c>
       <c r="P15" s="0">
-        <v>20.422225503908571</v>
+        <v>20.90261650375372</v>
       </c>
       <c r="Q15" s="0">
-        <v>22.130180507023852</v>
+        <v>23.945473700662589</v>
       </c>
       <c r="R15" s="0">
-        <v>20.409565271283505</v>
+        <v>21.630344484884226</v>
       </c>
       <c r="S15" s="0">
-        <v>20.362989266353996</v>
+        <v>21.005705502198914</v>
       </c>
       <c r="T15" s="0">
-        <v>18.597317368958176</v>
+        <v>20.080015869928115</v>
       </c>
       <c r="U15" s="0">
-        <v>18.618646587827055</v>
+        <v>19.527119540914462</v>
       </c>
       <c r="V15" s="0">
-        <v>17.486242235757341</v>
+        <v>18.930919035907838</v>
       </c>
       <c r="W15" s="0">
-        <v>18.24146005832548</v>
+        <v>20.659524450184033</v>
       </c>
       <c r="X15" s="0">
-        <v>14.465989443752875</v>
+        <v>15.026565794060387</v>
       </c>
       <c r="Y15" s="0">
-        <v>18.776019050662779</v>
+        <v>19.62406458202647</v>
       </c>
       <c r="Z15" s="0">
-        <v>18.136584570576929</v>
+        <v>19.839830393689642</v>
       </c>
       <c r="AA15" s="0">
-        <v>18.198869421472747</v>
+        <v>18.67639633938736</v>
       </c>
       <c r="AB15" s="0">
-        <v>14.621719023711117</v>
+        <v>15.734489388718639</v>
       </c>
       <c r="AC15" s="0">
-        <v>14.752793024818336</v>
+        <v>16.748783630509969</v>
       </c>
       <c r="AD15" s="0">
-        <v>15.811654903769533</v>
+        <v>16.081380169526714</v>
       </c>
       <c r="AE15" s="0">
-        <v>13.172975373548875</v>
+        <v>13.001361287705622</v>
       </c>
       <c r="AF15" s="0">
-        <v>20.276347874410519</v>
+        <v>21.416321931683186</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>21.842651834655467</v>
+        <v>21.851621749285783</v>
       </c>
       <c r="B16" s="0">
-        <v>16.387870606394475</v>
+        <v>16.759179541280407</v>
       </c>
       <c r="C16" s="0">
-        <v>17.724069835262107</v>
+        <v>18.483564606964848</v>
       </c>
       <c r="D16" s="0">
-        <v>15.15984807103651</v>
+        <v>15.367775782110824</v>
       </c>
       <c r="E16" s="0">
-        <v>16.000808312235886</v>
+        <v>18.019326400504294</v>
       </c>
       <c r="F16" s="0">
-        <v>19.252300405265025</v>
+        <v>20.277205798504113</v>
       </c>
       <c r="G16" s="0">
-        <v>17.757065635457106</v>
+        <v>18.122733057466846</v>
       </c>
       <c r="H16" s="0">
-        <v>18.626651586025403</v>
+        <v>19.606123472896172</v>
       </c>
       <c r="I16" s="0">
-        <v>16.638126637071718</v>
+        <v>19.900572098786405</v>
       </c>
       <c r="J16" s="0">
-        <v>17.591915595000799</v>
+        <v>20.287453946536935</v>
       </c>
       <c r="K16" s="0">
-        <v>19.466873578078129</v>
+        <v>23.037983563249487</v>
       </c>
       <c r="L16" s="0">
-        <v>17.04071707791805</v>
+        <v>19.225204981360648</v>
       </c>
       <c r="M16" s="0">
-        <v>16.363832779326216</v>
+        <v>17.606511707864932</v>
       </c>
       <c r="N16" s="0">
-        <v>14.639281598516538</v>
+        <v>16.153066488025427</v>
       </c>
       <c r="O16" s="0">
-        <v>20.001569604013177</v>
+        <v>24.513270808706359</v>
       </c>
       <c r="P16" s="0">
-        <v>19.173491865077153</v>
+        <v>26.444822417364541</v>
       </c>
       <c r="Q16" s="0">
-        <v>16.767060108862172</v>
+        <v>21.549350520895544</v>
       </c>
       <c r="R16" s="0">
-        <v>19.826611486885483</v>
+        <v>24.798731507678585</v>
       </c>
       <c r="S16" s="0">
-        <v>18.456155849106324</v>
+        <v>21.586264860686164</v>
       </c>
       <c r="T16" s="0">
-        <v>15.650162165761582</v>
+        <v>19.175220601533859</v>
       </c>
       <c r="U16" s="0">
-        <v>17.701224624970976</v>
+        <v>22.182954957840408</v>
       </c>
       <c r="V16" s="0">
-        <v>17.223500454223746</v>
+        <v>20.484799628644573</v>
       </c>
       <c r="W16" s="0">
-        <v>16.899760048990995</v>
+        <v>23.742452810127695</v>
       </c>
       <c r="X16" s="0">
-        <v>16.221757964538661</v>
+        <v>18.646270837968167</v>
       </c>
       <c r="Y16" s="0">
-        <v>17.894552857064753</v>
+        <v>20.74824720321606</v>
       </c>
       <c r="Z16" s="0">
-        <v>18.258291832064266</v>
+        <v>19.441077058576237</v>
       </c>
       <c r="AA16" s="0">
-        <v>17.792627108978238</v>
+        <v>18.467565885194453</v>
       </c>
       <c r="AB16" s="0">
-        <v>15.429233119304275</v>
+        <v>17.260894792380576</v>
       </c>
       <c r="AC16" s="0">
-        <v>17.322656963069612</v>
+        <v>17.786506901916756</v>
       </c>
       <c r="AD16" s="0">
-        <v>20.214691392893258</v>
+        <v>21.229051026215497</v>
       </c>
       <c r="AE16" s="0">
-        <v>15.892887122281492</v>
+        <v>15.76682421848264</v>
       </c>
       <c r="AF16" s="0">
-        <v>20.864694632957537</v>
+        <v>25.397928714482056</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>19.058572590467396</v>
+        <v>19.304807543242472</v>
       </c>
       <c r="B17" s="0">
-        <v>18.21529281387749</v>
+        <v>19.485307424235089</v>
       </c>
       <c r="C17" s="0">
-        <v>18.363115187187049</v>
+        <v>18.611035996719959</v>
       </c>
       <c r="D17" s="0">
-        <v>17.567362456827745</v>
+        <v>19.442386882321109</v>
       </c>
       <c r="E17" s="0">
-        <v>20.54977440155044</v>
+        <v>23.982875513127226</v>
       </c>
       <c r="F17" s="0">
-        <v>19.915072093959402</v>
+        <v>25.763336226716156</v>
       </c>
       <c r="G17" s="0">
-        <v>19.957248670113458</v>
+        <v>25.600458214404057</v>
       </c>
       <c r="H17" s="0">
-        <v>19.15263802102357</v>
+        <v>26.006832654038291</v>
       </c>
       <c r="I17" s="0">
-        <v>20.380256538679294</v>
+        <v>25.117268514008558</v>
       </c>
       <c r="J17" s="0">
-        <v>16.606964225984253</v>
+        <v>17.696049966034085</v>
       </c>
       <c r="K17" s="0">
-        <v>14.487422060750282</v>
+        <v>15.202025286195182</v>
       </c>
       <c r="L17" s="0">
-        <v>14.942232616103635</v>
+        <v>15.492572387739026</v>
       </c>
       <c r="M17" s="0">
-        <v>15.850694533728259</v>
+        <v>18.898037631867979</v>
       </c>
       <c r="N17" s="0">
-        <v>20.391126833171779</v>
+        <v>25.608413246306796</v>
       </c>
       <c r="O17" s="0">
-        <v>19.064125650482492</v>
+        <v>29.515991278077678</v>
       </c>
       <c r="P17" s="0">
-        <v>19.590580404358739</v>
+        <v>29.01155243920218</v>
       </c>
       <c r="Q17" s="0">
-        <v>16.37303376083787</v>
+        <v>17.609074265480466</v>
       </c>
       <c r="R17" s="0">
-        <v>21.113579717691835</v>
+        <v>27.35593789919028</v>
       </c>
       <c r="S17" s="0">
-        <v>21.321220736388121</v>
+        <v>29.534648898965003</v>
       </c>
       <c r="T17" s="0">
-        <v>18.919381566470868</v>
+        <v>25.458268134681891</v>
       </c>
       <c r="U17" s="0">
-        <v>16.69785781408364</v>
+        <v>19.55462284495685</v>
       </c>
       <c r="V17" s="0">
-        <v>16.462679448164049</v>
+        <v>19.133659534350564</v>
       </c>
       <c r="W17" s="0">
-        <v>17.192553391549229</v>
+        <v>21.601882553401971</v>
       </c>
       <c r="X17" s="0">
-        <v>19.232624901633017</v>
+        <v>22.771746645952678</v>
       </c>
       <c r="Y17" s="0">
-        <v>18.628529554913875</v>
+        <v>25.442597807014245</v>
       </c>
       <c r="Z17" s="0">
-        <v>20.727895443159447</v>
+        <v>25.63587967723171</v>
       </c>
       <c r="AA17" s="0">
-        <v>20.529655524287733</v>
+        <v>27.184696365763642</v>
       </c>
       <c r="AB17" s="0">
-        <v>20.855043604924603</v>
+        <v>25.689671563627208</v>
       </c>
       <c r="AC17" s="0">
-        <v>19.699580837403097</v>
+        <v>26.300519000180579</v>
       </c>
       <c r="AD17" s="0">
-        <v>21.020061218604909</v>
+        <v>26.967161519410659</v>
       </c>
       <c r="AE17" s="0">
-        <v>16.164777357437373</v>
+        <v>17.31814820750736</v>
       </c>
       <c r="AF17" s="0">
-        <v>20.543240119301519</v>
+        <v>25.142649807848411</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>21.240238563900085</v>
+        <v>25.342119583894494</v>
       </c>
       <c r="B18" s="0">
-        <v>21.808646085106691</v>
+        <v>24.218911481646096</v>
       </c>
       <c r="C18" s="0">
-        <v>20.343348901018295</v>
+        <v>26.092145663299469</v>
       </c>
       <c r="D18" s="0">
-        <v>19.884835757231045</v>
+        <v>25.261854575560662</v>
       </c>
       <c r="E18" s="0">
-        <v>19.131536351685554</v>
+        <v>28.479073849480592</v>
       </c>
       <c r="F18" s="0">
-        <v>22.683473324614965</v>
+        <v>27.133261274250692</v>
       </c>
       <c r="G18" s="0">
-        <v>19.624779339761147</v>
+        <v>23.627584870866258</v>
       </c>
       <c r="H18" s="0">
-        <v>15.979136616766453</v>
+        <v>17.625789870706264</v>
       </c>
       <c r="I18" s="0">
-        <v>14.207721746202797</v>
+        <v>15.435851695640565</v>
       </c>
       <c r="J18" s="0">
-        <v>16.76097087362503</v>
+        <v>17.630858096570535</v>
       </c>
       <c r="K18" s="0">
-        <v>15.578011839762295</v>
+        <v>16.655036263001172</v>
       </c>
       <c r="L18" s="0">
-        <v>16.695834066751448</v>
+        <v>19.311632793972144</v>
       </c>
       <c r="M18" s="0">
-        <v>19.07598515361876</v>
+        <v>28.177008202248931</v>
       </c>
       <c r="N18" s="0">
-        <v>20.65159206120201</v>
+        <v>29.254384678223722</v>
       </c>
       <c r="O18" s="0">
-        <v>19.290866745060789</v>
+        <v>28.778505489664376</v>
       </c>
       <c r="P18" s="0">
-        <v>20.861516350303582</v>
+        <v>27.919792501900403</v>
       </c>
       <c r="Q18" s="0">
-        <v>17.706700904883132</v>
+        <v>18.616879408677633</v>
       </c>
       <c r="R18" s="0">
-        <v>15.771396616567898</v>
+        <v>18.080228417673652</v>
       </c>
       <c r="S18" s="0">
-        <v>20.93277368564053</v>
+        <v>27.49153993909847</v>
       </c>
       <c r="T18" s="0">
-        <v>20.142893018809829</v>
+        <v>28.541948973203468</v>
       </c>
       <c r="U18" s="0">
-        <v>21.387094331802018</v>
+        <v>28.08807007133041</v>
       </c>
       <c r="V18" s="0">
-        <v>19.247307647282067</v>
+        <v>21.669062107791071</v>
       </c>
       <c r="W18" s="0">
-        <v>15.92497676675864</v>
+        <v>18.454375648421767</v>
       </c>
       <c r="X18" s="0">
-        <v>17.059523915705608</v>
+        <v>19.30652678235688</v>
       </c>
       <c r="Y18" s="0">
-        <v>17.216656744238442</v>
+        <v>20.528382539303305</v>
       </c>
       <c r="Z18" s="0">
-        <v>17.838784931165598</v>
+        <v>22.542619402372765</v>
       </c>
       <c r="AA18" s="0">
-        <v>19.458782252432762</v>
+        <v>23.669746299699128</v>
       </c>
       <c r="AB18" s="0">
-        <v>20.625341521706257</v>
+        <v>33.437043447682115</v>
       </c>
       <c r="AC18" s="0">
-        <v>20.541383109546523</v>
+        <v>29.254639719236849</v>
       </c>
       <c r="AD18" s="0">
-        <v>20.422736445898984</v>
+        <v>27.165199893337384</v>
       </c>
       <c r="AE18" s="0">
-        <v>19.854590198355243</v>
+        <v>25.183851925109082</v>
       </c>
       <c r="AF18" s="0">
-        <v>20.692766495595166</v>
+        <v>25.956069304043986</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>21.198726301855856</v>
+        <v>28.251059297580792</v>
       </c>
       <c r="B19" s="0">
-        <v>20.67866387744369</v>
+        <v>27.487993974848777</v>
       </c>
       <c r="C19" s="0">
-        <v>24.626738115221087</v>
+        <v>28.356733580476927</v>
       </c>
       <c r="D19" s="0">
-        <v>21.487323797174728</v>
+        <v>27.275836722263371</v>
       </c>
       <c r="E19" s="0">
-        <v>17.649866239327654</v>
+        <v>19.144923488570441</v>
       </c>
       <c r="F19" s="0">
-        <v>16.776335473750329</v>
+        <v>19.070128937371841</v>
       </c>
       <c r="G19" s="0">
-        <v>14.792150736918163</v>
+        <v>15.700318019636828</v>
       </c>
       <c r="H19" s="0">
-        <v>17.134154885956455</v>
+        <v>17.338238459479395</v>
       </c>
       <c r="I19" s="0">
-        <v>17.266191384813592</v>
+        <v>18.278511175985393</v>
       </c>
       <c r="J19" s="0">
-        <v>14.435794103502726</v>
+        <v>15.768975082030369</v>
       </c>
       <c r="K19" s="0">
-        <v>19.315255216555023</v>
+        <v>24.09717019562548</v>
       </c>
       <c r="L19" s="0">
-        <v>19.714219817839524</v>
+        <v>29.202135274091262</v>
       </c>
       <c r="M19" s="0">
-        <v>19.588566090616112</v>
+        <v>30.365266887499409</v>
       </c>
       <c r="N19" s="0">
-        <v>20.359773244568697</v>
+        <v>28.490949186512466</v>
       </c>
       <c r="O19" s="0">
-        <v>20.528401730050771</v>
+        <v>26.599900999821138</v>
       </c>
       <c r="P19" s="0">
-        <v>21.234675567094229</v>
+        <v>27.844620272260599</v>
       </c>
       <c r="Q19" s="0">
-        <v>19.898689570306672</v>
+        <v>25.193015812939365</v>
       </c>
       <c r="R19" s="0">
-        <v>16.94322439195755</v>
+        <v>20.409728733904039</v>
       </c>
       <c r="S19" s="0">
-        <v>20.428693819126444</v>
+        <v>26.960492566260022</v>
       </c>
       <c r="T19" s="0">
-        <v>19.563805172553714</v>
+        <v>29.067995095612389</v>
       </c>
       <c r="U19" s="0">
-        <v>19.317740621950325</v>
+        <v>27.34461579325794</v>
       </c>
       <c r="V19" s="0">
-        <v>20.201437389959796</v>
+        <v>29.254476172641741</v>
       </c>
       <c r="W19" s="0">
-        <v>20.536544841618756</v>
+        <v>29.633681745338166</v>
       </c>
       <c r="X19" s="0">
-        <v>17.920602620259693</v>
+        <v>20.223416135681902</v>
       </c>
       <c r="Y19" s="0">
-        <v>14.959185194185114</v>
+        <v>17.457610148334858</v>
       </c>
       <c r="Z19" s="0">
-        <v>17.087410162950015</v>
+        <v>18.875740706528784</v>
       </c>
       <c r="AA19" s="0">
-        <v>19.090288099420537</v>
+        <v>22.693858935347976</v>
       </c>
       <c r="AB19" s="0">
-        <v>17.990457190574062</v>
+        <v>21.937441259408072</v>
       </c>
       <c r="AC19" s="0">
-        <v>18.298704848822119</v>
+        <v>22.556337287525565</v>
       </c>
       <c r="AD19" s="0">
-        <v>20.169047521611393</v>
+        <v>22.92208606283728</v>
       </c>
       <c r="AE19" s="0">
-        <v>20.788351916389978</v>
+        <v>24.519670373692726</v>
       </c>
       <c r="AF19" s="0">
-        <v>25.491379941090308</v>
+        <v>29.324781610702306</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>21.297453975325894</v>
+        <v>28.189554591217998</v>
       </c>
       <c r="B20" s="0">
-        <v>20.552199783162305</v>
+        <v>23.133996227690915</v>
       </c>
       <c r="C20" s="0">
-        <v>15.331923679455791</v>
+        <v>16.252024767065137</v>
       </c>
       <c r="D20" s="0">
-        <v>16.167311742871529</v>
+        <v>17.655219354826563</v>
       </c>
       <c r="E20" s="0">
-        <v>17.594426225500559</v>
+        <v>17.944015050613153</v>
       </c>
       <c r="F20" s="0">
-        <v>17.045292290318145</v>
+        <v>17.704106638385021</v>
       </c>
       <c r="G20" s="0">
-        <v>18.713037987225402</v>
+        <v>22.392804002415932</v>
       </c>
       <c r="H20" s="0">
-        <v>14.43484131611406</v>
+        <v>15.76305334016822</v>
       </c>
       <c r="I20" s="0">
-        <v>16.131209703111498</v>
+        <v>17.635645662361835</v>
       </c>
       <c r="J20" s="0">
-        <v>19.245649884981514</v>
+        <v>24.53223254154922</v>
       </c>
       <c r="K20" s="0">
-        <v>20.953892430512177</v>
+        <v>25.860204700889899</v>
       </c>
       <c r="L20" s="0">
-        <v>19.549157370596561</v>
+        <v>27.832489486707249</v>
       </c>
       <c r="M20" s="0">
-        <v>21.590712411321135</v>
+        <v>28.769419091524671</v>
       </c>
       <c r="N20" s="0">
-        <v>19.979181397840005</v>
+        <v>30.156095140074648</v>
       </c>
       <c r="O20" s="0">
-        <v>20.16800154770965</v>
+        <v>29.144836260418487</v>
       </c>
       <c r="P20" s="0">
-        <v>21.330037938385225</v>
+        <v>29.967707479154669</v>
       </c>
       <c r="Q20" s="0">
-        <v>19.157778265399589</v>
+        <v>28.646063597635788</v>
       </c>
       <c r="R20" s="0">
-        <v>13.726240130418288</v>
+        <v>14.135687087037873</v>
       </c>
       <c r="S20" s="0">
-        <v>19.662712494563522</v>
+        <v>27.275759106438208</v>
       </c>
       <c r="T20" s="0">
-        <v>22.295743321100794</v>
+        <v>25.889489791212839</v>
       </c>
       <c r="U20" s="0">
-        <v>20.629456972448473</v>
+        <v>29.036932218844022</v>
       </c>
       <c r="V20" s="0">
-        <v>20.522157488008666</v>
+        <v>30.904965591826784</v>
       </c>
       <c r="W20" s="0">
-        <v>20.771262638746038</v>
+        <v>26.430406614178501</v>
       </c>
       <c r="X20" s="0">
-        <v>19.932405721838219</v>
+        <v>28.569756355276951</v>
       </c>
       <c r="Y20" s="0">
-        <v>19.996518775269479</v>
+        <v>27.242660186300132</v>
       </c>
       <c r="Z20" s="0">
-        <v>17.044093674642376</v>
+        <v>19.759668159668905</v>
       </c>
       <c r="AA20" s="0">
-        <v>14.821364940876254</v>
+        <v>16.421527766132485</v>
       </c>
       <c r="AB20" s="0">
-        <v>16.831830200396841</v>
+        <v>18.858571231452697</v>
       </c>
       <c r="AC20" s="0">
-        <v>19.809748714352288</v>
+        <v>23.479453513783398</v>
       </c>
       <c r="AD20" s="0">
-        <v>18.294118254199979</v>
+        <v>23.867290790344455</v>
       </c>
       <c r="AE20" s="0">
-        <v>17.281353814937241</v>
+        <v>22.91208216682061</v>
       </c>
       <c r="AF20" s="0">
-        <v>19.992002807304658</v>
+        <v>24.326983759125614</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>14.258271278770792</v>
+        <v>16.00090571824505</v>
       </c>
       <c r="B21" s="0">
-        <v>15.486141212991615</v>
+        <v>16.842120862436978</v>
       </c>
       <c r="C21" s="0">
-        <v>18.590660121032951</v>
+        <v>18.89416406238486</v>
       </c>
       <c r="D21" s="0">
-        <v>17.543878590310594</v>
+        <v>18.11860953732727</v>
       </c>
       <c r="E21" s="0">
-        <v>18.276738906044049</v>
+        <v>27.18107244338999</v>
       </c>
       <c r="F21" s="0">
-        <v>16.792577118407824</v>
+        <v>18.019802643846123</v>
       </c>
       <c r="G21" s="0">
-        <v>14.342630637230807</v>
+        <v>15.330110231829991</v>
       </c>
       <c r="H21" s="0">
-        <v>18.048061525861222</v>
+        <v>21.391324881788002</v>
       </c>
       <c r="I21" s="0">
-        <v>19.607098064904164</v>
+        <v>26.245088318689621</v>
       </c>
       <c r="J21" s="0">
-        <v>20.437301779138615</v>
+        <v>26.270087825774024</v>
       </c>
       <c r="K21" s="0">
-        <v>20.302732939597323</v>
+        <v>29.710748109174332</v>
       </c>
       <c r="L21" s="0">
-        <v>18.499431293376713</v>
+        <v>23.58844687624735</v>
       </c>
       <c r="M21" s="0">
-        <v>17.966556706051573</v>
+        <v>22.830667816437739</v>
       </c>
       <c r="N21" s="0">
-        <v>18.470449098711804</v>
+        <v>21.882382500821475</v>
       </c>
       <c r="O21" s="0">
-        <v>18.589318322317069</v>
+        <v>23.123830584853508</v>
       </c>
       <c r="P21" s="0">
-        <v>22.168795644848991</v>
+        <v>27.035207968924993</v>
       </c>
       <c r="Q21" s="0">
-        <v>20.848476476322688</v>
+        <v>28.711227265501563</v>
       </c>
       <c r="R21" s="0">
-        <v>16.043623507813777</v>
+        <v>18.450103529604103</v>
       </c>
       <c r="S21" s="0">
-        <v>18.621897251011362</v>
+        <v>23.037886295010594</v>
       </c>
       <c r="T21" s="0">
-        <v>19.688983846516123</v>
+        <v>30.617206084518216</v>
       </c>
       <c r="U21" s="0">
-        <v>22.256431419793962</v>
+        <v>27.054544227707005</v>
       </c>
       <c r="V21" s="0">
-        <v>20.035905829817896</v>
+        <v>27.340084682035982</v>
       </c>
       <c r="W21" s="0">
-        <v>20.54405345775152</v>
+        <v>28.340650955253153</v>
       </c>
       <c r="X21" s="0">
-        <v>19.765670427323585</v>
+        <v>30.785664379733326</v>
       </c>
       <c r="Y21" s="0">
-        <v>19.215730877309504</v>
+        <v>27.996544942230905</v>
       </c>
       <c r="Z21" s="0">
-        <v>20.697031486862606</v>
+        <v>27.731615722117958</v>
       </c>
       <c r="AA21" s="0">
-        <v>21.932874831668482</v>
+        <v>27.792496509976132</v>
       </c>
       <c r="AB21" s="0">
-        <v>16.675121037869371</v>
+        <v>18.872463574148426</v>
       </c>
       <c r="AC21" s="0">
-        <v>13.885705563793241</v>
+        <v>16.310804878479836</v>
       </c>
       <c r="AD21" s="0">
-        <v>16.934526790114624</v>
+        <v>20.187188754748831</v>
       </c>
       <c r="AE21" s="0">
-        <v>20.201547912394403</v>
+        <v>24.813035986749767</v>
       </c>
       <c r="AF21" s="0">
-        <v>19.250746273081173</v>
+        <v>23.224724021886573</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>17.207283212173593</v>
+        <v>18.334755182345756</v>
       </c>
       <c r="B22" s="0">
-        <v>17.216237758699183</v>
+        <v>17.756761863312263</v>
       </c>
       <c r="C22" s="0">
-        <v>19.666365871132218</v>
+        <v>26.641912079981577</v>
       </c>
       <c r="D22" s="0">
-        <v>19.506261591005234</v>
+        <v>25.506086085759307</v>
       </c>
       <c r="E22" s="0">
-        <v>14.870836373749178</v>
+        <v>15.335924370410075</v>
       </c>
       <c r="F22" s="0">
-        <v>14.849017559286459</v>
+        <v>17.150495887424025</v>
       </c>
       <c r="G22" s="0">
-        <v>19.077713536181943</v>
+        <v>27.857561674123051</v>
       </c>
       <c r="H22" s="0">
-        <v>21.635405309678426</v>
+        <v>26.221237139474589</v>
       </c>
       <c r="I22" s="0">
-        <v>20.952541478139683</v>
+        <v>30.193752096391332</v>
       </c>
       <c r="J22" s="0">
-        <v>19.032401206529901</v>
+        <v>25.925903538241407</v>
       </c>
       <c r="K22" s="0">
-        <v>19.913757879233927</v>
+        <v>28.510943831048614</v>
       </c>
       <c r="L22" s="0">
-        <v>16.706160578262086</v>
+        <v>18.328742489816531</v>
       </c>
       <c r="M22" s="0">
-        <v>19.443157001745583</v>
+        <v>21.560319754130042</v>
       </c>
       <c r="N22" s="0">
-        <v>20.890580731384958</v>
+        <v>21.503059072592379</v>
       </c>
       <c r="O22" s="0">
-        <v>18.560583642951883</v>
+        <v>20.916523258180501</v>
       </c>
       <c r="P22" s="0">
-        <v>21.298689414775104</v>
+        <v>26.905751952054935</v>
       </c>
       <c r="Q22" s="0">
-        <v>21.907469598366582</v>
+        <v>28.65585281021572</v>
       </c>
       <c r="R22" s="0">
-        <v>20.233865543808818</v>
+        <v>28.367193777914686</v>
       </c>
       <c r="S22" s="0">
-        <v>18.838512702948556</v>
+        <v>25.935673381842864</v>
       </c>
       <c r="T22" s="0">
-        <v>19.793574713757359</v>
+        <v>27.825420518535214</v>
       </c>
       <c r="U22" s="0">
-        <v>19.841484311931229</v>
+        <v>29.363087431825168</v>
       </c>
       <c r="V22" s="0">
-        <v>21.081356973950935</v>
+        <v>29.341401989652528</v>
       </c>
       <c r="W22" s="0">
-        <v>21.705588978428374</v>
+        <v>30.440042622460496</v>
       </c>
       <c r="X22" s="0">
-        <v>21.555256469530274</v>
+        <v>26.881295020374012</v>
       </c>
       <c r="Y22" s="0">
-        <v>19.8759290029139</v>
+        <v>27.579992037018517</v>
       </c>
       <c r="Z22" s="0">
-        <v>22.166650213490012</v>
+        <v>28.419590788590028</v>
       </c>
       <c r="AA22" s="0">
-        <v>19.890652942203992</v>
+        <v>27.138650039518168</v>
       </c>
       <c r="AB22" s="0">
-        <v>21.501189664278307</v>
+        <v>24.801087238334244</v>
       </c>
       <c r="AC22" s="0">
-        <v>21.991558362852004</v>
+        <v>29.428242794201658</v>
       </c>
       <c r="AD22" s="0">
-        <v>15.821516759944487</v>
+        <v>17.879714404709752</v>
       </c>
       <c r="AE22" s="0">
-        <v>14.208431893803011</v>
+        <v>16.197771386036042</v>
       </c>
       <c r="AF22" s="0">
-        <v>16.66616957697941</v>
+        <v>20.16772888317621</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>20.160342954366275</v>
+        <v>26.424923007186397</v>
       </c>
       <c r="B23" s="0">
-        <v>19.653593249315183</v>
+        <v>29.19113860343333</v>
       </c>
       <c r="C23" s="0">
-        <v>16.568981403590357</v>
+        <v>18.025546182273509</v>
       </c>
       <c r="D23" s="0">
-        <v>13.965721356977543</v>
+        <v>14.682255962349354</v>
       </c>
       <c r="E23" s="0">
-        <v>16.449860672139781</v>
+        <v>19.416218208479808</v>
       </c>
       <c r="F23" s="0">
-        <v>20.545825160485393</v>
+        <v>26.242036945556503</v>
       </c>
       <c r="G23" s="0">
-        <v>19.725650436979379</v>
+        <v>27.481233013910547</v>
       </c>
       <c r="H23" s="0">
-        <v>20.158822557530272</v>
+        <v>30.420536199852435</v>
       </c>
       <c r="I23" s="0">
-        <v>19.634799609256746</v>
+        <v>27.859753180082542</v>
       </c>
       <c r="J23" s="0">
-        <v>20.804681490153687</v>
+        <v>30.476430749845203</v>
       </c>
       <c r="K23" s="0">
-        <v>19.27021766385678</v>
+        <v>27.552799903451263</v>
       </c>
       <c r="L23" s="0">
-        <v>16.573997238094719</v>
+        <v>18.421704017369496</v>
       </c>
       <c r="M23" s="0">
-        <v>20.237636308317878</v>
+        <v>21.847652371779493</v>
       </c>
       <c r="N23" s="0">
-        <v>20.187898769449475</v>
+        <v>21.885629516672502</v>
       </c>
       <c r="O23" s="0">
-        <v>18.4287433610866</v>
+        <v>21.12849259878503</v>
       </c>
       <c r="P23" s="0">
-        <v>19.723973013901031</v>
+        <v>27.368654930411971</v>
       </c>
       <c r="Q23" s="0">
-        <v>18.758460274331856</v>
+        <v>26.733501583503269</v>
       </c>
       <c r="R23" s="0">
-        <v>20.794223992909664</v>
+        <v>29.37285274400336</v>
       </c>
       <c r="S23" s="0">
-        <v>15.663768296524509</v>
+        <v>18.201645307613976</v>
       </c>
       <c r="T23" s="0">
-        <v>19.706514657411958</v>
+        <v>30.0376562940179</v>
       </c>
       <c r="U23" s="0">
-        <v>23.976863345530283</v>
+        <v>28.607668891841534</v>
       </c>
       <c r="V23" s="0">
-        <v>20.062776991376264</v>
+        <v>28.071750223679189</v>
       </c>
       <c r="W23" s="0">
-        <v>20.164840948557984</v>
+        <v>28.241679036344767</v>
       </c>
       <c r="X23" s="0">
-        <v>19.788157506968801</v>
+        <v>27.85721478703352</v>
       </c>
       <c r="Y23" s="0">
-        <v>20.854176863710098</v>
+        <v>30.959689090425321</v>
       </c>
       <c r="Z23" s="0">
-        <v>20.008175903253324</v>
+        <v>29.011811904718321</v>
       </c>
       <c r="AA23" s="0">
-        <v>20.90236650952804</v>
+        <v>29.529718048933141</v>
       </c>
       <c r="AB23" s="0">
-        <v>22.725139652395555</v>
+        <v>27.849286330475071</v>
       </c>
       <c r="AC23" s="0">
-        <v>21.890437099006927</v>
+        <v>28.813773048048645</v>
       </c>
       <c r="AD23" s="0">
-        <v>18.203213697357185</v>
+        <v>27.586026999950125</v>
       </c>
       <c r="AE23" s="0">
-        <v>18.638861538711563</v>
+        <v>26.530634602900886</v>
       </c>
       <c r="AF23" s="0">
-        <v>15.92285842119902</v>
+        <v>16.847306950737845</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>20.776530532232307</v>
+        <v>26.11739729790424</v>
       </c>
       <c r="B24" s="0">
-        <v>15.507895096711158</v>
+        <v>16.003274712145743</v>
       </c>
       <c r="C24" s="0">
-        <v>14.656634340925692</v>
+        <v>16.300471366529344</v>
       </c>
       <c r="D24" s="0">
-        <v>19.557898219552182</v>
+        <v>25.213621269092847</v>
       </c>
       <c r="E24" s="0">
-        <v>20.772365487451868</v>
+        <v>29.626683046865683</v>
       </c>
       <c r="F24" s="0">
-        <v>21.406174027298736</v>
+        <v>29.599658889143594</v>
       </c>
       <c r="G24" s="0">
-        <v>19.99442643351431</v>
+        <v>27.61907678598611</v>
       </c>
       <c r="H24" s="0">
-        <v>21.409348224828967</v>
+        <v>28.402183957645097</v>
       </c>
       <c r="I24" s="0">
-        <v>20.83769749935426</v>
+        <v>27.479786308339232</v>
       </c>
       <c r="J24" s="0">
-        <v>20.856064654293004</v>
+        <v>26.049572828482169</v>
       </c>
       <c r="K24" s="0">
-        <v>20.826840522896084</v>
+        <v>28.512212167154903</v>
       </c>
       <c r="L24" s="0">
-        <v>16.917196045755496</v>
+        <v>17.900191913320398</v>
       </c>
       <c r="M24" s="0">
-        <v>20.061519139064913</v>
+        <v>20.868737980815723</v>
       </c>
       <c r="N24" s="0">
-        <v>19.708415853514186</v>
+        <v>21.079687335435754</v>
       </c>
       <c r="O24" s="0">
-        <v>18.036403734878501</v>
+        <v>21.29522620871991</v>
       </c>
       <c r="P24" s="0">
-        <v>19.628330039326357</v>
+        <v>30.743336584974873</v>
       </c>
       <c r="Q24" s="0">
-        <v>20.935540969305713</v>
+        <v>29.677020181024499</v>
       </c>
       <c r="R24" s="0">
-        <v>20.473449564241342</v>
+        <v>25.46373483894811</v>
       </c>
       <c r="S24" s="0">
-        <v>14.539631820366925</v>
+        <v>13.772062105483778</v>
       </c>
       <c r="T24" s="0">
-        <v>14.88386378103111</v>
+        <v>16.976791371763603</v>
       </c>
       <c r="U24" s="0">
-        <v>20.636999054778578</v>
+        <v>30.589538563930962</v>
       </c>
       <c r="V24" s="0">
-        <v>20.32376752566066</v>
+        <v>28.469032150261462</v>
       </c>
       <c r="W24" s="0">
-        <v>20.922948323028482</v>
+        <v>28.736366502956283</v>
       </c>
       <c r="X24" s="0">
-        <v>20.867536430214614</v>
+        <v>26.586771764636261</v>
       </c>
       <c r="Y24" s="0">
-        <v>21.079354367065648</v>
+        <v>27.970633662020546</v>
       </c>
       <c r="Z24" s="0">
-        <v>20.517613578132654</v>
+        <v>31.390841963026915</v>
       </c>
       <c r="AA24" s="0">
-        <v>19.44314476182544</v>
+        <v>28.648097710912587</v>
       </c>
       <c r="AB24" s="0">
-        <v>19.74232070088491</v>
+        <v>27.093215064801591</v>
       </c>
       <c r="AC24" s="0">
-        <v>19.512705812641212</v>
+        <v>29.335713806433855</v>
       </c>
       <c r="AD24" s="0">
-        <v>19.332612344917351</v>
+        <v>27.605332034937838</v>
       </c>
       <c r="AE24" s="0">
-        <v>20.440710412794164</v>
+        <v>29.814762342796158</v>
       </c>
       <c r="AF24" s="0">
-        <v>20.188921025176882</v>
+        <v>29.13134490827057</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>14.387916965175284</v>
+        <v>15.051171831948968</v>
       </c>
       <c r="B25" s="0">
-        <v>15.411853188904407</v>
+        <v>17.688985198501655</v>
       </c>
       <c r="C25" s="0">
-        <v>21.175882216650152</v>
+        <v>27.115560968419938</v>
       </c>
       <c r="D25" s="0">
-        <v>20.289557182123403</v>
+        <v>27.43915287569201</v>
       </c>
       <c r="E25" s="0">
-        <v>21.515846917397784</v>
+        <v>28.419085130417269</v>
       </c>
       <c r="F25" s="0">
-        <v>19.339796774245588</v>
+        <v>26.685145933221882</v>
       </c>
       <c r="G25" s="0">
-        <v>19.211024103176676</v>
+        <v>27.864553523430008</v>
       </c>
       <c r="H25" s="0">
-        <v>20.032523927935703</v>
+        <v>27.924530051463062</v>
       </c>
       <c r="I25" s="0">
-        <v>20.636293683601863</v>
+        <v>26.162331468822543</v>
       </c>
       <c r="J25" s="0">
-        <v>20.550698472112003</v>
+        <v>29.45506780817793</v>
       </c>
       <c r="K25" s="0">
-        <v>21.42165245797117</v>
+        <v>27.023476050295159</v>
       </c>
       <c r="L25" s="0">
-        <v>17.026123517151866</v>
+        <v>18.320370126788767</v>
       </c>
       <c r="M25" s="0">
-        <v>18.449118550383162</v>
+        <v>21.111189430660801</v>
       </c>
       <c r="N25" s="0">
-        <v>18.565361415087821</v>
+        <v>20.408172429247283</v>
       </c>
       <c r="O25" s="0">
-        <v>17.990896534925856</v>
+        <v>20.991623488077529</v>
       </c>
       <c r="P25" s="0">
-        <v>20.236479631805544</v>
+        <v>27.110557797892817</v>
       </c>
       <c r="Q25" s="0">
-        <v>20.387052501652633</v>
+        <v>28.364014807272984</v>
       </c>
       <c r="R25" s="0">
-        <v>21.197031841038502</v>
+        <v>28.627190210970799</v>
       </c>
       <c r="S25" s="0">
-        <v>13.421069972030375</v>
+        <v>13.18144619287329</v>
       </c>
       <c r="T25" s="0">
-        <v>13.275023923778724</v>
+        <v>14.726049944800382</v>
       </c>
       <c r="U25" s="0">
-        <v>21.581983484972554</v>
+        <v>27.954886219315345</v>
       </c>
       <c r="V25" s="0">
-        <v>21.682635478579137</v>
+        <v>29.736253839479293</v>
       </c>
       <c r="W25" s="0">
-        <v>20.773514352854669</v>
+        <v>27.449601618099532</v>
       </c>
       <c r="X25" s="0">
-        <v>21.097106999494898</v>
+        <v>26.30176720034143</v>
       </c>
       <c r="Y25" s="0">
-        <v>20.806014807982237</v>
+        <v>25.726754649078316</v>
       </c>
       <c r="Z25" s="0">
-        <v>21.500844919159967</v>
+        <v>28.664793709450521</v>
       </c>
       <c r="AA25" s="0">
-        <v>19.761460621219541</v>
+        <v>27.383756368981462</v>
       </c>
       <c r="AB25" s="0">
-        <v>21.781340788525707</v>
+        <v>27.618721538834979</v>
       </c>
       <c r="AC25" s="0">
-        <v>21.740304311783383</v>
+        <v>27.091393702444098</v>
       </c>
       <c r="AD25" s="0">
-        <v>21.128526958181773</v>
+        <v>29.930642820627558</v>
       </c>
       <c r="AE25" s="0">
-        <v>21.02449793390474</v>
+        <v>29.566423516784685</v>
       </c>
       <c r="AF25" s="0">
-        <v>19.558540618490742</v>
+        <v>27.692648593286368</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>18.618675791273237</v>
+        <v>21.310050527036623</v>
       </c>
       <c r="B26" s="0">
-        <v>21.022395798881757</v>
+        <v>26.243284248268512</v>
       </c>
       <c r="C26" s="0">
-        <v>21.349684949191783</v>
+        <v>26.52680871353698</v>
       </c>
       <c r="D26" s="0">
-        <v>19.858397341018986</v>
+        <v>27.993659485071419</v>
       </c>
       <c r="E26" s="0">
-        <v>21.077451444971462</v>
+        <v>28.23561016710784</v>
       </c>
       <c r="F26" s="0">
-        <v>20.995410480229999</v>
+        <v>28.83530861692488</v>
       </c>
       <c r="G26" s="0">
-        <v>21.954496358926544</v>
+        <v>29.360935192103447</v>
       </c>
       <c r="H26" s="0">
-        <v>20.383299290755232</v>
+        <v>30.541703904777023</v>
       </c>
       <c r="I26" s="0">
-        <v>20.170022870794803</v>
+        <v>28.743002921439789</v>
       </c>
       <c r="J26" s="0">
-        <v>20.320768682518352</v>
+        <v>27.657432534251729</v>
       </c>
       <c r="K26" s="0">
-        <v>20.48619396335291</v>
+        <v>27.014837605085464</v>
       </c>
       <c r="L26" s="0">
-        <v>20.110656880572925</v>
+        <v>27.845894602880193</v>
       </c>
       <c r="M26" s="0">
-        <v>22.497774547154407</v>
+        <v>27.664820519331833</v>
       </c>
       <c r="N26" s="0">
-        <v>19.689167818999984</v>
+        <v>28.799541533615482</v>
       </c>
       <c r="O26" s="0">
-        <v>21.180967291415929</v>
+        <v>28.048380642366144</v>
       </c>
       <c r="P26" s="0">
-        <v>20.754089200433917</v>
+        <v>26.815506136262602</v>
       </c>
       <c r="Q26" s="0">
-        <v>20.700218660508959</v>
+        <v>27.993607908397415</v>
       </c>
       <c r="R26" s="0">
-        <v>21.426430471304915</v>
+        <v>27.285843870863829</v>
       </c>
       <c r="S26" s="0">
-        <v>15.505528493213481</v>
+        <v>15.44081062827853</v>
       </c>
       <c r="T26" s="0">
-        <v>16.290884257820547</v>
+        <v>16.983450577978875</v>
       </c>
       <c r="U26" s="0">
-        <v>19.578009141296391</v>
+        <v>28.200448990353529</v>
       </c>
       <c r="V26" s="0">
-        <v>20.757168881153916</v>
+        <v>25.59424393760699</v>
       </c>
       <c r="W26" s="0">
-        <v>21.467208533277919</v>
+        <v>28.516772340778239</v>
       </c>
       <c r="X26" s="0">
-        <v>19.657428723489151</v>
+        <v>27.559362393009007</v>
       </c>
       <c r="Y26" s="0">
-        <v>22.01061599880536</v>
+        <v>29.256547325183952</v>
       </c>
       <c r="Z26" s="0">
-        <v>20.285570535935094</v>
+        <v>26.192732345621643</v>
       </c>
       <c r="AA26" s="0">
-        <v>18.454313688312642</v>
+        <v>29.40484214718072</v>
       </c>
       <c r="AB26" s="0">
-        <v>19.95867637148098</v>
+        <v>28.39126207086175</v>
       </c>
       <c r="AC26" s="0">
-        <v>20.446425496156703</v>
+        <v>30.970777894570261</v>
       </c>
       <c r="AD26" s="0">
-        <v>21.272135416446392</v>
+        <v>27.795854543118178</v>
       </c>
       <c r="AE26" s="0">
-        <v>21.549330895470131</v>
+        <v>29.031635786443989</v>
       </c>
       <c r="AF26" s="0">
-        <v>18.530951476265852</v>
+        <v>29.554961414238214</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>20.979415457660579</v>
+        <v>27.587441591663413</v>
       </c>
       <c r="B27" s="0">
-        <v>19.995423152931632</v>
+        <v>28.067167894313979</v>
       </c>
       <c r="C27" s="0">
-        <v>21.91526158798424</v>
+        <v>28.677597142678405</v>
       </c>
       <c r="D27" s="0">
-        <v>23.422460875694242</v>
+        <v>26.9633848319408</v>
       </c>
       <c r="E27" s="0">
-        <v>21.297158480913502</v>
+        <v>26.563753719583758</v>
       </c>
       <c r="F27" s="0">
-        <v>21.345561944185441</v>
+        <v>29.973484899911522</v>
       </c>
       <c r="G27" s="0">
-        <v>21.114959779998177</v>
+        <v>26.915527835861699</v>
       </c>
       <c r="H27" s="0">
-        <v>21.017518258882745</v>
+        <v>26.446687279801221</v>
       </c>
       <c r="I27" s="0">
-        <v>21.182660507137211</v>
+        <v>29.215043171956523</v>
       </c>
       <c r="J27" s="0">
-        <v>20.837349713154882</v>
+        <v>27.199684217864831</v>
       </c>
       <c r="K27" s="0">
-        <v>20.270200896332533</v>
+        <v>28.384108846058183</v>
       </c>
       <c r="L27" s="0">
-        <v>20.417527814836514</v>
+        <v>26.441865622419858</v>
       </c>
       <c r="M27" s="0">
-        <v>22.167909812783861</v>
+        <v>26.655004919680287</v>
       </c>
       <c r="N27" s="0">
-        <v>21.045394355843904</v>
+        <v>27.266899424829731</v>
       </c>
       <c r="O27" s="0">
-        <v>21.463939505060683</v>
+        <v>26.824090784772842</v>
       </c>
       <c r="P27" s="0">
-        <v>20.535949148100219</v>
+        <v>26.626418319076073</v>
       </c>
       <c r="Q27" s="0">
-        <v>20.35958975742426</v>
+        <v>27.164087857463532</v>
       </c>
       <c r="R27" s="0">
-        <v>19.637714923121056</v>
+        <v>27.096693567140218</v>
       </c>
       <c r="S27" s="0">
-        <v>21.692476853864232</v>
+        <v>24.995454925587008</v>
       </c>
       <c r="T27" s="0">
-        <v>16.922709148802969</v>
+        <v>18.463212079502608</v>
       </c>
       <c r="U27" s="0">
-        <v>16.934741324421474</v>
+        <v>19.241581109466381</v>
       </c>
       <c r="V27" s="0">
-        <v>20.052580128013318</v>
+        <v>27.055162922295374</v>
       </c>
       <c r="W27" s="0">
-        <v>20.411191860868136</v>
+        <v>27.85822004490576</v>
       </c>
       <c r="X27" s="0">
-        <v>19.809613673886751</v>
+        <v>26.08984352078528</v>
       </c>
       <c r="Y27" s="0">
-        <v>22.96911675611954</v>
+        <v>28.47113187140728</v>
       </c>
       <c r="Z27" s="0">
-        <v>24.005662906505666</v>
+        <v>28.058037890610507</v>
       </c>
       <c r="AA27" s="0">
-        <v>20.1480529617907</v>
+        <v>27.076455711131239</v>
       </c>
       <c r="AB27" s="0">
-        <v>19.964500701376302</v>
+        <v>28.064905784331458</v>
       </c>
       <c r="AC27" s="0">
-        <v>19.611558664155012</v>
+        <v>27.451155016331018</v>
       </c>
       <c r="AD27" s="0">
-        <v>19.89205865767768</v>
+        <v>26.030966797282989</v>
       </c>
       <c r="AE27" s="0">
-        <v>21.184831451341807</v>
+        <v>27.442458561762425</v>
       </c>
       <c r="AF27" s="0">
-        <v>18.992450701393398</v>
+        <v>27.801108644285112</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>21.50847609876088</v>
+        <v>27.413422613479494</v>
       </c>
       <c r="B28" s="0">
-        <v>21.763967958158791</v>
+        <v>27.770140143530217</v>
       </c>
       <c r="C28" s="0">
-        <v>22.35435113607371</v>
+        <v>28.207742258340328</v>
       </c>
       <c r="D28" s="0">
-        <v>20.32614967028946</v>
+        <v>28.675576332568262</v>
       </c>
       <c r="E28" s="0">
-        <v>20.757425837526235</v>
+        <v>28.387280718518362</v>
       </c>
       <c r="F28" s="0">
-        <v>19.968554892573085</v>
+        <v>27.241014335921978</v>
       </c>
       <c r="G28" s="0">
-        <v>20.476879577284876</v>
+        <v>27.998793315122363</v>
       </c>
       <c r="H28" s="0">
-        <v>20.858181331023911</v>
+        <v>28.776998007211837</v>
       </c>
       <c r="I28" s="0">
-        <v>21.764480654583561</v>
+        <v>27.429638303104014</v>
       </c>
       <c r="J28" s="0">
-        <v>20.911680426404665</v>
+        <v>25.996593914816831</v>
       </c>
       <c r="K28" s="0">
-        <v>19.773620176743822</v>
+        <v>27.571593338805968</v>
       </c>
       <c r="L28" s="0">
-        <v>20.440559457014345</v>
+        <v>27.126869892719935</v>
       </c>
       <c r="M28" s="0">
-        <v>20.267987427935232</v>
+        <v>27.63413522024663</v>
       </c>
       <c r="N28" s="0">
-        <v>20.754465229469364</v>
+        <v>30.261282571960578</v>
       </c>
       <c r="O28" s="0">
-        <v>20.148131369341673</v>
+        <v>25.677773595799572</v>
       </c>
       <c r="P28" s="0">
-        <v>20.242281724014184</v>
+        <v>24.59375026018439</v>
       </c>
       <c r="Q28" s="0">
-        <v>20.190848708446033</v>
+        <v>28.047679796518786</v>
       </c>
       <c r="R28" s="0">
-        <v>19.481648947704926</v>
+        <v>27.091423366269911</v>
       </c>
       <c r="S28" s="0">
-        <v>20.608934330667527</v>
+        <v>27.772527682224638</v>
       </c>
       <c r="T28" s="0">
-        <v>21.261254516525106</v>
+        <v>25.439541855238296</v>
       </c>
       <c r="U28" s="0">
-        <v>18.404543301305868</v>
+        <v>29.169446708452892</v>
       </c>
       <c r="V28" s="0">
-        <v>20.439202053908815</v>
+        <v>26.597166462973551</v>
       </c>
       <c r="W28" s="0">
-        <v>22.174513892492755</v>
+        <v>28.867954192222456</v>
       </c>
       <c r="X28" s="0">
-        <v>19.83019941905691</v>
+        <v>29.709881394823157</v>
       </c>
       <c r="Y28" s="0">
-        <v>21.505393407328029</v>
+        <v>28.573305057240418</v>
       </c>
       <c r="Z28" s="0">
-        <v>22.25445942661888</v>
+        <v>26.88060974499092</v>
       </c>
       <c r="AA28" s="0">
-        <v>19.602899467719084</v>
+        <v>26.358858363025504</v>
       </c>
       <c r="AB28" s="0">
-        <v>19.913013772731073</v>
+        <v>29.341974584375713</v>
       </c>
       <c r="AC28" s="0">
-        <v>19.88484262869467</v>
+        <v>29.683050886397861</v>
       </c>
       <c r="AD28" s="0">
-        <v>20.343399715894591</v>
+        <v>28.686638074275024</v>
       </c>
       <c r="AE28" s="0">
-        <v>19.565290278418953</v>
+        <v>27.295541487165075</v>
       </c>
       <c r="AF28" s="0">
-        <v>20.255442162039195</v>
+        <v>28.803949692742915</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>20.987086048201313</v>
+        <v>25.750507535095359</v>
       </c>
       <c r="B29" s="0">
-        <v>22.643602783591877</v>
+        <v>28.087625256025682</v>
       </c>
       <c r="C29" s="0">
-        <v>21.274579830790962</v>
+        <v>26.013404399128895</v>
       </c>
       <c r="D29" s="0">
-        <v>20.4153938818001</v>
+        <v>29.827222276186596</v>
       </c>
       <c r="E29" s="0">
-        <v>21.400674390661333</v>
+        <v>25.531244074584976</v>
       </c>
       <c r="F29" s="0">
-        <v>20.651963606876052</v>
+        <v>25.845992255406422</v>
       </c>
       <c r="G29" s="0">
-        <v>21.530225652256636</v>
+        <v>26.896242982541342</v>
       </c>
       <c r="H29" s="0">
-        <v>21.467525767875195</v>
+        <v>28.775694412869292</v>
       </c>
       <c r="I29" s="0">
-        <v>19.747902061549965</v>
+        <v>26.222971159907086</v>
       </c>
       <c r="J29" s="0">
-        <v>21.512004297515851</v>
+        <v>27.957077507501857</v>
       </c>
       <c r="K29" s="0">
-        <v>21.368782264424819</v>
+        <v>25.223520014608475</v>
       </c>
       <c r="L29" s="0">
-        <v>20.336423333972853</v>
+        <v>26.440572441593019</v>
       </c>
       <c r="M29" s="0">
-        <v>21.728855480810676</v>
+        <v>29.775295626795707</v>
       </c>
       <c r="N29" s="0">
-        <v>20.829127479312053</v>
+        <v>25.485495663050763</v>
       </c>
       <c r="O29" s="0">
-        <v>21.420130320084198</v>
+        <v>28.741972754617624</v>
       </c>
       <c r="P29" s="0">
-        <v>19.731920661567003</v>
+        <v>30.013303086813611</v>
       </c>
       <c r="Q29" s="0">
-        <v>21.14332967042245</v>
+        <v>31.016270937380508</v>
       </c>
       <c r="R29" s="0">
-        <v>22.848892707210627</v>
+        <v>28.716161314350611</v>
       </c>
       <c r="S29" s="0">
-        <v>21.858470560165138</v>
+        <v>27.649303468792027</v>
       </c>
       <c r="T29" s="0">
-        <v>20.771167981071123</v>
+        <v>26.142441474068342</v>
       </c>
       <c r="U29" s="0">
-        <v>19.719528826999341</v>
+        <v>27.272050778836153</v>
       </c>
       <c r="V29" s="0">
-        <v>20.411797916677262</v>
+        <v>25.9649728383284</v>
       </c>
       <c r="W29" s="0">
-        <v>20.98864725212519</v>
+        <v>28.633019971788741</v>
       </c>
       <c r="X29" s="0">
-        <v>21.247844740090656</v>
+        <v>30.960403949186734</v>
       </c>
       <c r="Y29" s="0">
-        <v>21.300959940823429</v>
+        <v>28.506685546142787</v>
       </c>
       <c r="Z29" s="0">
-        <v>21.264119173579026</v>
+        <v>27.923784224464473</v>
       </c>
       <c r="AA29" s="0">
-        <v>21.586936187378839</v>
+        <v>29.021856430981302</v>
       </c>
       <c r="AB29" s="0">
-        <v>20.05276481060012</v>
+        <v>28.126039149596021</v>
       </c>
       <c r="AC29" s="0">
-        <v>20.636196761262852</v>
+        <v>26.263045992937428</v>
       </c>
       <c r="AD29" s="0">
-        <v>20.410048889645708</v>
+        <v>27.107506269374429</v>
       </c>
       <c r="AE29" s="0">
-        <v>21.221744392807473</v>
+        <v>27.479934039855387</v>
       </c>
       <c r="AF29" s="0">
-        <v>21.334585626346161</v>
+        <v>27.487700458606813</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>22.021825115829099</v>
+        <v>26.460631092691578</v>
       </c>
       <c r="B30" s="0">
-        <v>19.273835634463222</v>
+        <v>30.688224909455116</v>
       </c>
       <c r="C30" s="0">
-        <v>18.939885119583963</v>
+        <v>28.652083888720501</v>
       </c>
       <c r="D30" s="0">
-        <v>21.436718618103868</v>
+        <v>30.035439671829632</v>
       </c>
       <c r="E30" s="0">
-        <v>21.572170260008562</v>
+        <v>29.939308926339269</v>
       </c>
       <c r="F30" s="0">
-        <v>20.549283407779228</v>
+        <v>25.995635938853027</v>
       </c>
       <c r="G30" s="0">
-        <v>21.503368442389291</v>
+        <v>26.643914085620132</v>
       </c>
       <c r="H30" s="0">
-        <v>22.282524219368156</v>
+        <v>29.137449147359717</v>
       </c>
       <c r="I30" s="0">
-        <v>19.271817219291311</v>
+        <v>27.975726800371739</v>
       </c>
       <c r="J30" s="0">
-        <v>21.850477498147328</v>
+        <v>28.801287195804605</v>
       </c>
       <c r="K30" s="0">
-        <v>20.503787112704757</v>
+        <v>26.197523613745179</v>
       </c>
       <c r="L30" s="0">
-        <v>19.65298992664065</v>
+        <v>28.060230695513852</v>
       </c>
       <c r="M30" s="0">
-        <v>20.639837585332543</v>
+        <v>28.566788707660127</v>
       </c>
       <c r="N30" s="0">
-        <v>20.560703962275785</v>
+        <v>28.12963734426679</v>
       </c>
       <c r="O30" s="0">
-        <v>21.364054765708577</v>
+        <v>28.260506489343467</v>
       </c>
       <c r="P30" s="0">
-        <v>20.849331300973386</v>
+        <v>26.193938505759672</v>
       </c>
       <c r="Q30" s="0">
-        <v>19.77133916394094</v>
+        <v>27.557483453605091</v>
       </c>
       <c r="R30" s="0">
-        <v>22.596176588417837</v>
+        <v>26.789272160394972</v>
       </c>
       <c r="S30" s="0">
-        <v>21.32050100275146</v>
+        <v>28.39973927210297</v>
       </c>
       <c r="T30" s="0">
-        <v>19.520910420228532</v>
+        <v>29.969275314162267</v>
       </c>
       <c r="U30" s="0">
-        <v>21.065495196624532</v>
+        <v>28.753915773178392</v>
       </c>
       <c r="V30" s="0">
-        <v>19.364972668510024</v>
+        <v>29.835044749012919</v>
       </c>
       <c r="W30" s="0">
-        <v>20.052638150755165</v>
+        <v>26.857436767640614</v>
       </c>
       <c r="X30" s="0">
-        <v>21.389277001173582</v>
+        <v>29.393703835160846</v>
       </c>
       <c r="Y30" s="0">
-        <v>22.125735537522164</v>
+        <v>25.498683650601606</v>
       </c>
       <c r="Z30" s="0">
-        <v>20.398815259693595</v>
+        <v>27.128991197833656</v>
       </c>
       <c r="AA30" s="0">
-        <v>20.639407578134296</v>
+        <v>27.259657424329042</v>
       </c>
       <c r="AB30" s="0">
-        <v>18.497317290258369</v>
+        <v>26.135794842766348</v>
       </c>
       <c r="AC30" s="0">
-        <v>20.185557588915589</v>
+        <v>27.477765611389241</v>
       </c>
       <c r="AD30" s="0">
-        <v>19.753379997331635</v>
+        <v>25.405582000480599</v>
       </c>
       <c r="AE30" s="0">
-        <v>19.831454557813949</v>
+        <v>29.708561534309823</v>
       </c>
       <c r="AF30" s="0">
-        <v>20.117478146737113</v>
+        <v>27.20487802388373</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>20.428298392990168</v>
+        <v>29.026894805429674</v>
       </c>
       <c r="B31" s="0">
-        <v>19.640264462779953</v>
+        <v>26.850946598223523</v>
       </c>
       <c r="C31" s="0">
-        <v>20.469501571146452</v>
+        <v>27.132709853911972</v>
       </c>
       <c r="D31" s="0">
-        <v>20.765481986363742</v>
+        <v>27.096442988154678</v>
       </c>
       <c r="E31" s="0">
-        <v>21.756311717073075</v>
+        <v>26.250190646670134</v>
       </c>
       <c r="F31" s="0">
-        <v>20.762190599031527</v>
+        <v>30.471197840903752</v>
       </c>
       <c r="G31" s="0">
-        <v>21.041880580773295</v>
+        <v>26.864036259798773</v>
       </c>
       <c r="H31" s="0">
-        <v>21.058633311862621</v>
+        <v>26.551715493305956</v>
       </c>
       <c r="I31" s="0">
-        <v>21.038789742391852</v>
+        <v>27.196059427011157</v>
       </c>
       <c r="J31" s="0">
-        <v>21.299439001125798</v>
+        <v>26.917201819323292</v>
       </c>
       <c r="K31" s="0">
-        <v>20.272565011621104</v>
+        <v>26.43030449807355</v>
       </c>
       <c r="L31" s="0">
-        <v>21.727228594950574</v>
+        <v>25.882163817816995</v>
       </c>
       <c r="M31" s="0">
-        <v>22.436109221691595</v>
+        <v>27.587065233085294</v>
       </c>
       <c r="N31" s="0">
-        <v>21.67811967163054</v>
+        <v>27.489041802594262</v>
       </c>
       <c r="O31" s="0">
-        <v>20.065390183948075</v>
+        <v>27.716814965120395</v>
       </c>
       <c r="P31" s="0">
-        <v>20.452333188743065</v>
+        <v>30.273348540327198</v>
       </c>
       <c r="Q31" s="0">
-        <v>22.61192214608139</v>
+        <v>28.526041653776385</v>
       </c>
       <c r="R31" s="0">
-        <v>20.466243778150531</v>
+        <v>27.104755408784193</v>
       </c>
       <c r="S31" s="0">
-        <v>20.961430395714615</v>
+        <v>27.069744515166249</v>
       </c>
       <c r="T31" s="0">
-        <v>18.933814760633247</v>
+        <v>27.685092671788361</v>
       </c>
       <c r="U31" s="0">
-        <v>21.661868672755041</v>
+        <v>29.608644989769168</v>
       </c>
       <c r="V31" s="0">
-        <v>21.789429511144576</v>
+        <v>25.756321659791595</v>
       </c>
       <c r="W31" s="0">
-        <v>21.326804269867679</v>
+        <v>27.261647571341776</v>
       </c>
       <c r="X31" s="0">
-        <v>20.755564991495106</v>
+        <v>29.165195666594471</v>
       </c>
       <c r="Y31" s="0">
-        <v>20.546490653605911</v>
+        <v>27.381483320688513</v>
       </c>
       <c r="Z31" s="0">
-        <v>21.79510890132109</v>
+        <v>30.217070432846512</v>
       </c>
       <c r="AA31" s="0">
-        <v>22.097721744937747</v>
+        <v>27.355431922342454</v>
       </c>
       <c r="AB31" s="0">
-        <v>19.8268119052196</v>
+        <v>27.86439876117019</v>
       </c>
       <c r="AC31" s="0">
-        <v>20.280277676391933</v>
+        <v>27.127467622568343</v>
       </c>
       <c r="AD31" s="0">
-        <v>21.053164938199451</v>
+        <v>26.074205283329526</v>
       </c>
       <c r="AE31" s="0">
-        <v>21.543579655331456</v>
+        <v>25.028159823719495</v>
       </c>
       <c r="AF31" s="0">
-        <v>20.890692778801476</v>
+        <v>26.514683537470482</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>20.374621104137375</v>
+        <v>29.715795051972563</v>
       </c>
       <c r="B32" s="0">
-        <v>19.849996915643221</v>
+        <v>28.760728564152238</v>
       </c>
       <c r="C32" s="0">
-        <v>20.898765283680977</v>
+        <v>29.350621342044761</v>
       </c>
       <c r="D32" s="0">
-        <v>20.781569878674343</v>
+        <v>29.235799781069524</v>
       </c>
       <c r="E32" s="0">
-        <v>21.857587611238088</v>
+        <v>28.36260608992129</v>
       </c>
       <c r="F32" s="0">
-        <v>22.106824855791672</v>
+        <v>26.460690320032271</v>
       </c>
       <c r="G32" s="0">
-        <v>21.023449841789919</v>
+        <v>27.800468012880405</v>
       </c>
       <c r="H32" s="0">
-        <v>21.42768643953195</v>
+        <v>31.424487668790782</v>
       </c>
       <c r="I32" s="0">
-        <v>19.523043152539874</v>
+        <v>27.45051141714578</v>
       </c>
       <c r="J32" s="0">
-        <v>20.772657281897743</v>
+        <v>28.525304252738106</v>
       </c>
       <c r="K32" s="0">
-        <v>19.962047861390321</v>
+        <v>27.409914813522882</v>
       </c>
       <c r="L32" s="0">
-        <v>19.588187861163338</v>
+        <v>26.031998514323575</v>
       </c>
       <c r="M32" s="0">
-        <v>19.402178037056451</v>
+        <v>28.740182287874777</v>
       </c>
       <c r="N32" s="0">
-        <v>19.454873092945171</v>
+        <v>28.373449871469703</v>
       </c>
       <c r="O32" s="0">
-        <v>19.802109263159828</v>
+        <v>28.874058684141147</v>
       </c>
       <c r="P32" s="0">
-        <v>22.049593120485941</v>
+        <v>27.962632909492804</v>
       </c>
       <c r="Q32" s="0">
-        <v>21.682143545467941</v>
+        <v>27.782352220902101</v>
       </c>
       <c r="R32" s="0">
-        <v>22.332390770151331</v>
+        <v>28.454168623263776</v>
       </c>
       <c r="S32" s="0">
-        <v>20.499321760248801</v>
+        <v>29.972644534351808</v>
       </c>
       <c r="T32" s="0">
-        <v>21.674420367071882</v>
+        <v>26.220622530014694</v>
       </c>
       <c r="U32" s="0">
-        <v>19.590281854928811</v>
+        <v>27.220588697034664</v>
       </c>
       <c r="V32" s="0">
-        <v>19.159239881699651</v>
+        <v>27.185812568132356</v>
       </c>
       <c r="W32" s="0">
-        <v>18.869278487630233</v>
+        <v>27.824246016334321</v>
       </c>
       <c r="X32" s="0">
-        <v>21.842796174852413</v>
+        <v>27.241672877970618</v>
       </c>
       <c r="Y32" s="0">
-        <v>20.086833673513116</v>
+        <v>27.107125572849888</v>
       </c>
       <c r="Z32" s="0">
-        <v>21.164251417453546</v>
+        <v>25.636710356060725</v>
       </c>
       <c r="AA32" s="0">
-        <v>20.906650114158616</v>
+        <v>25.899894574564428</v>
       </c>
       <c r="AB32" s="0">
-        <v>19.938048591076971</v>
+        <v>28.043236517108937</v>
       </c>
       <c r="AC32" s="0">
-        <v>21.964435619366931</v>
+        <v>25.659810090413128</v>
       </c>
       <c r="AD32" s="0">
-        <v>19.657638667702216</v>
+        <v>26.527411319463305</v>
       </c>
       <c r="AE32" s="0">
-        <v>20.751159269610575</v>
+        <v>25.555898053110159</v>
       </c>
       <c r="AF32" s="0">
-        <v>19.657234175805108</v>
+        <v>25.469428361717735</v>
       </c>
     </row>
   </sheetData>

--- a/change/test/block_PSNR.xlsx
+++ b/change/test/block_PSNR.xlsx
@@ -95,3138 +95,3138 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>20.781379015968447</v>
+        <v>29.021434570047049</v>
       </c>
       <c r="B1" s="0">
-        <v>20.943240124262541</v>
+        <v>30.069883081158096</v>
       </c>
       <c r="C1" s="0">
-        <v>20.309947394380607</v>
+        <v>28.41236773080454</v>
       </c>
       <c r="D1" s="0">
-        <v>20.328084867846975</v>
+        <v>26.908398422398371</v>
       </c>
       <c r="E1" s="0">
-        <v>20.798854292806386</v>
+        <v>29.014271037543114</v>
       </c>
       <c r="F1" s="0">
-        <v>21.022302850716645</v>
+        <v>28.801315330251992</v>
       </c>
       <c r="G1" s="0">
-        <v>20.672987888330955</v>
+        <v>27.961464898281161</v>
       </c>
       <c r="H1" s="0">
-        <v>21.093908935047732</v>
+        <v>22.635012203328124</v>
       </c>
       <c r="I1" s="0">
-        <v>21.677267783229404</v>
+        <v>19.892791086203225</v>
       </c>
       <c r="J1" s="0">
-        <v>20.157689034935228</v>
+        <v>18.034148837182727</v>
       </c>
       <c r="K1" s="0">
-        <v>20.517295143345041</v>
+        <v>18.716512404344062</v>
       </c>
       <c r="L1" s="0">
-        <v>20.849427299435646</v>
+        <v>18.433938553259278</v>
       </c>
       <c r="M1" s="0">
-        <v>20.799720158500747</v>
+        <v>18.217988509801014</v>
       </c>
       <c r="N1" s="0">
-        <v>20.132453071205312</v>
+        <v>17.548099554584372</v>
       </c>
       <c r="O1" s="0">
-        <v>20.207255617498063</v>
+        <v>17.946055593928186</v>
       </c>
       <c r="P1" s="0">
-        <v>20.146698783414628</v>
+        <v>18.4092149159431</v>
       </c>
       <c r="Q1" s="0">
-        <v>20.15452511334523</v>
+        <v>19.225455909027144</v>
       </c>
       <c r="R1" s="0">
-        <v>19.902529863856131</v>
+        <v>19.270400172797121</v>
       </c>
       <c r="S1" s="0">
-        <v>20.004796082021478</v>
+        <v>26.172467068372114</v>
       </c>
       <c r="T1" s="0">
-        <v>19.526852887146365</v>
+        <v>25.394453439344122</v>
       </c>
       <c r="U1" s="0">
-        <v>20.133830280043647</v>
+        <v>30.275169584789516</v>
       </c>
       <c r="V1" s="0">
-        <v>19.335154810829668</v>
+        <v>26.669415052040904</v>
       </c>
       <c r="W1" s="0">
-        <v>19.155655754468487</v>
+        <v>27.25694692108085</v>
       </c>
       <c r="X1" s="0">
-        <v>19.284272342340682</v>
+        <v>28.042777622952588</v>
       </c>
       <c r="Y1" s="0">
-        <v>18.727055940926011</v>
+        <v>30.28745955478194</v>
       </c>
       <c r="Z1" s="0">
-        <v>15.506491676772317</v>
+        <v>26.533331877313934</v>
       </c>
       <c r="AA1" s="0">
-        <v>14.622881936748584</v>
+        <v>25.550998852766348</v>
       </c>
       <c r="AB1" s="0">
-        <v>20.872394805390439</v>
+        <v>25.199099491327882</v>
       </c>
       <c r="AC1" s="0">
-        <v>22.737460944632055</v>
+        <v>29.3798479199009</v>
       </c>
       <c r="AD1" s="0">
-        <v>16.931531787126751</v>
+        <v>27.483793311960603</v>
       </c>
       <c r="AE1" s="0">
-        <v>19.245023034476329</v>
+        <v>29.099595744083246</v>
       </c>
       <c r="AF1" s="0">
-        <v>18.580174832002239</v>
+        <v>25.470619037732057</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>20.214398248437391</v>
+        <v>27.133165386029528</v>
       </c>
       <c r="B2" s="0">
-        <v>20.076093389598629</v>
+        <v>25.714208655582752</v>
       </c>
       <c r="C2" s="0">
-        <v>20.585391207610073</v>
+        <v>26.314129571271007</v>
       </c>
       <c r="D2" s="0">
-        <v>20.749903125765918</v>
+        <v>26.834516908826131</v>
       </c>
       <c r="E2" s="0">
-        <v>20.936051636645455</v>
+        <v>27.033325965835566</v>
       </c>
       <c r="F2" s="0">
-        <v>20.950160623190719</v>
+        <v>28.147342979313272</v>
       </c>
       <c r="G2" s="0">
-        <v>20.554088586496874</v>
+        <v>26.838116186545339</v>
       </c>
       <c r="H2" s="0">
-        <v>20.65210953947075</v>
+        <v>27.089253426545735</v>
       </c>
       <c r="I2" s="0">
-        <v>20.592996893139617</v>
+        <v>25.753659650670826</v>
       </c>
       <c r="J2" s="0">
-        <v>20.722492650070961</v>
+        <v>25.364601864418859</v>
       </c>
       <c r="K2" s="0">
-        <v>21.157021153135204</v>
+        <v>27.05796286400442</v>
       </c>
       <c r="L2" s="0">
-        <v>21.318680962240144</v>
+        <v>26.363573644189763</v>
       </c>
       <c r="M2" s="0">
-        <v>21.236013712304477</v>
+        <v>28.147753605144288</v>
       </c>
       <c r="N2" s="0">
-        <v>20.945364629283105</v>
+        <v>26.894273908887328</v>
       </c>
       <c r="O2" s="0">
-        <v>20.81082910818327</v>
+        <v>25.918529052581547</v>
       </c>
       <c r="P2" s="0">
-        <v>21.010409044666503</v>
+        <v>26.42398846465241</v>
       </c>
       <c r="Q2" s="0">
-        <v>20.81508613148462</v>
+        <v>25.703891442502069</v>
       </c>
       <c r="R2" s="0">
-        <v>20.355863857251908</v>
+        <v>24.431402759745605</v>
       </c>
       <c r="S2" s="0">
-        <v>21.036772196527977</v>
+        <v>21.149261188687607</v>
       </c>
       <c r="T2" s="0">
-        <v>20.146072796482876</v>
+        <v>20.880474804993433</v>
       </c>
       <c r="U2" s="0">
-        <v>19.715634588296382</v>
+        <v>21.212004359713568</v>
       </c>
       <c r="V2" s="0">
-        <v>19.835677305920711</v>
+        <v>21.997416458359066</v>
       </c>
       <c r="W2" s="0">
-        <v>19.834493146231992</v>
+        <v>23.014895568596351</v>
       </c>
       <c r="X2" s="0">
-        <v>19.308032026902254</v>
+        <v>23.775967838840216</v>
       </c>
       <c r="Y2" s="0">
-        <v>15.831255852698279</v>
+        <v>23.807339951836028</v>
       </c>
       <c r="Z2" s="0">
-        <v>15.149260232370505</v>
+        <v>21.519827401382404</v>
       </c>
       <c r="AA2" s="0">
-        <v>17.126349476216014</v>
+        <v>20.733614005301398</v>
       </c>
       <c r="AB2" s="0">
-        <v>20.727242971495571</v>
+        <v>21.02026286460546</v>
       </c>
       <c r="AC2" s="0">
-        <v>20.390529718961744</v>
+        <v>20.531693685878885</v>
       </c>
       <c r="AD2" s="0">
-        <v>16.226875887043555</v>
+        <v>20.722935196936465</v>
       </c>
       <c r="AE2" s="0">
-        <v>17.387225516660596</v>
+        <v>20.10521337716186</v>
       </c>
       <c r="AF2" s="0">
-        <v>19.284963324071882</v>
+        <v>19.615855331483122</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>19.755928815114817</v>
+        <v>28.623473413624545</v>
       </c>
       <c r="B3" s="0">
-        <v>19.73904015900893</v>
+        <v>26.991941391515624</v>
       </c>
       <c r="C3" s="0">
-        <v>20.318777083933092</v>
+        <v>27.370777209086047</v>
       </c>
       <c r="D3" s="0">
-        <v>21.186792509257252</v>
+        <v>28.390655649833629</v>
       </c>
       <c r="E3" s="0">
-        <v>21.454052139157707</v>
+        <v>28.642076411927615</v>
       </c>
       <c r="F3" s="0">
-        <v>21.763611495299934</v>
+        <v>28.917740811488382</v>
       </c>
       <c r="G3" s="0">
-        <v>21.43527954336691</v>
+        <v>27.484955526692968</v>
       </c>
       <c r="H3" s="0">
-        <v>21.377333319812863</v>
+        <v>26.736119783351846</v>
       </c>
       <c r="I3" s="0">
-        <v>21.023983652178984</v>
+        <v>26.855867110565043</v>
       </c>
       <c r="J3" s="0">
-        <v>20.743214368804086</v>
+        <v>25.709203074751898</v>
       </c>
       <c r="K3" s="0">
-        <v>21.243571842092553</v>
+        <v>27.753559180323187</v>
       </c>
       <c r="L3" s="0">
-        <v>20.944822669632515</v>
+        <v>26.345747508697048</v>
       </c>
       <c r="M3" s="0">
-        <v>22.276848183200713</v>
+        <v>32.422729402409033</v>
       </c>
       <c r="N3" s="0">
-        <v>21.382897790344888</v>
+        <v>27.80698099379514</v>
       </c>
       <c r="O3" s="0">
-        <v>21.266534791714633</v>
+        <v>28.223031414703765</v>
       </c>
       <c r="P3" s="0">
-        <v>21.239202363611813</v>
+        <v>28.753500537828319</v>
       </c>
       <c r="Q3" s="0">
-        <v>20.946701362066204</v>
+        <v>26.371412065174525</v>
       </c>
       <c r="R3" s="0">
-        <v>21.594638410117028</v>
+        <v>30.053557038486673</v>
       </c>
       <c r="S3" s="0">
-        <v>20.607391365783489</v>
+        <v>27.475009551142673</v>
       </c>
       <c r="T3" s="0">
-        <v>21.11315351774472</v>
+        <v>30.266572728809621</v>
       </c>
       <c r="U3" s="0">
-        <v>20.645871696035869</v>
+        <v>29.487680057788815</v>
       </c>
       <c r="V3" s="0">
-        <v>20.276496835366022</v>
+        <v>28.514408371887917</v>
       </c>
       <c r="W3" s="0">
-        <v>20.802177330108606</v>
+        <v>31.316004278054628</v>
       </c>
       <c r="X3" s="0">
-        <v>19.198570402797849</v>
+        <v>29.289816313267725</v>
       </c>
       <c r="Y3" s="0">
-        <v>15.449636809135299</v>
+        <v>29.359594767821218</v>
       </c>
       <c r="Z3" s="0">
-        <v>13.535476023844186</v>
+        <v>26.642023314065121</v>
       </c>
       <c r="AA3" s="0">
-        <v>20.200129814581992</v>
+        <v>28.140704632901844</v>
       </c>
       <c r="AB3" s="0">
-        <v>15.443219588064029</v>
+        <v>27.565633568431235</v>
       </c>
       <c r="AC3" s="0">
-        <v>18.579225158959094</v>
+        <v>30.99781152316055</v>
       </c>
       <c r="AD3" s="0">
-        <v>17.859886232641138</v>
+        <v>28.464414817796097</v>
       </c>
       <c r="AE3" s="0">
-        <v>21.042211742707856</v>
+        <v>27.323044226382741</v>
       </c>
       <c r="AF3" s="0">
-        <v>23.989468434892082</v>
+        <v>27.940079400592992</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>20.870921617342113</v>
+        <v>21.173979144823477</v>
       </c>
       <c r="B4" s="0">
-        <v>20.616291836479725</v>
+        <v>21.931721651656044</v>
       </c>
       <c r="C4" s="0">
-        <v>20.333150122048199</v>
+        <v>22.490495813271036</v>
       </c>
       <c r="D4" s="0">
-        <v>21.447593096232744</v>
+        <v>23.683728395065774</v>
       </c>
       <c r="E4" s="0">
-        <v>21.528947186471783</v>
+        <v>25.672164832984144</v>
       </c>
       <c r="F4" s="0">
-        <v>20.987316669820419</v>
+        <v>26.751611151671064</v>
       </c>
       <c r="G4" s="0">
-        <v>21.570323518626672</v>
+        <v>28.767552538797858</v>
       </c>
       <c r="H4" s="0">
-        <v>21.356137698681906</v>
+        <v>29.100928917777029</v>
       </c>
       <c r="I4" s="0">
-        <v>21.167399139346642</v>
+        <v>27.975247946957907</v>
       </c>
       <c r="J4" s="0">
-        <v>20.878685680330019</v>
+        <v>26.5580240429816</v>
       </c>
       <c r="K4" s="0">
-        <v>21.467422665784788</v>
+        <v>28.915398487333597</v>
       </c>
       <c r="L4" s="0">
-        <v>20.976126616929932</v>
+        <v>27.825627699223908</v>
       </c>
       <c r="M4" s="0">
-        <v>20.893294455623675</v>
+        <v>28.470523790117017</v>
       </c>
       <c r="N4" s="0">
-        <v>21.080290724370776</v>
+        <v>28.556861643459676</v>
       </c>
       <c r="O4" s="0">
-        <v>21.016911767355495</v>
+        <v>28.363604225802732</v>
       </c>
       <c r="P4" s="0">
-        <v>20.728773994791688</v>
+        <v>27.790078848778869</v>
       </c>
       <c r="Q4" s="0">
-        <v>20.9320571402321</v>
+        <v>29.103399868051806</v>
       </c>
       <c r="R4" s="0">
-        <v>20.986569520976033</v>
+        <v>30.702974574691027</v>
       </c>
       <c r="S4" s="0">
-        <v>20.242848832001087</v>
+        <v>27.840937065736163</v>
       </c>
       <c r="T4" s="0">
-        <v>20.128598692285003</v>
+        <v>29.030162164855962</v>
       </c>
       <c r="U4" s="0">
-        <v>20.128483209426395</v>
+        <v>27.809718337155452</v>
       </c>
       <c r="V4" s="0">
-        <v>20.620870805752524</v>
+        <v>30.576353402139524</v>
       </c>
       <c r="W4" s="0">
-        <v>20.03583778965686</v>
+        <v>27.162686500942105</v>
       </c>
       <c r="X4" s="0">
-        <v>18.204173994872402</v>
+        <v>25.604975298980861</v>
       </c>
       <c r="Y4" s="0">
-        <v>15.494626975788286</v>
+        <v>23.495561125978782</v>
       </c>
       <c r="Z4" s="0">
-        <v>16.917958140284274</v>
+        <v>23.240248951231933</v>
       </c>
       <c r="AA4" s="0">
-        <v>23.541170379517979</v>
+        <v>22.164894299495902</v>
       </c>
       <c r="AB4" s="0">
-        <v>14.301442882328796</v>
+        <v>22.372021800149959</v>
       </c>
       <c r="AC4" s="0">
-        <v>20.248172135439265</v>
+        <v>22.425181313586613</v>
       </c>
       <c r="AD4" s="0">
-        <v>22.436598552789363</v>
+        <v>21.56444592084091</v>
       </c>
       <c r="AE4" s="0">
-        <v>22.266980629259518</v>
+        <v>19.878008092386811</v>
       </c>
       <c r="AF4" s="0">
-        <v>24.235721362188166</v>
+        <v>20.280097136279469</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>20.010832682216176</v>
+        <v>22.410082448881248</v>
       </c>
       <c r="B5" s="0">
-        <v>20.180650880892657</v>
+        <v>27.210331214267967</v>
       </c>
       <c r="C5" s="0">
-        <v>20.972102516229164</v>
+        <v>31.576213822755857</v>
       </c>
       <c r="D5" s="0">
-        <v>20.917399706897072</v>
+        <v>29.918108635243744</v>
       </c>
       <c r="E5" s="0">
-        <v>20.094210711547177</v>
+        <v>26.177409373847567</v>
       </c>
       <c r="F5" s="0">
-        <v>20.543610756515029</v>
+        <v>25.282252242616376</v>
       </c>
       <c r="G5" s="0">
-        <v>20.323911500568002</v>
+        <v>23.468671713316297</v>
       </c>
       <c r="H5" s="0">
-        <v>21.232795049854282</v>
+        <v>25.358697248342288</v>
       </c>
       <c r="I5" s="0">
-        <v>20.610712498254202</v>
+        <v>22.353571882833556</v>
       </c>
       <c r="J5" s="0">
-        <v>20.172436493499426</v>
+        <v>20.951976477872591</v>
       </c>
       <c r="K5" s="0">
-        <v>19.644345296552711</v>
+        <v>21.488742787990532</v>
       </c>
       <c r="L5" s="0">
-        <v>20.058969669535422</v>
+        <v>20.028118071992374</v>
       </c>
       <c r="M5" s="0">
-        <v>19.60697032856087</v>
+        <v>20.133103451335824</v>
       </c>
       <c r="N5" s="0">
-        <v>19.838125227301717</v>
+        <v>21.922124128465121</v>
       </c>
       <c r="O5" s="0">
-        <v>20.122623799937163</v>
+        <v>22.091594659146839</v>
       </c>
       <c r="P5" s="0">
-        <v>20.034139993088399</v>
+        <v>22.422073941944987</v>
       </c>
       <c r="Q5" s="0">
-        <v>19.739942628365373</v>
+        <v>21.349962643403522</v>
       </c>
       <c r="R5" s="0">
-        <v>19.238925810310445</v>
+        <v>21.266756845282472</v>
       </c>
       <c r="S5" s="0">
-        <v>19.35067485082055</v>
+        <v>22.317807375115095</v>
       </c>
       <c r="T5" s="0">
-        <v>19.534400209834295</v>
+        <v>20.788167334500137</v>
       </c>
       <c r="U5" s="0">
-        <v>19.593066882358578</v>
+        <v>23.127041668005571</v>
       </c>
       <c r="V5" s="0">
-        <v>19.986903591935945</v>
+        <v>20.955544889501191</v>
       </c>
       <c r="W5" s="0">
-        <v>16.095501485672898</v>
+        <v>23.579485495246566</v>
       </c>
       <c r="X5" s="0">
-        <v>17.791415629009649</v>
+        <v>21.958248273287552</v>
       </c>
       <c r="Y5" s="0">
-        <v>23.793727517063232</v>
+        <v>26.045817971067926</v>
       </c>
       <c r="Z5" s="0">
-        <v>24.497346066518606</v>
+        <v>28.106263681600044</v>
       </c>
       <c r="AA5" s="0">
-        <v>25.673878810557198</v>
+        <v>27.259028535478041</v>
       </c>
       <c r="AB5" s="0">
-        <v>14.66014892956794</v>
+        <v>29.691852710312023</v>
       </c>
       <c r="AC5" s="0">
-        <v>24.509424615434309</v>
+        <v>26.36226630789654</v>
       </c>
       <c r="AD5" s="0">
-        <v>23.543549798116565</v>
+        <v>26.113788873749172</v>
       </c>
       <c r="AE5" s="0">
-        <v>21.191006900596747</v>
+        <v>22.829190587503941</v>
       </c>
       <c r="AF5" s="0">
-        <v>24.177010966690403</v>
+        <v>21.998719817398296</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>20.39064958723398</v>
+        <v>19.463471146219341</v>
       </c>
       <c r="B6" s="0">
-        <v>20.152882898855523</v>
+        <v>23.002839142033121</v>
       </c>
       <c r="C6" s="0">
-        <v>20.288979932827807</v>
+        <v>21.831367703683004</v>
       </c>
       <c r="D6" s="0">
-        <v>20.121221328476096</v>
+        <v>22.777374319062673</v>
       </c>
       <c r="E6" s="0">
-        <v>19.723645718417789</v>
+        <v>21.714793583797075</v>
       </c>
       <c r="F6" s="0">
-        <v>19.862849337085137</v>
+        <v>23.63050124417088</v>
       </c>
       <c r="G6" s="0">
-        <v>20.173579546529648</v>
+        <v>23.718851061731474</v>
       </c>
       <c r="H6" s="0">
-        <v>20.057940764486482</v>
+        <v>26.019352061149252</v>
       </c>
       <c r="I6" s="0">
-        <v>19.362553337316658</v>
+        <v>23.527107207950507</v>
       </c>
       <c r="J6" s="0">
-        <v>19.634478749167833</v>
+        <v>23.768005555386772</v>
       </c>
       <c r="K6" s="0">
-        <v>19.510927727480102</v>
+        <v>24.199767533671</v>
       </c>
       <c r="L6" s="0">
-        <v>19.543708736554002</v>
+        <v>24.831874611789601</v>
       </c>
       <c r="M6" s="0">
-        <v>19.72825644699337</v>
+        <v>24.890014597465658</v>
       </c>
       <c r="N6" s="0">
-        <v>19.507282391869435</v>
+        <v>23.304651434181917</v>
       </c>
       <c r="O6" s="0">
-        <v>18.786664003214913</v>
+        <v>22.377721190571922</v>
       </c>
       <c r="P6" s="0">
-        <v>18.985573872984713</v>
+        <v>24.021398964085105</v>
       </c>
       <c r="Q6" s="0">
-        <v>19.050316638014834</v>
+        <v>24.422373775402061</v>
       </c>
       <c r="R6" s="0">
-        <v>18.835938393378399</v>
+        <v>21.599300033078556</v>
       </c>
       <c r="S6" s="0">
-        <v>19.055135878235998</v>
+        <v>22.278612973506352</v>
       </c>
       <c r="T6" s="0">
-        <v>19.340281151071789</v>
+        <v>21.821891826405206</v>
       </c>
       <c r="U6" s="0">
-        <v>15.344361365827123</v>
+        <v>23.601178272212024</v>
       </c>
       <c r="V6" s="0">
-        <v>16.72646390415747</v>
+        <v>22.635591809323806</v>
       </c>
       <c r="W6" s="0">
-        <v>16.611914037488283</v>
+        <v>23.873977893992247</v>
       </c>
       <c r="X6" s="0">
-        <v>27.531223862224188</v>
+        <v>25.436237449359645</v>
       </c>
       <c r="Y6" s="0">
-        <v>16.622449484994068</v>
+        <v>23.0453187725182</v>
       </c>
       <c r="Z6" s="0">
-        <v>21.786071735474458</v>
+        <v>22.574953188357188</v>
       </c>
       <c r="AA6" s="0">
-        <v>20.827542348246304</v>
+        <v>19.096312780672275</v>
       </c>
       <c r="AB6" s="0">
-        <v>15.294371217737092</v>
+        <v>20.777702313660164</v>
       </c>
       <c r="AC6" s="0">
-        <v>18.362004076719501</v>
+        <v>19.307647250502043</v>
       </c>
       <c r="AD6" s="0">
-        <v>19.015939278967583</v>
+        <v>21.047858801243891</v>
       </c>
       <c r="AE6" s="0">
-        <v>20.703226658901528</v>
+        <v>20.687088322174848</v>
       </c>
       <c r="AF6" s="0">
-        <v>24.448174383819858</v>
+        <v>20.209067066409659</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>19.357488058644584</v>
+        <v>20.626833619202948</v>
       </c>
       <c r="B7" s="0">
-        <v>19.663692953355486</v>
+        <v>20.274967340489116</v>
       </c>
       <c r="C7" s="0">
-        <v>19.319363192866533</v>
+        <v>20.61653117971786</v>
       </c>
       <c r="D7" s="0">
-        <v>19.788047827797403</v>
+        <v>20.388635980405244</v>
       </c>
       <c r="E7" s="0">
-        <v>19.132735500001559</v>
+        <v>18.740179131493388</v>
       </c>
       <c r="F7" s="0">
-        <v>19.197025170974612</v>
+        <v>18.499624732725422</v>
       </c>
       <c r="G7" s="0">
-        <v>19.372302143782626</v>
+        <v>18.928170012513849</v>
       </c>
       <c r="H7" s="0">
-        <v>19.358176801456825</v>
+        <v>19.020063295754628</v>
       </c>
       <c r="I7" s="0">
-        <v>19.397724121486924</v>
+        <v>17.948549749189869</v>
       </c>
       <c r="J7" s="0">
-        <v>19.11824482448419</v>
+        <v>18.795247668254568</v>
       </c>
       <c r="K7" s="0">
-        <v>19.282007671372142</v>
+        <v>19.345068822142327</v>
       </c>
       <c r="L7" s="0">
-        <v>19.05488852795974</v>
+        <v>19.786812007383801</v>
       </c>
       <c r="M7" s="0">
-        <v>18.674013350050064</v>
+        <v>21.307591339360847</v>
       </c>
       <c r="N7" s="0">
-        <v>18.304905323593111</v>
+        <v>19.896937497534594</v>
       </c>
       <c r="O7" s="0">
-        <v>18.676667475684603</v>
+        <v>19.451324428190915</v>
       </c>
       <c r="P7" s="0">
-        <v>18.369678332821401</v>
+        <v>17.131367700275405</v>
       </c>
       <c r="Q7" s="0">
-        <v>18.486710883396768</v>
+        <v>19.535593056112898</v>
       </c>
       <c r="R7" s="0">
-        <v>18.724227040336054</v>
+        <v>19.125573666007089</v>
       </c>
       <c r="S7" s="0">
-        <v>18.527955395199221</v>
+        <v>17.016778964318988</v>
       </c>
       <c r="T7" s="0">
-        <v>18.588234519917243</v>
+        <v>17.973174206239339</v>
       </c>
       <c r="U7" s="0">
-        <v>13.776448672571657</v>
+        <v>18.630738186657975</v>
       </c>
       <c r="V7" s="0">
-        <v>20.746027127283057</v>
+        <v>19.589161637436934</v>
       </c>
       <c r="W7" s="0">
-        <v>20.756439617271255</v>
+        <v>20.7189141578883</v>
       </c>
       <c r="X7" s="0">
-        <v>19.613333899405383</v>
+        <v>19.816923031597252</v>
       </c>
       <c r="Y7" s="0">
-        <v>14.966075655204513</v>
+        <v>21.344437432821209</v>
       </c>
       <c r="Z7" s="0">
-        <v>25.03158501286444</v>
+        <v>21.633405066381993</v>
       </c>
       <c r="AA7" s="0">
-        <v>24.002276833829711</v>
+        <v>23.131010554223479</v>
       </c>
       <c r="AB7" s="0">
-        <v>14.633760861924758</v>
+        <v>22.180155412514559</v>
       </c>
       <c r="AC7" s="0">
-        <v>23.058972861668053</v>
+        <v>22.760306639112606</v>
       </c>
       <c r="AD7" s="0">
-        <v>23.883488756514254</v>
+        <v>22.775323943470127</v>
       </c>
       <c r="AE7" s="0">
-        <v>16.234332330228483</v>
+        <v>26.544733245621043</v>
       </c>
       <c r="AF7" s="0">
-        <v>25.914272647442541</v>
+        <v>26.952591535957289</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>17.517213736224523</v>
+        <v>23.12318569459384</v>
       </c>
       <c r="B8" s="0">
-        <v>19.236880639153352</v>
+        <v>20.678622955346828</v>
       </c>
       <c r="C8" s="0">
-        <v>19.84311907971049</v>
+        <v>20.032415242374473</v>
       </c>
       <c r="D8" s="0">
-        <v>19.650359781609318</v>
+        <v>23.308174799139614</v>
       </c>
       <c r="E8" s="0">
-        <v>19.470499811456879</v>
+        <v>23.789497352013392</v>
       </c>
       <c r="F8" s="0">
-        <v>16.252594766420824</v>
+        <v>25.292546094529254</v>
       </c>
       <c r="G8" s="0">
-        <v>18.62726176948745</v>
+        <v>27.618086009735855</v>
       </c>
       <c r="H8" s="0">
-        <v>17.790683099525783</v>
+        <v>25.845935015679984</v>
       </c>
       <c r="I8" s="0">
-        <v>17.356653806644765</v>
+        <v>26.210418800889261</v>
       </c>
       <c r="J8" s="0">
-        <v>17.806129340993476</v>
+        <v>28.011429279036903</v>
       </c>
       <c r="K8" s="0">
-        <v>18.865541077312724</v>
+        <v>27.725377862088273</v>
       </c>
       <c r="L8" s="0">
-        <v>18.698772955984463</v>
+        <v>26.278967832913899</v>
       </c>
       <c r="M8" s="0">
-        <v>18.647348379915719</v>
+        <v>22.58182469175496</v>
       </c>
       <c r="N8" s="0">
-        <v>18.472707686666872</v>
+        <v>24.252750358522306</v>
       </c>
       <c r="O8" s="0">
-        <v>18.506706634017377</v>
+        <v>23.908431321864811</v>
       </c>
       <c r="P8" s="0">
-        <v>18.216464502546529</v>
+        <v>23.622315011272722</v>
       </c>
       <c r="Q8" s="0">
-        <v>18.786088985778843</v>
+        <v>23.53422423490278</v>
       </c>
       <c r="R8" s="0">
-        <v>18.702297673337952</v>
+        <v>22.705532211587052</v>
       </c>
       <c r="S8" s="0">
-        <v>18.566357117843225</v>
+        <v>23.251002161152968</v>
       </c>
       <c r="T8" s="0">
-        <v>18.341775719225627</v>
+        <v>23.555795253506911</v>
       </c>
       <c r="U8" s="0">
-        <v>12.712979189617368</v>
+        <v>24.63087868307429</v>
       </c>
       <c r="V8" s="0">
-        <v>25.29858318716709</v>
+        <v>26.477033383321359</v>
       </c>
       <c r="W8" s="0">
-        <v>23.155578286979946</v>
+        <v>28.06462842730339</v>
       </c>
       <c r="X8" s="0">
-        <v>17.240484599802038</v>
+        <v>26.371111783441247</v>
       </c>
       <c r="Y8" s="0">
-        <v>17.369672572443953</v>
+        <v>26.952860709190404</v>
       </c>
       <c r="Z8" s="0">
-        <v>23.498081130101941</v>
+        <v>26.804580508465527</v>
       </c>
       <c r="AA8" s="0">
-        <v>24.326227600653528</v>
+        <v>28.932705370802495</v>
       </c>
       <c r="AB8" s="0">
-        <v>14.402095799375083</v>
+        <v>26.178389619578233</v>
       </c>
       <c r="AC8" s="0">
-        <v>23.763347804009584</v>
+        <v>25.862989463873586</v>
       </c>
       <c r="AD8" s="0">
-        <v>22.819997276556599</v>
+        <v>23.03291299748863</v>
       </c>
       <c r="AE8" s="0">
-        <v>14.003427730884269</v>
+        <v>26.229400329126442</v>
       </c>
       <c r="AF8" s="0">
-        <v>26.193935043092722</v>
+        <v>28.409901372550962</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>27.913169823603027</v>
+        <v>21.351784132900306</v>
       </c>
       <c r="B9" s="0">
-        <v>26.299875355373569</v>
+        <v>20.429589044370307</v>
       </c>
       <c r="C9" s="0">
-        <v>25.345639128025212</v>
+        <v>19.70533963400969</v>
       </c>
       <c r="D9" s="0">
-        <v>27.477216465817243</v>
+        <v>19.672271979642439</v>
       </c>
       <c r="E9" s="0">
-        <v>26.412931411801956</v>
+        <v>21.606024547167006</v>
       </c>
       <c r="F9" s="0">
-        <v>26.148579931587435</v>
+        <v>21.429993620316594</v>
       </c>
       <c r="G9" s="0">
-        <v>25.449727027447061</v>
+        <v>19.768161874458933</v>
       </c>
       <c r="H9" s="0">
-        <v>20.315010132154367</v>
+        <v>18.975525358908673</v>
       </c>
       <c r="I9" s="0">
-        <v>24.853271719414881</v>
+        <v>20.724412162295511</v>
       </c>
       <c r="J9" s="0">
-        <v>27.039907297208163</v>
+        <v>23.486968870523157</v>
       </c>
       <c r="K9" s="0">
-        <v>23.838896097081342</v>
+        <v>24.703744647633048</v>
       </c>
       <c r="L9" s="0">
-        <v>19.128368592369608</v>
+        <v>22.747406572774118</v>
       </c>
       <c r="M9" s="0">
-        <v>23.36545519555299</v>
+        <v>24.349290741436363</v>
       </c>
       <c r="N9" s="0">
-        <v>21.313395211837385</v>
+        <v>22.636473071294105</v>
       </c>
       <c r="O9" s="0">
-        <v>20.164402192593872</v>
+        <v>23.134845107506067</v>
       </c>
       <c r="P9" s="0">
-        <v>19.540936773873227</v>
+        <v>25.004881076496833</v>
       </c>
       <c r="Q9" s="0">
-        <v>18.915679050831393</v>
+        <v>23.49865353241098</v>
       </c>
       <c r="R9" s="0">
-        <v>19.398308466551871</v>
+        <v>23.329321280430733</v>
       </c>
       <c r="S9" s="0">
-        <v>19.284997294164274</v>
+        <v>23.090696376059796</v>
       </c>
       <c r="T9" s="0">
-        <v>15.032073986339057</v>
+        <v>25.851120572069007</v>
       </c>
       <c r="U9" s="0">
-        <v>24.400574482683759</v>
+        <v>23.111786740406977</v>
       </c>
       <c r="V9" s="0">
-        <v>26.663359960208993</v>
+        <v>24.22018238404512</v>
       </c>
       <c r="W9" s="0">
-        <v>18.347712856809245</v>
+        <v>21.97897313821403</v>
       </c>
       <c r="X9" s="0">
-        <v>16.365850274488277</v>
+        <v>22.78907348400287</v>
       </c>
       <c r="Y9" s="0">
-        <v>25.125973782621664</v>
+        <v>22.99827982193186</v>
       </c>
       <c r="Z9" s="0">
-        <v>22.838092459612515</v>
+        <v>27.683766558146253</v>
       </c>
       <c r="AA9" s="0">
-        <v>23.7640355225364</v>
+        <v>24.816575860641624</v>
       </c>
       <c r="AB9" s="0">
-        <v>14.71646001815752</v>
+        <v>21.777782031746163</v>
       </c>
       <c r="AC9" s="0">
-        <v>24.310286868506367</v>
+        <v>19.100188529100382</v>
       </c>
       <c r="AD9" s="0">
-        <v>22.639431156729508</v>
+        <v>18.927217293176803</v>
       </c>
       <c r="AE9" s="0">
-        <v>13.05967727060944</v>
+        <v>22.185867076913336</v>
       </c>
       <c r="AF9" s="0">
-        <v>23.018426720900752</v>
+        <v>24.924556603904744</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>27.26082737919716</v>
+        <v>23.395807104114272</v>
       </c>
       <c r="B10" s="0">
-        <v>25.260785484585288</v>
+        <v>21.085546622169815</v>
       </c>
       <c r="C10" s="0">
-        <v>27.569434288444</v>
+        <v>20.883057750334224</v>
       </c>
       <c r="D10" s="0">
-        <v>26.075151980593358</v>
+        <v>21.139989793016397</v>
       </c>
       <c r="E10" s="0">
-        <v>27.80131834285384</v>
+        <v>14.109092496334556</v>
       </c>
       <c r="F10" s="0">
-        <v>28.563706069529072</v>
+        <v>17.330723106842495</v>
       </c>
       <c r="G10" s="0">
-        <v>26.702350395172093</v>
+        <v>18.132093485425301</v>
       </c>
       <c r="H10" s="0">
-        <v>25.845554020054923</v>
+        <v>19.596213410869254</v>
       </c>
       <c r="I10" s="0">
-        <v>25.77813693305788</v>
+        <v>20.665111645173162</v>
       </c>
       <c r="J10" s="0">
-        <v>24.288717704573514</v>
+        <v>21.518942967116423</v>
       </c>
       <c r="K10" s="0">
-        <v>26.212828626322878</v>
+        <v>22.427231046774136</v>
       </c>
       <c r="L10" s="0">
-        <v>25.441624650670065</v>
+        <v>20.236225018552332</v>
       </c>
       <c r="M10" s="0">
-        <v>22.289198255428335</v>
+        <v>24.859270641446027</v>
       </c>
       <c r="N10" s="0">
-        <v>25.823253628360824</v>
+        <v>22.254612646524169</v>
       </c>
       <c r="O10" s="0">
-        <v>27.753882941119056</v>
+        <v>19.194352537352398</v>
       </c>
       <c r="P10" s="0">
-        <v>26.217952175024916</v>
+        <v>19.539022688097127</v>
       </c>
       <c r="Q10" s="0">
-        <v>26.709032711283257</v>
+        <v>19.449684009148264</v>
       </c>
       <c r="R10" s="0">
-        <v>25.756566224531952</v>
+        <v>18.751334690420155</v>
       </c>
       <c r="S10" s="0">
-        <v>23.865203748433537</v>
+        <v>20.455030680726768</v>
       </c>
       <c r="T10" s="0">
-        <v>25.444654683947583</v>
+        <v>19.970574454569064</v>
       </c>
       <c r="U10" s="0">
-        <v>25.291643200111253</v>
+        <v>19.280968278027711</v>
       </c>
       <c r="V10" s="0">
-        <v>24.471356409761988</v>
+        <v>19.711519520286796</v>
       </c>
       <c r="W10" s="0">
-        <v>20.748020496590755</v>
+        <v>20.095961350323428</v>
       </c>
       <c r="X10" s="0">
-        <v>14.590893988266075</v>
+        <v>21.518292597092064</v>
       </c>
       <c r="Y10" s="0">
-        <v>24.727291338031613</v>
+        <v>23.549673622305207</v>
       </c>
       <c r="Z10" s="0">
-        <v>21.728539769566275</v>
+        <v>22.216160882019409</v>
       </c>
       <c r="AA10" s="0">
-        <v>22.703585264110309</v>
+        <v>21.177394265050637</v>
       </c>
       <c r="AB10" s="0">
-        <v>13.267244255667771</v>
+        <v>18.039390207474788</v>
       </c>
       <c r="AC10" s="0">
-        <v>24.435833743969965</v>
+        <v>17.977120016636949</v>
       </c>
       <c r="AD10" s="0">
-        <v>25.922705880913707</v>
+        <v>18.651961292910539</v>
       </c>
       <c r="AE10" s="0">
-        <v>12.124261299501848</v>
+        <v>21.741667640363605</v>
       </c>
       <c r="AF10" s="0">
-        <v>17.979043127792568</v>
+        <v>21.571343425774643</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>26.530106498568617</v>
+        <v>15.092115865328033</v>
       </c>
       <c r="B11" s="0">
-        <v>26.571715724841685</v>
+        <v>22.722933567922802</v>
       </c>
       <c r="C11" s="0">
-        <v>28.299560039131329</v>
+        <v>23.524054489569771</v>
       </c>
       <c r="D11" s="0">
-        <v>26.768235070705181</v>
+        <v>19.515528626242148</v>
       </c>
       <c r="E11" s="0">
-        <v>25.713303128494054</v>
+        <v>12.958840650626613</v>
       </c>
       <c r="F11" s="0">
-        <v>26.678903507860326</v>
+        <v>18.141595375888127</v>
       </c>
       <c r="G11" s="0">
-        <v>28.120470228749962</v>
+        <v>20.653716135051386</v>
       </c>
       <c r="H11" s="0">
-        <v>25.917643855704458</v>
+        <v>21.309150438012491</v>
       </c>
       <c r="I11" s="0">
-        <v>26.323484127452232</v>
+        <v>22.159976457219152</v>
       </c>
       <c r="J11" s="0">
-        <v>24.02679099702155</v>
+        <v>21.990724062794712</v>
       </c>
       <c r="K11" s="0">
-        <v>24.71389877058256</v>
+        <v>23.225660124250144</v>
       </c>
       <c r="L11" s="0">
-        <v>25.915178487381528</v>
+        <v>22.44230559415389</v>
       </c>
       <c r="M11" s="0">
-        <v>23.959188012646795</v>
+        <v>21.257172753188978</v>
       </c>
       <c r="N11" s="0">
-        <v>27.290552166006982</v>
+        <v>19.224682435969569</v>
       </c>
       <c r="O11" s="0">
-        <v>29.146613502826632</v>
+        <v>19.182993094413035</v>
       </c>
       <c r="P11" s="0">
-        <v>26.34998594454126</v>
+        <v>19.914682965254627</v>
       </c>
       <c r="Q11" s="0">
-        <v>27.756015863083682</v>
+        <v>20.493365127225836</v>
       </c>
       <c r="R11" s="0">
-        <v>21.272631488732657</v>
+        <v>19.771206551791305</v>
       </c>
       <c r="S11" s="0">
-        <v>25.973333661249249</v>
+        <v>22.971083888457336</v>
       </c>
       <c r="T11" s="0">
-        <v>25.357296789068073</v>
+        <v>20.927238200925473</v>
       </c>
       <c r="U11" s="0">
-        <v>18.913198989403305</v>
+        <v>20.417549550291465</v>
       </c>
       <c r="V11" s="0">
-        <v>24.394197479973766</v>
+        <v>20.792686513574257</v>
       </c>
       <c r="W11" s="0">
-        <v>16.532829715444311</v>
+        <v>21.485868251399051</v>
       </c>
       <c r="X11" s="0">
-        <v>13.356360612884535</v>
+        <v>22.303187284834909</v>
       </c>
       <c r="Y11" s="0">
-        <v>22.329935400757304</v>
+        <v>24.198161655870667</v>
       </c>
       <c r="Z11" s="0">
-        <v>20.936681779716935</v>
+        <v>18.008401012697234</v>
       </c>
       <c r="AA11" s="0">
-        <v>20.395999902333468</v>
+        <v>19.001821926289978</v>
       </c>
       <c r="AB11" s="0">
-        <v>13.490416799806722</v>
+        <v>21.392023665734257</v>
       </c>
       <c r="AC11" s="0">
-        <v>20.745207814974552</v>
+        <v>20.63648259807178</v>
       </c>
       <c r="AD11" s="0">
-        <v>21.184097984365504</v>
+        <v>21.175914948812462</v>
       </c>
       <c r="AE11" s="0">
-        <v>13.56814320329355</v>
+        <v>23.338223844380714</v>
       </c>
       <c r="AF11" s="0">
-        <v>17.628758911387024</v>
+        <v>27.485654967957281</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>21.230328723906883</v>
+        <v>18.218544931073708</v>
       </c>
       <c r="B12" s="0">
-        <v>21.145573523415415</v>
+        <v>20.486046576174214</v>
       </c>
       <c r="C12" s="0">
-        <v>24.350109632449708</v>
+        <v>23.138663145444973</v>
       </c>
       <c r="D12" s="0">
-        <v>22.958749506136154</v>
+        <v>22.497585909459488</v>
       </c>
       <c r="E12" s="0">
-        <v>22.647990448653466</v>
+        <v>14.207842873032163</v>
       </c>
       <c r="F12" s="0">
-        <v>26.130564564982876</v>
+        <v>23.845268555575529</v>
       </c>
       <c r="G12" s="0">
-        <v>23.755150381010303</v>
+        <v>20.776759431930962</v>
       </c>
       <c r="H12" s="0">
-        <v>25.974879679155769</v>
+        <v>24.485326995843156</v>
       </c>
       <c r="I12" s="0">
-        <v>24.234581843680239</v>
+        <v>24.141028063873996</v>
       </c>
       <c r="J12" s="0">
-        <v>22.491943099212641</v>
+        <v>20.992164469103251</v>
       </c>
       <c r="K12" s="0">
-        <v>22.864157312785114</v>
+        <v>21.357418374324965</v>
       </c>
       <c r="L12" s="0">
-        <v>22.26007161848419</v>
+        <v>23.259442003692886</v>
       </c>
       <c r="M12" s="0">
-        <v>24.563573748357381</v>
+        <v>20.334284773979455</v>
       </c>
       <c r="N12" s="0">
-        <v>24.91954370727807</v>
+        <v>21.675232490467174</v>
       </c>
       <c r="O12" s="0">
-        <v>27.084210929311311</v>
+        <v>22.076367944305481</v>
       </c>
       <c r="P12" s="0">
-        <v>26.342926403693305</v>
+        <v>19.697845846816428</v>
       </c>
       <c r="Q12" s="0">
-        <v>25.271541947445947</v>
+        <v>18.728821671305454</v>
       </c>
       <c r="R12" s="0">
-        <v>24.283232669077766</v>
+        <v>20.012044546899553</v>
       </c>
       <c r="S12" s="0">
-        <v>21.728892105241428</v>
+        <v>23.327688137513402</v>
       </c>
       <c r="T12" s="0">
-        <v>21.007193420601062</v>
+        <v>24.152481845115688</v>
       </c>
       <c r="U12" s="0">
-        <v>18.082625648571888</v>
+        <v>21.334811250763039</v>
       </c>
       <c r="V12" s="0">
-        <v>19.727924077333331</v>
+        <v>20.995606828723247</v>
       </c>
       <c r="W12" s="0">
-        <v>22.255102726079812</v>
+        <v>20.920074434371465</v>
       </c>
       <c r="X12" s="0">
-        <v>13.54945953856501</v>
+        <v>21.669552005106279</v>
       </c>
       <c r="Y12" s="0">
-        <v>21.627968081987753</v>
+        <v>20.126544602735805</v>
       </c>
       <c r="Z12" s="0">
-        <v>21.280525163269587</v>
+        <v>19.262934979178876</v>
       </c>
       <c r="AA12" s="0">
-        <v>18.901389747987547</v>
+        <v>22.087400509251488</v>
       </c>
       <c r="AB12" s="0">
-        <v>13.733089756436543</v>
+        <v>23.701877047129486</v>
       </c>
       <c r="AC12" s="0">
-        <v>17.928070811753528</v>
+        <v>24.561885305334449</v>
       </c>
       <c r="AD12" s="0">
-        <v>18.918373513168312</v>
+        <v>24.551905469127249</v>
       </c>
       <c r="AE12" s="0">
-        <v>14.215678226844696</v>
+        <v>25.114914923847568</v>
       </c>
       <c r="AF12" s="0">
-        <v>20.358471862285832</v>
+        <v>24.858497629622988</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>24.133229526521369</v>
+        <v>18.90127176272555</v>
       </c>
       <c r="B13" s="0">
-        <v>21.842586250907775</v>
+        <v>22.085316050481808</v>
       </c>
       <c r="C13" s="0">
-        <v>21.850986825168345</v>
+        <v>20.572518180102332</v>
       </c>
       <c r="D13" s="0">
-        <v>23.635371607017611</v>
+        <v>19.30091967120357</v>
       </c>
       <c r="E13" s="0">
-        <v>22.711988434003743</v>
+        <v>13.913120629413491</v>
       </c>
       <c r="F13" s="0">
-        <v>21.856714765761055</v>
+        <v>23.865022363405977</v>
       </c>
       <c r="G13" s="0">
-        <v>23.147138178072709</v>
+        <v>23.122389779710851</v>
       </c>
       <c r="H13" s="0">
-        <v>22.078647631075459</v>
+        <v>22.047620758895068</v>
       </c>
       <c r="I13" s="0">
-        <v>22.189485438119799</v>
+        <v>22.727686305733567</v>
       </c>
       <c r="J13" s="0">
-        <v>19.317169910588298</v>
+        <v>20.47515305922731</v>
       </c>
       <c r="K13" s="0">
-        <v>20.337862829235412</v>
+        <v>22.392159128675324</v>
       </c>
       <c r="L13" s="0">
-        <v>21.151505420575205</v>
+        <v>23.360833427817443</v>
       </c>
       <c r="M13" s="0">
-        <v>23.137677133151811</v>
+        <v>22.240240574354594</v>
       </c>
       <c r="N13" s="0">
-        <v>22.455931170926196</v>
+        <v>22.55071725477741</v>
       </c>
       <c r="O13" s="0">
-        <v>23.711667114661626</v>
+        <v>23.488218189458749</v>
       </c>
       <c r="P13" s="0">
-        <v>26.215490380706711</v>
+        <v>22.606958515760343</v>
       </c>
       <c r="Q13" s="0">
-        <v>24.723587771939069</v>
+        <v>21.955330194612152</v>
       </c>
       <c r="R13" s="0">
-        <v>24.289070277617022</v>
+        <v>23.619278829567541</v>
       </c>
       <c r="S13" s="0">
-        <v>20.884672398763705</v>
+        <v>24.143605773945922</v>
       </c>
       <c r="T13" s="0">
-        <v>19.614480757150655</v>
+        <v>25.575689933541845</v>
       </c>
       <c r="U13" s="0">
-        <v>18.076158086837481</v>
+        <v>23.408057871442409</v>
       </c>
       <c r="V13" s="0">
-        <v>19.244561983246246</v>
+        <v>25.09681400590523</v>
       </c>
       <c r="W13" s="0">
-        <v>21.722848509065578</v>
+        <v>25.490804811866411</v>
       </c>
       <c r="X13" s="0">
-        <v>12.700867863454414</v>
+        <v>25.888658675625923</v>
       </c>
       <c r="Y13" s="0">
-        <v>19.889068112964829</v>
+        <v>23.92340848219472</v>
       </c>
       <c r="Z13" s="0">
-        <v>19.112855124551881</v>
+        <v>25.052780234867747</v>
       </c>
       <c r="AA13" s="0">
-        <v>17.648087092057423</v>
+        <v>22.243992577526015</v>
       </c>
       <c r="AB13" s="0">
-        <v>14.192240675030643</v>
+        <v>23.086388878161543</v>
       </c>
       <c r="AC13" s="0">
-        <v>17.733940467138357</v>
+        <v>23.855818677222864</v>
       </c>
       <c r="AD13" s="0">
-        <v>18.194707541257618</v>
+        <v>20.709838803666642</v>
       </c>
       <c r="AE13" s="0">
-        <v>15.471996192307586</v>
+        <v>23.60309997740498</v>
       </c>
       <c r="AF13" s="0">
-        <v>18.52939319311055</v>
+        <v>23.040210018523666</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>22.265601532713468</v>
+        <v>18.736571175305929</v>
       </c>
       <c r="B14" s="0">
-        <v>22.246956005407121</v>
+        <v>16.537242101967763</v>
       </c>
       <c r="C14" s="0">
-        <v>23.856546887056425</v>
+        <v>18.956337533621948</v>
       </c>
       <c r="D14" s="0">
-        <v>23.221332624542882</v>
+        <v>17.89651618767552</v>
       </c>
       <c r="E14" s="0">
-        <v>24.450557250545593</v>
+        <v>25.269097216596212</v>
       </c>
       <c r="F14" s="0">
-        <v>20.139150803375752</v>
+        <v>18.695731807717824</v>
       </c>
       <c r="G14" s="0">
-        <v>23.518694474262212</v>
+        <v>18.912079933290723</v>
       </c>
       <c r="H14" s="0">
-        <v>23.744272577942048</v>
+        <v>19.560600951563124</v>
       </c>
       <c r="I14" s="0">
-        <v>24.082037109808514</v>
+        <v>21.189118497541312</v>
       </c>
       <c r="J14" s="0">
-        <v>19.558462802112778</v>
+        <v>20.060562003444886</v>
       </c>
       <c r="K14" s="0">
-        <v>23.913229211555951</v>
+        <v>18.908396817624229</v>
       </c>
       <c r="L14" s="0">
-        <v>20.279366894101095</v>
+        <v>24.227020178286523</v>
       </c>
       <c r="M14" s="0">
-        <v>22.525707276104256</v>
+        <v>23.826525933666286</v>
       </c>
       <c r="N14" s="0">
-        <v>22.083262558297136</v>
+        <v>27.180031314644499</v>
       </c>
       <c r="O14" s="0">
-        <v>19.723411271976655</v>
+        <v>24.457396492432451</v>
       </c>
       <c r="P14" s="0">
-        <v>25.642409677341753</v>
+        <v>25.766657632582941</v>
       </c>
       <c r="Q14" s="0">
-        <v>23.159646355150958</v>
+        <v>23.681913281930239</v>
       </c>
       <c r="R14" s="0">
-        <v>20.374270364330037</v>
+        <v>22.33212197671665</v>
       </c>
       <c r="S14" s="0">
-        <v>22.151190850701798</v>
+        <v>21.804680896495057</v>
       </c>
       <c r="T14" s="0">
-        <v>20.105559842263428</v>
+        <v>20.468680116956971</v>
       </c>
       <c r="U14" s="0">
-        <v>19.51360101058976</v>
+        <v>24.107758025076848</v>
       </c>
       <c r="V14" s="0">
-        <v>18.270068288439717</v>
+        <v>23.281524402122528</v>
       </c>
       <c r="W14" s="0">
-        <v>19.700632734598756</v>
+        <v>21.669744279491773</v>
       </c>
       <c r="X14" s="0">
-        <v>14.020782914216575</v>
+        <v>25.472988179660383</v>
       </c>
       <c r="Y14" s="0">
-        <v>19.517747068609641</v>
+        <v>26.261575189842251</v>
       </c>
       <c r="Z14" s="0">
-        <v>18.2219641473888</v>
+        <v>21.372077908669826</v>
       </c>
       <c r="AA14" s="0">
-        <v>17.817452791223683</v>
+        <v>20.573022419386952</v>
       </c>
       <c r="AB14" s="0">
-        <v>14.090218873397395</v>
+        <v>22.122714097244675</v>
       </c>
       <c r="AC14" s="0">
-        <v>16.000700888108589</v>
+        <v>21.882998836773751</v>
       </c>
       <c r="AD14" s="0">
-        <v>17.176633004558781</v>
+        <v>21.117393990071498</v>
       </c>
       <c r="AE14" s="0">
-        <v>14.030312491029047</v>
+        <v>23.70277837100781</v>
       </c>
       <c r="AF14" s="0">
-        <v>18.285462197321102</v>
+        <v>24.887947111325591</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>23.205619150610353</v>
+        <v>26.192629456233469</v>
       </c>
       <c r="B15" s="0">
-        <v>22.572832937183836</v>
+        <v>31.020151020217448</v>
       </c>
       <c r="C15" s="0">
-        <v>23.080269917879875</v>
+        <v>32.999325301887744</v>
       </c>
       <c r="D15" s="0">
-        <v>24.122739088918649</v>
+        <v>30.982651864043312</v>
       </c>
       <c r="E15" s="0">
-        <v>22.461861074122091</v>
+        <v>24.106336106063008</v>
       </c>
       <c r="F15" s="0">
-        <v>22.401436983934456</v>
+        <v>20.646646864652752</v>
       </c>
       <c r="G15" s="0">
-        <v>22.120611902959272</v>
+        <v>35.483160589863417</v>
       </c>
       <c r="H15" s="0">
-        <v>21.739584666638116</v>
+        <v>32.412756827611148</v>
       </c>
       <c r="I15" s="0">
-        <v>23.105019543640321</v>
+        <v>33.032053489217212</v>
       </c>
       <c r="J15" s="0">
-        <v>19.955577445454246</v>
+        <v>29.194079929695373</v>
       </c>
       <c r="K15" s="0">
-        <v>18.298727451863066</v>
+        <v>26.526172838977786</v>
       </c>
       <c r="L15" s="0">
-        <v>17.145395801016107</v>
+        <v>19.405817849256962</v>
       </c>
       <c r="M15" s="0">
-        <v>19.656209157101728</v>
+        <v>16.350327186454269</v>
       </c>
       <c r="N15" s="0">
-        <v>19.06866227577207</v>
+        <v>24.013042963238011</v>
       </c>
       <c r="O15" s="0">
-        <v>18.716387803813795</v>
+        <v>24.675991239180654</v>
       </c>
       <c r="P15" s="0">
-        <v>20.90261650375372</v>
+        <v>23.678776124245914</v>
       </c>
       <c r="Q15" s="0">
-        <v>23.945473700662589</v>
+        <v>22.488786631720572</v>
       </c>
       <c r="R15" s="0">
-        <v>21.630344484884226</v>
+        <v>20.763641814626244</v>
       </c>
       <c r="S15" s="0">
-        <v>21.005705502198914</v>
+        <v>22.243647710029979</v>
       </c>
       <c r="T15" s="0">
-        <v>20.080015869928115</v>
+        <v>24.356462114880536</v>
       </c>
       <c r="U15" s="0">
-        <v>19.527119540914462</v>
+        <v>22.842568031763033</v>
       </c>
       <c r="V15" s="0">
-        <v>18.930919035907838</v>
+        <v>24.48812800478337</v>
       </c>
       <c r="W15" s="0">
-        <v>20.659524450184033</v>
+        <v>25.598904686136731</v>
       </c>
       <c r="X15" s="0">
-        <v>15.026565794060387</v>
+        <v>24.76295095746703</v>
       </c>
       <c r="Y15" s="0">
-        <v>19.62406458202647</v>
+        <v>24.030165505868148</v>
       </c>
       <c r="Z15" s="0">
-        <v>19.839830393689642</v>
+        <v>17.863080156430378</v>
       </c>
       <c r="AA15" s="0">
-        <v>18.67639633938736</v>
+        <v>21.651120979767768</v>
       </c>
       <c r="AB15" s="0">
-        <v>15.734489388718639</v>
+        <v>23.059497062887605</v>
       </c>
       <c r="AC15" s="0">
-        <v>16.748783630509969</v>
+        <v>15.434323023125579</v>
       </c>
       <c r="AD15" s="0">
-        <v>16.081380169526714</v>
+        <v>18.736334793228156</v>
       </c>
       <c r="AE15" s="0">
-        <v>13.001361287705622</v>
+        <v>19.91531741043044</v>
       </c>
       <c r="AF15" s="0">
-        <v>21.416321931683186</v>
+        <v>21.099480235785457</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>21.851621749285783</v>
+        <v>25.681311331578371</v>
       </c>
       <c r="B16" s="0">
-        <v>16.759179541280407</v>
+        <v>22.134303346815397</v>
       </c>
       <c r="C16" s="0">
-        <v>18.483564606964848</v>
+        <v>17.692123013674944</v>
       </c>
       <c r="D16" s="0">
-        <v>15.367775782110824</v>
+        <v>19.464414479371513</v>
       </c>
       <c r="E16" s="0">
-        <v>18.019326400504294</v>
+        <v>19.772795613316482</v>
       </c>
       <c r="F16" s="0">
-        <v>20.277205798504113</v>
+        <v>17.994240043856745</v>
       </c>
       <c r="G16" s="0">
-        <v>18.122733057466846</v>
+        <v>23.849551570391728</v>
       </c>
       <c r="H16" s="0">
-        <v>19.606123472896172</v>
+        <v>29.449102162169613</v>
       </c>
       <c r="I16" s="0">
-        <v>19.900572098786405</v>
+        <v>31.349140452148234</v>
       </c>
       <c r="J16" s="0">
-        <v>20.287453946536935</v>
+        <v>31.73531223474841</v>
       </c>
       <c r="K16" s="0">
-        <v>23.037983563249487</v>
+        <v>26.938987696324027</v>
       </c>
       <c r="L16" s="0">
-        <v>19.225204981360648</v>
+        <v>30.365886887771509</v>
       </c>
       <c r="M16" s="0">
-        <v>17.606511707864932</v>
+        <v>27.459404498789905</v>
       </c>
       <c r="N16" s="0">
-        <v>16.153066488025427</v>
+        <v>19.430244258083317</v>
       </c>
       <c r="O16" s="0">
-        <v>24.513270808706359</v>
+        <v>19.626541437887703</v>
       </c>
       <c r="P16" s="0">
-        <v>26.444822417364541</v>
+        <v>21.337950018472668</v>
       </c>
       <c r="Q16" s="0">
-        <v>21.549350520895544</v>
+        <v>19.690310690642299</v>
       </c>
       <c r="R16" s="0">
-        <v>24.798731507678585</v>
+        <v>20.963205612303426</v>
       </c>
       <c r="S16" s="0">
-        <v>21.586264860686164</v>
+        <v>24.367787589982402</v>
       </c>
       <c r="T16" s="0">
-        <v>19.175220601533859</v>
+        <v>25.242472145337199</v>
       </c>
       <c r="U16" s="0">
-        <v>22.182954957840408</v>
+        <v>23.061633657258753</v>
       </c>
       <c r="V16" s="0">
-        <v>20.484799628644573</v>
+        <v>21.27869460205109</v>
       </c>
       <c r="W16" s="0">
-        <v>23.742452810127695</v>
+        <v>25.361287330891329</v>
       </c>
       <c r="X16" s="0">
-        <v>18.646270837968167</v>
+        <v>23.230465730162074</v>
       </c>
       <c r="Y16" s="0">
-        <v>20.74824720321606</v>
+        <v>16.573696681298962</v>
       </c>
       <c r="Z16" s="0">
-        <v>19.441077058576237</v>
+        <v>17.824712534521105</v>
       </c>
       <c r="AA16" s="0">
-        <v>18.467565885194453</v>
+        <v>18.600346218822892</v>
       </c>
       <c r="AB16" s="0">
-        <v>17.260894792380576</v>
+        <v>16.733946499493598</v>
       </c>
       <c r="AC16" s="0">
-        <v>17.786506901916756</v>
+        <v>34.879323585321828</v>
       </c>
       <c r="AD16" s="0">
-        <v>21.229051026215497</v>
+        <v>32.45463592828137</v>
       </c>
       <c r="AE16" s="0">
-        <v>15.76682421848264</v>
+        <v>33.505491479864062</v>
       </c>
       <c r="AF16" s="0">
-        <v>25.397928714482056</v>
+        <v>26.443252097522478</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>19.304807543242472</v>
+        <v>16.136207994913971</v>
       </c>
       <c r="B17" s="0">
-        <v>19.485307424235089</v>
+        <v>16.405370437123384</v>
       </c>
       <c r="C17" s="0">
-        <v>18.611035996719959</v>
+        <v>19.40115080554807</v>
       </c>
       <c r="D17" s="0">
-        <v>19.442386882321109</v>
+        <v>18.479319662692866</v>
       </c>
       <c r="E17" s="0">
-        <v>23.982875513127226</v>
+        <v>16.749738258376745</v>
       </c>
       <c r="F17" s="0">
-        <v>25.763336226716156</v>
+        <v>16.435976694746827</v>
       </c>
       <c r="G17" s="0">
-        <v>25.600458214404057</v>
+        <v>22.297763788828217</v>
       </c>
       <c r="H17" s="0">
-        <v>26.006832654038291</v>
+        <v>20.271158302192607</v>
       </c>
       <c r="I17" s="0">
-        <v>25.117268514008558</v>
+        <v>19.813163558908947</v>
       </c>
       <c r="J17" s="0">
-        <v>17.696049966034085</v>
+        <v>19.049084716661472</v>
       </c>
       <c r="K17" s="0">
-        <v>15.202025286195182</v>
+        <v>23.863949779862534</v>
       </c>
       <c r="L17" s="0">
-        <v>15.492572387739026</v>
+        <v>21.939915080848991</v>
       </c>
       <c r="M17" s="0">
-        <v>18.898037631867979</v>
+        <v>22.356766682582649</v>
       </c>
       <c r="N17" s="0">
-        <v>25.608413246306796</v>
+        <v>30.740706264929635</v>
       </c>
       <c r="O17" s="0">
-        <v>29.515991278077678</v>
+        <v>28.054729583112529</v>
       </c>
       <c r="P17" s="0">
-        <v>29.01155243920218</v>
+        <v>29.453501186424589</v>
       </c>
       <c r="Q17" s="0">
-        <v>17.609074265480466</v>
+        <v>33.669883690901024</v>
       </c>
       <c r="R17" s="0">
-        <v>27.35593789919028</v>
+        <v>20.090894124698607</v>
       </c>
       <c r="S17" s="0">
-        <v>29.534648898965003</v>
+        <v>17.772491025603788</v>
       </c>
       <c r="T17" s="0">
-        <v>25.458268134681891</v>
+        <v>18.776791283570155</v>
       </c>
       <c r="U17" s="0">
-        <v>19.55462284495685</v>
+        <v>19.261916766417059</v>
       </c>
       <c r="V17" s="0">
-        <v>19.133659534350564</v>
+        <v>18.082283395236022</v>
       </c>
       <c r="W17" s="0">
-        <v>21.601882553401971</v>
+        <v>18.909024777984392</v>
       </c>
       <c r="X17" s="0">
-        <v>22.771746645952678</v>
+        <v>17.754080445833079</v>
       </c>
       <c r="Y17" s="0">
-        <v>25.442597807014245</v>
+        <v>25.87596307546066</v>
       </c>
       <c r="Z17" s="0">
-        <v>25.63587967723171</v>
+        <v>22.395814638175704</v>
       </c>
       <c r="AA17" s="0">
-        <v>27.184696365763642</v>
+        <v>35.199938020585819</v>
       </c>
       <c r="AB17" s="0">
-        <v>25.689671563627208</v>
+        <v>35.567356556272699</v>
       </c>
       <c r="AC17" s="0">
-        <v>26.300519000180579</v>
+        <v>30.563918007354772</v>
       </c>
       <c r="AD17" s="0">
-        <v>26.967161519410659</v>
+        <v>23.311415298877343</v>
       </c>
       <c r="AE17" s="0">
-        <v>17.31814820750736</v>
+        <v>25.104338466411441</v>
       </c>
       <c r="AF17" s="0">
-        <v>25.142649807848411</v>
+        <v>25.979419564389591</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>25.342119583894494</v>
+        <v>14.048174379761086</v>
       </c>
       <c r="B18" s="0">
-        <v>24.218911481646096</v>
+        <v>17.26125857241087</v>
       </c>
       <c r="C18" s="0">
-        <v>26.092145663299469</v>
+        <v>19.858494802896359</v>
       </c>
       <c r="D18" s="0">
-        <v>25.261854575560662</v>
+        <v>19.613217944999768</v>
       </c>
       <c r="E18" s="0">
-        <v>28.479073849480592</v>
+        <v>13.622478598563264</v>
       </c>
       <c r="F18" s="0">
-        <v>27.133261274250692</v>
+        <v>13.976683295421228</v>
       </c>
       <c r="G18" s="0">
-        <v>23.627584870866258</v>
+        <v>18.115290471273514</v>
       </c>
       <c r="H18" s="0">
-        <v>17.625789870706264</v>
+        <v>23.800445677402344</v>
       </c>
       <c r="I18" s="0">
-        <v>15.435851695640565</v>
+        <v>17.431532764441823</v>
       </c>
       <c r="J18" s="0">
-        <v>17.630858096570535</v>
+        <v>24.961418407325006</v>
       </c>
       <c r="K18" s="0">
-        <v>16.655036263001172</v>
+        <v>14.483028256760587</v>
       </c>
       <c r="L18" s="0">
-        <v>19.311632793972144</v>
+        <v>16.497593631054706</v>
       </c>
       <c r="M18" s="0">
-        <v>28.177008202248931</v>
+        <v>19.48009767663725</v>
       </c>
       <c r="N18" s="0">
-        <v>29.254384678223722</v>
+        <v>21.472884857456972</v>
       </c>
       <c r="O18" s="0">
-        <v>28.778505489664376</v>
+        <v>20.929838889365328</v>
       </c>
       <c r="P18" s="0">
-        <v>27.919792501900403</v>
+        <v>21.443030520682477</v>
       </c>
       <c r="Q18" s="0">
-        <v>18.616879408677633</v>
+        <v>20.89817605090392</v>
       </c>
       <c r="R18" s="0">
-        <v>18.080228417673652</v>
+        <v>33.806341687053035</v>
       </c>
       <c r="S18" s="0">
-        <v>27.49153993909847</v>
+        <v>30.002106051405125</v>
       </c>
       <c r="T18" s="0">
-        <v>28.541948973203468</v>
+        <v>25.693527644924021</v>
       </c>
       <c r="U18" s="0">
-        <v>28.08807007133041</v>
+        <v>34.013034683696503</v>
       </c>
       <c r="V18" s="0">
-        <v>21.669062107791071</v>
+        <v>19.362119370132159</v>
       </c>
       <c r="W18" s="0">
-        <v>18.454375648421767</v>
+        <v>19.414431824644861</v>
       </c>
       <c r="X18" s="0">
-        <v>19.30652678235688</v>
+        <v>19.643576537708125</v>
       </c>
       <c r="Y18" s="0">
-        <v>20.528382539303305</v>
+        <v>16.503582586489777</v>
       </c>
       <c r="Z18" s="0">
-        <v>22.542619402372765</v>
+        <v>18.444805501040502</v>
       </c>
       <c r="AA18" s="0">
-        <v>23.669746299699128</v>
+        <v>19.198527632241159</v>
       </c>
       <c r="AB18" s="0">
-        <v>33.437043447682115</v>
+        <v>28.960356248926736</v>
       </c>
       <c r="AC18" s="0">
-        <v>29.254639719236849</v>
+        <v>23.311179647579536</v>
       </c>
       <c r="AD18" s="0">
-        <v>27.165199893337384</v>
+        <v>21.703780900559806</v>
       </c>
       <c r="AE18" s="0">
-        <v>25.183851925109082</v>
+        <v>22.891829687491555</v>
       </c>
       <c r="AF18" s="0">
-        <v>25.956069304043986</v>
+        <v>28.795033573926965</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>28.251059297580792</v>
+        <v>15.087630666710666</v>
       </c>
       <c r="B19" s="0">
-        <v>27.487993974848777</v>
+        <v>20.053742641932995</v>
       </c>
       <c r="C19" s="0">
-        <v>28.356733580476927</v>
+        <v>19.936441047642713</v>
       </c>
       <c r="D19" s="0">
-        <v>27.275836722263371</v>
+        <v>19.232145595117537</v>
       </c>
       <c r="E19" s="0">
-        <v>19.144923488570441</v>
+        <v>14.530107860145032</v>
       </c>
       <c r="F19" s="0">
-        <v>19.070128937371841</v>
+        <v>12.94802659882733</v>
       </c>
       <c r="G19" s="0">
-        <v>15.700318019636828</v>
+        <v>16.943223776122004</v>
       </c>
       <c r="H19" s="0">
-        <v>17.338238459479395</v>
+        <v>29.178489600904118</v>
       </c>
       <c r="I19" s="0">
-        <v>18.278511175985393</v>
+        <v>18.874891490295735</v>
       </c>
       <c r="J19" s="0">
-        <v>15.768975082030369</v>
+        <v>17.334630862445319</v>
       </c>
       <c r="K19" s="0">
-        <v>24.09717019562548</v>
+        <v>15.690830250325718</v>
       </c>
       <c r="L19" s="0">
-        <v>29.202135274091262</v>
+        <v>15.700765294537039</v>
       </c>
       <c r="M19" s="0">
-        <v>30.365266887499409</v>
+        <v>18.216008649143308</v>
       </c>
       <c r="N19" s="0">
-        <v>28.490949186512466</v>
+        <v>18.953994976813245</v>
       </c>
       <c r="O19" s="0">
-        <v>26.599900999821138</v>
+        <v>17.706379065408086</v>
       </c>
       <c r="P19" s="0">
-        <v>27.844620272260599</v>
+        <v>17.09968013416351</v>
       </c>
       <c r="Q19" s="0">
-        <v>25.193015812939365</v>
+        <v>18.27680929858872</v>
       </c>
       <c r="R19" s="0">
-        <v>20.409728733904039</v>
+        <v>19.229455522240229</v>
       </c>
       <c r="S19" s="0">
-        <v>26.960492566260022</v>
+        <v>21.09229197483522</v>
       </c>
       <c r="T19" s="0">
-        <v>29.067995095612389</v>
+        <v>21.719337650540812</v>
       </c>
       <c r="U19" s="0">
-        <v>27.34461579325794</v>
+        <v>20.393308359010994</v>
       </c>
       <c r="V19" s="0">
-        <v>29.254476172641741</v>
+        <v>15.011656698683279</v>
       </c>
       <c r="W19" s="0">
-        <v>29.633681745338166</v>
+        <v>18.707044535192551</v>
       </c>
       <c r="X19" s="0">
-        <v>20.223416135681902</v>
+        <v>19.536863833232665</v>
       </c>
       <c r="Y19" s="0">
-        <v>17.457610148334858</v>
+        <v>15.976378718679475</v>
       </c>
       <c r="Z19" s="0">
-        <v>18.875740706528784</v>
+        <v>16.585557709764316</v>
       </c>
       <c r="AA19" s="0">
-        <v>22.693858935347976</v>
+        <v>16.253958449049858</v>
       </c>
       <c r="AB19" s="0">
-        <v>21.937441259408072</v>
+        <v>20.158159789383909</v>
       </c>
       <c r="AC19" s="0">
-        <v>22.556337287525565</v>
+        <v>16.738095894587921</v>
       </c>
       <c r="AD19" s="0">
-        <v>22.92208606283728</v>
+        <v>18.98027281633652</v>
       </c>
       <c r="AE19" s="0">
-        <v>24.519670373692726</v>
+        <v>29.037390220179393</v>
       </c>
       <c r="AF19" s="0">
-        <v>29.324781610702306</v>
+        <v>22.469693141026227</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>28.189554591217998</v>
+        <v>24.490880083112884</v>
       </c>
       <c r="B20" s="0">
-        <v>23.133996227690915</v>
+        <v>22.191953782858043</v>
       </c>
       <c r="C20" s="0">
-        <v>16.252024767065137</v>
+        <v>20.241515282257261</v>
       </c>
       <c r="D20" s="0">
-        <v>17.655219354826563</v>
+        <v>18.888128490274624</v>
       </c>
       <c r="E20" s="0">
-        <v>17.944015050613153</v>
+        <v>18.768007148601072</v>
       </c>
       <c r="F20" s="0">
-        <v>17.704106638385021</v>
+        <v>17.231268363783634</v>
       </c>
       <c r="G20" s="0">
-        <v>22.392804002415932</v>
+        <v>18.629582630762165</v>
       </c>
       <c r="H20" s="0">
-        <v>15.76305334016822</v>
+        <v>21.694494454522424</v>
       </c>
       <c r="I20" s="0">
-        <v>17.635645662361835</v>
+        <v>17.663790618469889</v>
       </c>
       <c r="J20" s="0">
-        <v>24.53223254154922</v>
+        <v>18.969073558126528</v>
       </c>
       <c r="K20" s="0">
-        <v>25.860204700889899</v>
+        <v>19.472115330715379</v>
       </c>
       <c r="L20" s="0">
-        <v>27.832489486707249</v>
+        <v>21.470658029894022</v>
       </c>
       <c r="M20" s="0">
-        <v>28.769419091524671</v>
+        <v>20.658166480379116</v>
       </c>
       <c r="N20" s="0">
-        <v>30.156095140074648</v>
+        <v>20.041335916003462</v>
       </c>
       <c r="O20" s="0">
-        <v>29.144836260418487</v>
+        <v>21.397035647760738</v>
       </c>
       <c r="P20" s="0">
-        <v>29.967707479154669</v>
+        <v>20.922042539322334</v>
       </c>
       <c r="Q20" s="0">
-        <v>28.646063597635788</v>
+        <v>18.921876765811252</v>
       </c>
       <c r="R20" s="0">
-        <v>14.135687087037873</v>
+        <v>21.347980156397746</v>
       </c>
       <c r="S20" s="0">
-        <v>27.275759106438208</v>
+        <v>19.909806641138815</v>
       </c>
       <c r="T20" s="0">
-        <v>25.889489791212839</v>
+        <v>19.543734398802847</v>
       </c>
       <c r="U20" s="0">
-        <v>29.036932218844022</v>
+        <v>22.569391104168474</v>
       </c>
       <c r="V20" s="0">
-        <v>30.904965591826784</v>
+        <v>21.604695122089858</v>
       </c>
       <c r="W20" s="0">
-        <v>26.430406614178501</v>
+        <v>22.89596886687136</v>
       </c>
       <c r="X20" s="0">
-        <v>28.569756355276951</v>
+        <v>20.85494064765296</v>
       </c>
       <c r="Y20" s="0">
-        <v>27.242660186300132</v>
+        <v>20.682983527484836</v>
       </c>
       <c r="Z20" s="0">
-        <v>19.759668159668905</v>
+        <v>18.606554697466262</v>
       </c>
       <c r="AA20" s="0">
-        <v>16.421527766132485</v>
+        <v>17.604316492404525</v>
       </c>
       <c r="AB20" s="0">
-        <v>18.858571231452697</v>
+        <v>16.928239087378966</v>
       </c>
       <c r="AC20" s="0">
-        <v>23.479453513783398</v>
+        <v>18.712957042001996</v>
       </c>
       <c r="AD20" s="0">
-        <v>23.867290790344455</v>
+        <v>18.785391978861167</v>
       </c>
       <c r="AE20" s="0">
-        <v>22.91208216682061</v>
+        <v>22.019964279240298</v>
       </c>
       <c r="AF20" s="0">
-        <v>24.326983759125614</v>
+        <v>23.899013875189404</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>16.00090571824505</v>
+        <v>24.446481766641273</v>
       </c>
       <c r="B21" s="0">
-        <v>16.842120862436978</v>
+        <v>22.676486014477447</v>
       </c>
       <c r="C21" s="0">
-        <v>18.89416406238486</v>
+        <v>22.002524717355818</v>
       </c>
       <c r="D21" s="0">
-        <v>18.11860953732727</v>
+        <v>22.001832769844579</v>
       </c>
       <c r="E21" s="0">
-        <v>27.18107244338999</v>
+        <v>23.660739563763613</v>
       </c>
       <c r="F21" s="0">
-        <v>18.019802643846123</v>
+        <v>25.831048594076403</v>
       </c>
       <c r="G21" s="0">
-        <v>15.330110231829991</v>
+        <v>27.565214902778884</v>
       </c>
       <c r="H21" s="0">
-        <v>21.391324881788002</v>
+        <v>26.807347102490674</v>
       </c>
       <c r="I21" s="0">
-        <v>26.245088318689621</v>
+        <v>24.441800287180357</v>
       </c>
       <c r="J21" s="0">
-        <v>26.270087825774024</v>
+        <v>19.552778397975558</v>
       </c>
       <c r="K21" s="0">
-        <v>29.710748109174332</v>
+        <v>19.186066701700447</v>
       </c>
       <c r="L21" s="0">
-        <v>23.58844687624735</v>
+        <v>28.773525363894016</v>
       </c>
       <c r="M21" s="0">
-        <v>22.830667816437739</v>
+        <v>29.264901213663311</v>
       </c>
       <c r="N21" s="0">
-        <v>21.882382500821475</v>
+        <v>26.312229039425269</v>
       </c>
       <c r="O21" s="0">
-        <v>23.123830584853508</v>
+        <v>20.88364032195658</v>
       </c>
       <c r="P21" s="0">
-        <v>27.035207968924993</v>
+        <v>22.138626328496748</v>
       </c>
       <c r="Q21" s="0">
-        <v>28.711227265501563</v>
+        <v>29.346968870622771</v>
       </c>
       <c r="R21" s="0">
-        <v>18.450103529604103</v>
+        <v>24.20086250728016</v>
       </c>
       <c r="S21" s="0">
-        <v>23.037886295010594</v>
+        <v>22.959020911266983</v>
       </c>
       <c r="T21" s="0">
-        <v>30.617206084518216</v>
+        <v>21.901560458959672</v>
       </c>
       <c r="U21" s="0">
-        <v>27.054544227707005</v>
+        <v>20.830697393513354</v>
       </c>
       <c r="V21" s="0">
-        <v>27.340084682035982</v>
+        <v>26.637927843095149</v>
       </c>
       <c r="W21" s="0">
-        <v>28.340650955253153</v>
+        <v>22.784426987151278</v>
       </c>
       <c r="X21" s="0">
-        <v>30.785664379733326</v>
+        <v>23.854957526557662</v>
       </c>
       <c r="Y21" s="0">
-        <v>27.996544942230905</v>
+        <v>21.682696854231867</v>
       </c>
       <c r="Z21" s="0">
-        <v>27.731615722117958</v>
+        <v>21.680140633150593</v>
       </c>
       <c r="AA21" s="0">
-        <v>27.792496509976132</v>
+        <v>20.755284440958</v>
       </c>
       <c r="AB21" s="0">
-        <v>18.872463574148426</v>
+        <v>18.890609537757427</v>
       </c>
       <c r="AC21" s="0">
-        <v>16.310804878479836</v>
+        <v>20.885548138192505</v>
       </c>
       <c r="AD21" s="0">
-        <v>20.187188754748831</v>
+        <v>21.065660120272671</v>
       </c>
       <c r="AE21" s="0">
-        <v>24.813035986749767</v>
+        <v>22.483222148835647</v>
       </c>
       <c r="AF21" s="0">
-        <v>23.224724021886573</v>
+        <v>24.212051674729047</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>18.334755182345756</v>
+        <v>23.355790346993061</v>
       </c>
       <c r="B22" s="0">
-        <v>17.756761863312263</v>
+        <v>19.981526169249484</v>
       </c>
       <c r="C22" s="0">
-        <v>26.641912079981577</v>
+        <v>28.87511977798901</v>
       </c>
       <c r="D22" s="0">
-        <v>25.506086085759307</v>
+        <v>26.992956405749538</v>
       </c>
       <c r="E22" s="0">
-        <v>15.335924370410075</v>
+        <v>25.019840551726652</v>
       </c>
       <c r="F22" s="0">
-        <v>17.150495887424025</v>
+        <v>27.998049668595286</v>
       </c>
       <c r="G22" s="0">
-        <v>27.857561674123051</v>
+        <v>25.607533314007412</v>
       </c>
       <c r="H22" s="0">
-        <v>26.221237139474589</v>
+        <v>21.560288274526439</v>
       </c>
       <c r="I22" s="0">
-        <v>30.193752096391332</v>
+        <v>18.80553819770055</v>
       </c>
       <c r="J22" s="0">
-        <v>25.925903538241407</v>
+        <v>16.523059878989855</v>
       </c>
       <c r="K22" s="0">
-        <v>28.510943831048614</v>
+        <v>29.343739038517494</v>
       </c>
       <c r="L22" s="0">
-        <v>18.328742489816531</v>
+        <v>32.046271628155708</v>
       </c>
       <c r="M22" s="0">
-        <v>21.560319754130042</v>
+        <v>27.641083488054342</v>
       </c>
       <c r="N22" s="0">
-        <v>21.503059072592379</v>
+        <v>27.203184001514447</v>
       </c>
       <c r="O22" s="0">
-        <v>20.916523258180501</v>
+        <v>30.337613916933563</v>
       </c>
       <c r="P22" s="0">
-        <v>26.905751952054935</v>
+        <v>22.112336959462667</v>
       </c>
       <c r="Q22" s="0">
-        <v>28.65585281021572</v>
+        <v>18.573126162803696</v>
       </c>
       <c r="R22" s="0">
-        <v>28.367193777914686</v>
+        <v>28.97366018438678</v>
       </c>
       <c r="S22" s="0">
-        <v>25.935673381842864</v>
+        <v>25.952679592719878</v>
       </c>
       <c r="T22" s="0">
-        <v>27.825420518535214</v>
+        <v>28.113640806829785</v>
       </c>
       <c r="U22" s="0">
-        <v>29.363087431825168</v>
+        <v>29.579523887304752</v>
       </c>
       <c r="V22" s="0">
-        <v>29.341401989652528</v>
+        <v>21.350209235008492</v>
       </c>
       <c r="W22" s="0">
-        <v>30.440042622460496</v>
+        <v>20.277077633761088</v>
       </c>
       <c r="X22" s="0">
-        <v>26.881295020374012</v>
+        <v>18.948835253379901</v>
       </c>
       <c r="Y22" s="0">
-        <v>27.579992037018517</v>
+        <v>18.5136045104502</v>
       </c>
       <c r="Z22" s="0">
-        <v>28.419590788590028</v>
+        <v>21.615726960481837</v>
       </c>
       <c r="AA22" s="0">
-        <v>27.138650039518168</v>
+        <v>22.359670961767129</v>
       </c>
       <c r="AB22" s="0">
-        <v>24.801087238334244</v>
+        <v>21.925952978957575</v>
       </c>
       <c r="AC22" s="0">
-        <v>29.428242794201658</v>
+        <v>23.237889934341396</v>
       </c>
       <c r="AD22" s="0">
-        <v>17.879714404709752</v>
+        <v>23.585567891517233</v>
       </c>
       <c r="AE22" s="0">
-        <v>16.197771386036042</v>
+        <v>24.037986696380482</v>
       </c>
       <c r="AF22" s="0">
-        <v>20.16772888317621</v>
+        <v>23.734249798361901</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>26.424923007186397</v>
+        <v>25.011488104239458</v>
       </c>
       <c r="B23" s="0">
-        <v>29.19113860343333</v>
+        <v>22.151317413420379</v>
       </c>
       <c r="C23" s="0">
-        <v>18.025546182273509</v>
+        <v>27.945365789609657</v>
       </c>
       <c r="D23" s="0">
-        <v>14.682255962349354</v>
+        <v>27.974996156449063</v>
       </c>
       <c r="E23" s="0">
-        <v>19.416218208479808</v>
+        <v>28.694381032390499</v>
       </c>
       <c r="F23" s="0">
-        <v>26.242036945556503</v>
+        <v>22.126329852868242</v>
       </c>
       <c r="G23" s="0">
-        <v>27.481233013910547</v>
+        <v>21.538919798682699</v>
       </c>
       <c r="H23" s="0">
-        <v>30.420536199852435</v>
+        <v>19.749426050335401</v>
       </c>
       <c r="I23" s="0">
-        <v>27.859753180082542</v>
+        <v>16.669795887226254</v>
       </c>
       <c r="J23" s="0">
-        <v>30.476430749845203</v>
+        <v>26.424238896034275</v>
       </c>
       <c r="K23" s="0">
-        <v>27.552799903451263</v>
+        <v>26.80697538530627</v>
       </c>
       <c r="L23" s="0">
-        <v>18.421704017369496</v>
+        <v>29.319571002528267</v>
       </c>
       <c r="M23" s="0">
-        <v>21.847652371779493</v>
+        <v>28.489213979261748</v>
       </c>
       <c r="N23" s="0">
-        <v>21.885629516672502</v>
+        <v>28.498963455929925</v>
       </c>
       <c r="O23" s="0">
-        <v>21.12849259878503</v>
+        <v>29.329270862839138</v>
       </c>
       <c r="P23" s="0">
-        <v>27.368654930411971</v>
+        <v>27.650935608791571</v>
       </c>
       <c r="Q23" s="0">
-        <v>26.733501583503269</v>
+        <v>23.135891236785714</v>
       </c>
       <c r="R23" s="0">
-        <v>29.37285274400336</v>
+        <v>28.198117515062577</v>
       </c>
       <c r="S23" s="0">
-        <v>18.201645307613976</v>
+        <v>30.102861854101597</v>
       </c>
       <c r="T23" s="0">
-        <v>30.0376562940179</v>
+        <v>31.717973633741824</v>
       </c>
       <c r="U23" s="0">
-        <v>28.607668891841534</v>
+        <v>28.965328923919287</v>
       </c>
       <c r="V23" s="0">
-        <v>28.071750223679189</v>
+        <v>28.47499893901972</v>
       </c>
       <c r="W23" s="0">
-        <v>28.241679036344767</v>
+        <v>28.801747240266366</v>
       </c>
       <c r="X23" s="0">
-        <v>27.85721478703352</v>
+        <v>28.613449710745339</v>
       </c>
       <c r="Y23" s="0">
-        <v>30.959689090425321</v>
+        <v>31.490007494806992</v>
       </c>
       <c r="Z23" s="0">
-        <v>29.011811904718321</v>
+        <v>19.596003678479722</v>
       </c>
       <c r="AA23" s="0">
-        <v>29.529718048933141</v>
+        <v>18.840256328714727</v>
       </c>
       <c r="AB23" s="0">
-        <v>27.849286330475071</v>
+        <v>17.726882677768931</v>
       </c>
       <c r="AC23" s="0">
-        <v>28.813773048048645</v>
+        <v>18.349965558076345</v>
       </c>
       <c r="AD23" s="0">
-        <v>27.586026999950125</v>
+        <v>21.225094637148846</v>
       </c>
       <c r="AE23" s="0">
-        <v>26.530634602900886</v>
+        <v>23.815773906846264</v>
       </c>
       <c r="AF23" s="0">
-        <v>16.847306950737845</v>
+        <v>24.669442900451092</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>26.11739729790424</v>
+        <v>20.128354863760755</v>
       </c>
       <c r="B24" s="0">
-        <v>16.003274712145743</v>
+        <v>19.438954557934952</v>
       </c>
       <c r="C24" s="0">
-        <v>16.300471366529344</v>
+        <v>20.591052083816635</v>
       </c>
       <c r="D24" s="0">
-        <v>25.213621269092847</v>
+        <v>20.972848139429068</v>
       </c>
       <c r="E24" s="0">
-        <v>29.626683046865683</v>
+        <v>21.642802791781843</v>
       </c>
       <c r="F24" s="0">
-        <v>29.599658889143594</v>
+        <v>19.323733300268916</v>
       </c>
       <c r="G24" s="0">
-        <v>27.61907678598611</v>
+        <v>21.156692386797296</v>
       </c>
       <c r="H24" s="0">
-        <v>28.402183957645097</v>
+        <v>16.21022701684922</v>
       </c>
       <c r="I24" s="0">
-        <v>27.479786308339232</v>
+        <v>19.687522709546123</v>
       </c>
       <c r="J24" s="0">
-        <v>26.049572828482169</v>
+        <v>25.68473983148408</v>
       </c>
       <c r="K24" s="0">
-        <v>28.512212167154903</v>
+        <v>27.437541403262117</v>
       </c>
       <c r="L24" s="0">
-        <v>17.900191913320398</v>
+        <v>27.927900694607661</v>
       </c>
       <c r="M24" s="0">
-        <v>20.868737980815723</v>
+        <v>24.178973782901494</v>
       </c>
       <c r="N24" s="0">
-        <v>21.079687335435754</v>
+        <v>29.144752671778718</v>
       </c>
       <c r="O24" s="0">
-        <v>21.29522620871991</v>
+        <v>28.296268446884344</v>
       </c>
       <c r="P24" s="0">
-        <v>30.743336584974873</v>
+        <v>29.818068890414384</v>
       </c>
       <c r="Q24" s="0">
-        <v>29.677020181024499</v>
+        <v>29.31284126280719</v>
       </c>
       <c r="R24" s="0">
-        <v>25.46373483894811</v>
+        <v>25.615783119613887</v>
       </c>
       <c r="S24" s="0">
-        <v>13.772062105483778</v>
+        <v>17.123100147418096</v>
       </c>
       <c r="T24" s="0">
-        <v>16.976791371763603</v>
+        <v>16.37005111329773</v>
       </c>
       <c r="U24" s="0">
-        <v>30.589538563930962</v>
+        <v>26.220738340665708</v>
       </c>
       <c r="V24" s="0">
-        <v>28.469032150261462</v>
+        <v>28.633754088668635</v>
       </c>
       <c r="W24" s="0">
-        <v>28.736366502956283</v>
+        <v>29.365010795852925</v>
       </c>
       <c r="X24" s="0">
-        <v>26.586771764636261</v>
+        <v>26.386462206494159</v>
       </c>
       <c r="Y24" s="0">
-        <v>27.970633662020546</v>
+        <v>27.872001853106813</v>
       </c>
       <c r="Z24" s="0">
-        <v>31.390841963026915</v>
+        <v>31.956027431132839</v>
       </c>
       <c r="AA24" s="0">
-        <v>28.648097710912587</v>
+        <v>28.282763001736413</v>
       </c>
       <c r="AB24" s="0">
-        <v>27.093215064801591</v>
+        <v>26.580295263307953</v>
       </c>
       <c r="AC24" s="0">
-        <v>29.335713806433855</v>
+        <v>23.576912384009709</v>
       </c>
       <c r="AD24" s="0">
-        <v>27.605332034937838</v>
+        <v>19.1739101934747</v>
       </c>
       <c r="AE24" s="0">
-        <v>29.814762342796158</v>
+        <v>18.695733682147715</v>
       </c>
       <c r="AF24" s="0">
-        <v>29.13134490827057</v>
+        <v>18.833945396453217</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>15.051171831948968</v>
+        <v>23.3388941788197</v>
       </c>
       <c r="B25" s="0">
-        <v>17.688985198501655</v>
+        <v>22.90365811650593</v>
       </c>
       <c r="C25" s="0">
-        <v>27.115560968419938</v>
+        <v>23.950070316459126</v>
       </c>
       <c r="D25" s="0">
-        <v>27.43915287569201</v>
+        <v>22.729269035932809</v>
       </c>
       <c r="E25" s="0">
-        <v>28.419085130417269</v>
+        <v>19.086462571324695</v>
       </c>
       <c r="F25" s="0">
-        <v>26.685145933221882</v>
+        <v>20.530133608279776</v>
       </c>
       <c r="G25" s="0">
-        <v>27.864553523430008</v>
+        <v>17.816880363199065</v>
       </c>
       <c r="H25" s="0">
-        <v>27.924530051463062</v>
+        <v>21.831641233822236</v>
       </c>
       <c r="I25" s="0">
-        <v>26.162331468822543</v>
+        <v>26.443255317240755</v>
       </c>
       <c r="J25" s="0">
-        <v>29.45506780817793</v>
+        <v>29.819048631195795</v>
       </c>
       <c r="K25" s="0">
-        <v>27.023476050295159</v>
+        <v>26.980862801991165</v>
       </c>
       <c r="L25" s="0">
-        <v>18.320370126788767</v>
+        <v>28.904910479057033</v>
       </c>
       <c r="M25" s="0">
-        <v>21.111189430660801</v>
+        <v>25.691090369484101</v>
       </c>
       <c r="N25" s="0">
-        <v>20.408172429247283</v>
+        <v>27.166226251290869</v>
       </c>
       <c r="O25" s="0">
-        <v>20.991623488077529</v>
+        <v>29.42770244919101</v>
       </c>
       <c r="P25" s="0">
-        <v>27.110557797892817</v>
+        <v>27.44528795829946</v>
       </c>
       <c r="Q25" s="0">
-        <v>28.364014807272984</v>
+        <v>28.746726223682039</v>
       </c>
       <c r="R25" s="0">
-        <v>28.627190210970799</v>
+        <v>28.643442321421652</v>
       </c>
       <c r="S25" s="0">
-        <v>13.18144619287329</v>
+        <v>30.602583044259397</v>
       </c>
       <c r="T25" s="0">
-        <v>14.726049944800382</v>
+        <v>21.41126429862463</v>
       </c>
       <c r="U25" s="0">
-        <v>27.954886219315345</v>
+        <v>15.408258217705516</v>
       </c>
       <c r="V25" s="0">
-        <v>29.736253839479293</v>
+        <v>18.759699253717606</v>
       </c>
       <c r="W25" s="0">
-        <v>27.449601618099532</v>
+        <v>27.749611792183192</v>
       </c>
       <c r="X25" s="0">
-        <v>26.30176720034143</v>
+        <v>26.44274879829613</v>
       </c>
       <c r="Y25" s="0">
-        <v>25.726754649078316</v>
+        <v>26.485569512999838</v>
       </c>
       <c r="Z25" s="0">
-        <v>28.664793709450521</v>
+        <v>28.960017132755638</v>
       </c>
       <c r="AA25" s="0">
-        <v>27.383756368981462</v>
+        <v>27.242227934201331</v>
       </c>
       <c r="AB25" s="0">
-        <v>27.618721538834979</v>
+        <v>27.846583177921186</v>
       </c>
       <c r="AC25" s="0">
-        <v>27.091393702444098</v>
+        <v>27.274399935150903</v>
       </c>
       <c r="AD25" s="0">
-        <v>29.930642820627558</v>
+        <v>31.023919588402912</v>
       </c>
       <c r="AE25" s="0">
-        <v>29.566423516784685</v>
+        <v>30.014667086149757</v>
       </c>
       <c r="AF25" s="0">
-        <v>27.692648593286368</v>
+        <v>27.643502251878317</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>21.310050527036623</v>
+        <v>19.261133981346607</v>
       </c>
       <c r="B26" s="0">
-        <v>26.243284248268512</v>
+        <v>23.719995189761939</v>
       </c>
       <c r="C26" s="0">
-        <v>26.52680871353698</v>
+        <v>20.879158339689692</v>
       </c>
       <c r="D26" s="0">
-        <v>27.993659485071419</v>
+        <v>20.845734967834506</v>
       </c>
       <c r="E26" s="0">
-        <v>28.23561016710784</v>
+        <v>25.779135181049075</v>
       </c>
       <c r="F26" s="0">
-        <v>28.83530861692488</v>
+        <v>16.921040944172411</v>
       </c>
       <c r="G26" s="0">
-        <v>29.360935192103447</v>
+        <v>17.910575738583091</v>
       </c>
       <c r="H26" s="0">
-        <v>30.541703904777023</v>
+        <v>31.375020606229988</v>
       </c>
       <c r="I26" s="0">
-        <v>28.743002921439789</v>
+        <v>28.582243613473874</v>
       </c>
       <c r="J26" s="0">
-        <v>27.657432534251729</v>
+        <v>26.95284472421941</v>
       </c>
       <c r="K26" s="0">
-        <v>27.014837605085464</v>
+        <v>27.283360279176286</v>
       </c>
       <c r="L26" s="0">
-        <v>27.845894602880193</v>
+        <v>27.651900708281225</v>
       </c>
       <c r="M26" s="0">
-        <v>27.664820519331833</v>
+        <v>26.947086567175113</v>
       </c>
       <c r="N26" s="0">
-        <v>28.799541533615482</v>
+        <v>28.716329648455314</v>
       </c>
       <c r="O26" s="0">
-        <v>28.048380642366144</v>
+        <v>28.29253950656615</v>
       </c>
       <c r="P26" s="0">
-        <v>26.815506136262602</v>
+        <v>27.099687201403427</v>
       </c>
       <c r="Q26" s="0">
-        <v>27.993607908397415</v>
+        <v>28.704294659613442</v>
       </c>
       <c r="R26" s="0">
-        <v>27.285843870863829</v>
+        <v>27.515065300471292</v>
       </c>
       <c r="S26" s="0">
-        <v>15.44081062827853</v>
+        <v>28.138109274075596</v>
       </c>
       <c r="T26" s="0">
-        <v>16.983450577978875</v>
+        <v>28.968152993219036</v>
       </c>
       <c r="U26" s="0">
-        <v>28.200448990353529</v>
+        <v>30.716513533160921</v>
       </c>
       <c r="V26" s="0">
-        <v>25.59424393760699</v>
+        <v>18.756395841830273</v>
       </c>
       <c r="W26" s="0">
-        <v>28.516772340778239</v>
+        <v>24.323862014879964</v>
       </c>
       <c r="X26" s="0">
-        <v>27.559362393009007</v>
+        <v>26.933090283260903</v>
       </c>
       <c r="Y26" s="0">
-        <v>29.256547325183952</v>
+        <v>29.731396767370736</v>
       </c>
       <c r="Z26" s="0">
-        <v>26.192732345621643</v>
+        <v>26.553255877266501</v>
       </c>
       <c r="AA26" s="0">
-        <v>29.40484214718072</v>
+        <v>28.76103026433686</v>
       </c>
       <c r="AB26" s="0">
-        <v>28.39126207086175</v>
+        <v>27.724644578078362</v>
       </c>
       <c r="AC26" s="0">
-        <v>30.970777894570261</v>
+        <v>30.496182186483761</v>
       </c>
       <c r="AD26" s="0">
-        <v>27.795854543118178</v>
+        <v>27.736878203826674</v>
       </c>
       <c r="AE26" s="0">
-        <v>29.031635786443989</v>
+        <v>29.183252645434901</v>
       </c>
       <c r="AF26" s="0">
-        <v>29.554961414238214</v>
+        <v>30.040745701937936</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>27.587441591663413</v>
+        <v>25.206103142042117</v>
       </c>
       <c r="B27" s="0">
-        <v>28.067167894313979</v>
+        <v>22.136075034491963</v>
       </c>
       <c r="C27" s="0">
-        <v>28.677597142678405</v>
+        <v>24.613714787120436</v>
       </c>
       <c r="D27" s="0">
-        <v>26.9633848319408</v>
+        <v>25.367934191951726</v>
       </c>
       <c r="E27" s="0">
-        <v>26.563753719583758</v>
+        <v>17.860155685066523</v>
       </c>
       <c r="F27" s="0">
-        <v>29.973484899911522</v>
+        <v>16.84218393726864</v>
       </c>
       <c r="G27" s="0">
-        <v>26.915527835861699</v>
+        <v>27.09749770883483</v>
       </c>
       <c r="H27" s="0">
-        <v>26.446687279801221</v>
+        <v>28.133573745974132</v>
       </c>
       <c r="I27" s="0">
-        <v>29.215043171956523</v>
+        <v>29.717434826594975</v>
       </c>
       <c r="J27" s="0">
-        <v>27.199684217864831</v>
+        <v>27.723455870843402</v>
       </c>
       <c r="K27" s="0">
-        <v>28.384108846058183</v>
+        <v>29.184048406778974</v>
       </c>
       <c r="L27" s="0">
-        <v>26.441865622419858</v>
+        <v>27.561379966306966</v>
       </c>
       <c r="M27" s="0">
-        <v>26.655004919680287</v>
+        <v>26.983755019870404</v>
       </c>
       <c r="N27" s="0">
-        <v>27.266899424829731</v>
+        <v>26.849024928998428</v>
       </c>
       <c r="O27" s="0">
-        <v>26.824090784772842</v>
+        <v>26.278971732275529</v>
       </c>
       <c r="P27" s="0">
-        <v>26.626418319076073</v>
+        <v>27.12410940346015</v>
       </c>
       <c r="Q27" s="0">
-        <v>27.164087857463532</v>
+        <v>26.861826885988421</v>
       </c>
       <c r="R27" s="0">
-        <v>27.096693567140218</v>
+        <v>27.67365146027343</v>
       </c>
       <c r="S27" s="0">
-        <v>24.995454925587008</v>
+        <v>26.58211597967594</v>
       </c>
       <c r="T27" s="0">
-        <v>18.463212079502608</v>
+        <v>25.523367419122547</v>
       </c>
       <c r="U27" s="0">
-        <v>19.241581109466381</v>
+        <v>26.223259917456726</v>
       </c>
       <c r="V27" s="0">
-        <v>27.055162922295374</v>
+        <v>27.372529908687863</v>
       </c>
       <c r="W27" s="0">
-        <v>27.85822004490576</v>
+        <v>28.235392855788994</v>
       </c>
       <c r="X27" s="0">
-        <v>26.08984352078528</v>
+        <v>25.901009983883533</v>
       </c>
       <c r="Y27" s="0">
-        <v>28.47113187140728</v>
+        <v>26.779070748646955</v>
       </c>
       <c r="Z27" s="0">
-        <v>28.058037890610507</v>
+        <v>28.654926311820738</v>
       </c>
       <c r="AA27" s="0">
-        <v>27.076455711131239</v>
+        <v>27.595760818874531</v>
       </c>
       <c r="AB27" s="0">
-        <v>28.064905784331458</v>
+        <v>28.101814563472093</v>
       </c>
       <c r="AC27" s="0">
-        <v>27.451155016331018</v>
+        <v>29.598900982458005</v>
       </c>
       <c r="AD27" s="0">
-        <v>26.030966797282989</v>
+        <v>27.151727052102146</v>
       </c>
       <c r="AE27" s="0">
-        <v>27.442458561762425</v>
+        <v>29.865004557777297</v>
       </c>
       <c r="AF27" s="0">
-        <v>27.801108644285112</v>
+        <v>29.692114977864268</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>27.413422613479494</v>
+        <v>21.608226840141633</v>
       </c>
       <c r="B28" s="0">
-        <v>27.770140143530217</v>
+        <v>22.271840841343547</v>
       </c>
       <c r="C28" s="0">
-        <v>28.207742258340328</v>
+        <v>25.887256506056815</v>
       </c>
       <c r="D28" s="0">
-        <v>28.675576332568262</v>
+        <v>17.378494860331578</v>
       </c>
       <c r="E28" s="0">
-        <v>28.387280718518362</v>
+        <v>15.855604771390286</v>
       </c>
       <c r="F28" s="0">
-        <v>27.241014335921978</v>
+        <v>21.821262620861326</v>
       </c>
       <c r="G28" s="0">
-        <v>27.998793315122363</v>
+        <v>28.50227048336755</v>
       </c>
       <c r="H28" s="0">
-        <v>28.776998007211837</v>
+        <v>28.787068627592085</v>
       </c>
       <c r="I28" s="0">
-        <v>27.429638303104014</v>
+        <v>27.306292628022479</v>
       </c>
       <c r="J28" s="0">
-        <v>25.996593914816831</v>
+        <v>25.165722772507834</v>
       </c>
       <c r="K28" s="0">
-        <v>27.571593338805968</v>
+        <v>27.211663102994979</v>
       </c>
       <c r="L28" s="0">
-        <v>27.126869892719935</v>
+        <v>26.851984621215159</v>
       </c>
       <c r="M28" s="0">
-        <v>27.63413522024663</v>
+        <v>26.876851096779355</v>
       </c>
       <c r="N28" s="0">
-        <v>30.261282571960578</v>
+        <v>28.201995915141666</v>
       </c>
       <c r="O28" s="0">
-        <v>25.677773595799572</v>
+        <v>25.562644937204951</v>
       </c>
       <c r="P28" s="0">
-        <v>24.59375026018439</v>
+        <v>24.261485150831938</v>
       </c>
       <c r="Q28" s="0">
-        <v>28.047679796518786</v>
+        <v>27.572158732164944</v>
       </c>
       <c r="R28" s="0">
-        <v>27.091423366269911</v>
+        <v>27.275494089689548</v>
       </c>
       <c r="S28" s="0">
-        <v>27.772527682224638</v>
+        <v>27.202048745050305</v>
       </c>
       <c r="T28" s="0">
-        <v>25.439541855238296</v>
+        <v>25.280190241198358</v>
       </c>
       <c r="U28" s="0">
-        <v>29.169446708452892</v>
+        <v>29.98793402598233</v>
       </c>
       <c r="V28" s="0">
-        <v>26.597166462973551</v>
+        <v>27.024800724460004</v>
       </c>
       <c r="W28" s="0">
-        <v>28.867954192222456</v>
+        <v>28.768003484170627</v>
       </c>
       <c r="X28" s="0">
-        <v>29.709881394823157</v>
+        <v>28.641625473434537</v>
       </c>
       <c r="Y28" s="0">
-        <v>28.573305057240418</v>
+        <v>28.98015511243586</v>
       </c>
       <c r="Z28" s="0">
-        <v>26.88060974499092</v>
+        <v>25.877439104514281</v>
       </c>
       <c r="AA28" s="0">
-        <v>26.358858363025504</v>
+        <v>26.583233397582298</v>
       </c>
       <c r="AB28" s="0">
-        <v>29.341974584375713</v>
+        <v>29.78285399755995</v>
       </c>
       <c r="AC28" s="0">
-        <v>29.683050886397861</v>
+        <v>30.153691553190718</v>
       </c>
       <c r="AD28" s="0">
-        <v>28.686638074275024</v>
+        <v>28.310991290810495</v>
       </c>
       <c r="AE28" s="0">
-        <v>27.295541487165075</v>
+        <v>27.763995786429561</v>
       </c>
       <c r="AF28" s="0">
-        <v>28.803949692742915</v>
+        <v>29.234104920663228</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>25.750507535095359</v>
+        <v>24.378584027167797</v>
       </c>
       <c r="B29" s="0">
-        <v>28.087625256025682</v>
+        <v>26.558896034470834</v>
       </c>
       <c r="C29" s="0">
-        <v>26.013404399128895</v>
+        <v>18.827139718507979</v>
       </c>
       <c r="D29" s="0">
-        <v>29.827222276186596</v>
+        <v>15.431215546233441</v>
       </c>
       <c r="E29" s="0">
-        <v>25.531244074584976</v>
+        <v>19.086179014215197</v>
       </c>
       <c r="F29" s="0">
-        <v>25.845992255406422</v>
+        <v>25.528011217705092</v>
       </c>
       <c r="G29" s="0">
-        <v>26.896242982541342</v>
+        <v>26.014200891618064</v>
       </c>
       <c r="H29" s="0">
-        <v>28.775694412869292</v>
+        <v>28.581773916990812</v>
       </c>
       <c r="I29" s="0">
-        <v>26.222971159907086</v>
+        <v>26.218603918501124</v>
       </c>
       <c r="J29" s="0">
-        <v>27.957077507501857</v>
+        <v>27.757353373959745</v>
       </c>
       <c r="K29" s="0">
-        <v>25.223520014608475</v>
+        <v>24.322357025835501</v>
       </c>
       <c r="L29" s="0">
-        <v>26.440572441593019</v>
+        <v>25.586523105862554</v>
       </c>
       <c r="M29" s="0">
-        <v>29.775295626795707</v>
+        <v>28.363012617135112</v>
       </c>
       <c r="N29" s="0">
-        <v>25.485495663050763</v>
+        <v>25.299526993291312</v>
       </c>
       <c r="O29" s="0">
-        <v>28.741972754617624</v>
+        <v>27.286847359871501</v>
       </c>
       <c r="P29" s="0">
-        <v>30.013303086813611</v>
+        <v>28.256806337696435</v>
       </c>
       <c r="Q29" s="0">
-        <v>31.016270937380508</v>
+        <v>30.44466752346537</v>
       </c>
       <c r="R29" s="0">
-        <v>28.716161314350611</v>
+        <v>27.949252289691145</v>
       </c>
       <c r="S29" s="0">
-        <v>27.649303468792027</v>
+        <v>27.682223350033436</v>
       </c>
       <c r="T29" s="0">
-        <v>26.142441474068342</v>
+        <v>26.746837751992516</v>
       </c>
       <c r="U29" s="0">
-        <v>27.272050778836153</v>
+        <v>27.095645694824015</v>
       </c>
       <c r="V29" s="0">
-        <v>25.9649728383284</v>
+        <v>26.443176795179461</v>
       </c>
       <c r="W29" s="0">
-        <v>28.633019971788741</v>
+        <v>27.699329339219272</v>
       </c>
       <c r="X29" s="0">
-        <v>30.960403949186734</v>
+        <v>29.090373462629881</v>
       </c>
       <c r="Y29" s="0">
-        <v>28.506685546142787</v>
+        <v>27.963549320736526</v>
       </c>
       <c r="Z29" s="0">
-        <v>27.923784224464473</v>
+        <v>28.562246069239634</v>
       </c>
       <c r="AA29" s="0">
-        <v>29.021856430981302</v>
+        <v>29.203071996829383</v>
       </c>
       <c r="AB29" s="0">
-        <v>28.126039149596021</v>
+        <v>25.950747532971249</v>
       </c>
       <c r="AC29" s="0">
-        <v>26.263045992937428</v>
+        <v>26.441490377728734</v>
       </c>
       <c r="AD29" s="0">
-        <v>27.107506269374429</v>
+        <v>27.280381346953003</v>
       </c>
       <c r="AE29" s="0">
-        <v>27.479934039855387</v>
+        <v>27.143986447767091</v>
       </c>
       <c r="AF29" s="0">
-        <v>27.487700458606813</v>
+        <v>26.70896403190055</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>26.460631092691578</v>
+        <v>24.454499386321874</v>
       </c>
       <c r="B30" s="0">
-        <v>30.688224909455116</v>
+        <v>19.776671164036969</v>
       </c>
       <c r="C30" s="0">
-        <v>28.652083888720501</v>
+        <v>14.946711820008225</v>
       </c>
       <c r="D30" s="0">
-        <v>30.035439671829632</v>
+        <v>17.055929450312025</v>
       </c>
       <c r="E30" s="0">
-        <v>29.939308926339269</v>
+        <v>27.135131254617605</v>
       </c>
       <c r="F30" s="0">
-        <v>25.995635938853027</v>
+        <v>24.615953067693503</v>
       </c>
       <c r="G30" s="0">
-        <v>26.643914085620132</v>
+        <v>25.757940983348607</v>
       </c>
       <c r="H30" s="0">
-        <v>29.137449147359717</v>
+        <v>29.252412143115272</v>
       </c>
       <c r="I30" s="0">
-        <v>27.975726800371739</v>
+        <v>27.656070436497423</v>
       </c>
       <c r="J30" s="0">
-        <v>28.801287195804605</v>
+        <v>27.967742849321951</v>
       </c>
       <c r="K30" s="0">
-        <v>26.197523613745179</v>
+        <v>25.590808152256376</v>
       </c>
       <c r="L30" s="0">
-        <v>28.060230695513852</v>
+        <v>27.736795055722212</v>
       </c>
       <c r="M30" s="0">
-        <v>28.566788707660127</v>
+        <v>27.609422239755229</v>
       </c>
       <c r="N30" s="0">
-        <v>28.12963734426679</v>
+        <v>27.409918801864407</v>
       </c>
       <c r="O30" s="0">
-        <v>28.260506489343467</v>
+        <v>26.90081587865162</v>
       </c>
       <c r="P30" s="0">
-        <v>26.193938505759672</v>
+        <v>24.801166666085315</v>
       </c>
       <c r="Q30" s="0">
-        <v>27.557483453605091</v>
+        <v>26.74400890809072</v>
       </c>
       <c r="R30" s="0">
-        <v>26.789272160394972</v>
+        <v>27.318457021616567</v>
       </c>
       <c r="S30" s="0">
-        <v>28.39973927210297</v>
+        <v>27.504894560528868</v>
       </c>
       <c r="T30" s="0">
-        <v>29.969275314162267</v>
+        <v>30.257589356095835</v>
       </c>
       <c r="U30" s="0">
-        <v>28.753915773178392</v>
+        <v>28.731388308577259</v>
       </c>
       <c r="V30" s="0">
-        <v>29.835044749012919</v>
+        <v>28.921673361508127</v>
       </c>
       <c r="W30" s="0">
-        <v>26.857436767640614</v>
+        <v>27.116040599977062</v>
       </c>
       <c r="X30" s="0">
-        <v>29.393703835160846</v>
+        <v>29.319869270577374</v>
       </c>
       <c r="Y30" s="0">
-        <v>25.498683650601606</v>
+        <v>25.167879558399893</v>
       </c>
       <c r="Z30" s="0">
-        <v>27.128991197833656</v>
+        <v>26.20825524870893</v>
       </c>
       <c r="AA30" s="0">
-        <v>27.259657424329042</v>
+        <v>27.345275323091908</v>
       </c>
       <c r="AB30" s="0">
-        <v>26.135794842766348</v>
+        <v>26.201872995973847</v>
       </c>
       <c r="AC30" s="0">
-        <v>27.477765611389241</v>
+        <v>26.902689378168162</v>
       </c>
       <c r="AD30" s="0">
-        <v>25.405582000480599</v>
+        <v>26.614342069696516</v>
       </c>
       <c r="AE30" s="0">
-        <v>29.708561534309823</v>
+        <v>30.221678781017246</v>
       </c>
       <c r="AF30" s="0">
-        <v>27.20487802388373</v>
+        <v>26.694146341592994</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>29.026894805429674</v>
+        <v>19.395728448240529</v>
       </c>
       <c r="B31" s="0">
-        <v>26.850946598223523</v>
+        <v>14.234611969214551</v>
       </c>
       <c r="C31" s="0">
-        <v>27.132709853911972</v>
+        <v>16.54161161346067</v>
       </c>
       <c r="D31" s="0">
-        <v>27.096442988154678</v>
+        <v>25.868531162305011</v>
       </c>
       <c r="E31" s="0">
-        <v>26.250190646670134</v>
+        <v>25.496987406537119</v>
       </c>
       <c r="F31" s="0">
-        <v>30.471197840903752</v>
+        <v>27.875857369828566</v>
       </c>
       <c r="G31" s="0">
-        <v>26.864036259798773</v>
+        <v>26.854670332726577</v>
       </c>
       <c r="H31" s="0">
-        <v>26.551715493305956</v>
+        <v>26.532228474520473</v>
       </c>
       <c r="I31" s="0">
-        <v>27.196059427011157</v>
+        <v>27.75656936984214</v>
       </c>
       <c r="J31" s="0">
-        <v>26.917201819323292</v>
+        <v>26.553034337446249</v>
       </c>
       <c r="K31" s="0">
-        <v>26.43030449807355</v>
+        <v>25.602156721826038</v>
       </c>
       <c r="L31" s="0">
-        <v>25.882163817816995</v>
+        <v>26.195033372687089</v>
       </c>
       <c r="M31" s="0">
-        <v>27.587065233085294</v>
+        <v>26.567366524198288</v>
       </c>
       <c r="N31" s="0">
-        <v>27.489041802594262</v>
+        <v>27.08938435869312</v>
       </c>
       <c r="O31" s="0">
-        <v>27.716814965120395</v>
+        <v>26.45329646462492</v>
       </c>
       <c r="P31" s="0">
-        <v>30.273348540327198</v>
+        <v>28.901110268964601</v>
       </c>
       <c r="Q31" s="0">
-        <v>28.526041653776385</v>
+        <v>28.24199029918088</v>
       </c>
       <c r="R31" s="0">
-        <v>27.104755408784193</v>
+        <v>26.83055471394772</v>
       </c>
       <c r="S31" s="0">
-        <v>27.069744515166249</v>
+        <v>26.873994222273883</v>
       </c>
       <c r="T31" s="0">
-        <v>27.685092671788361</v>
+        <v>29.127597425013771</v>
       </c>
       <c r="U31" s="0">
-        <v>29.608644989769168</v>
+        <v>29.942726067325736</v>
       </c>
       <c r="V31" s="0">
-        <v>25.756321659791595</v>
+        <v>26.589960453209933</v>
       </c>
       <c r="W31" s="0">
-        <v>27.261647571341776</v>
+        <v>27.371153059057704</v>
       </c>
       <c r="X31" s="0">
-        <v>29.165195666594471</v>
+        <v>28.217848731586635</v>
       </c>
       <c r="Y31" s="0">
-        <v>27.381483320688513</v>
+        <v>27.238469957593651</v>
       </c>
       <c r="Z31" s="0">
-        <v>30.217070432846512</v>
+        <v>28.56228531242192</v>
       </c>
       <c r="AA31" s="0">
-        <v>27.355431922342454</v>
+        <v>27.302227337689335</v>
       </c>
       <c r="AB31" s="0">
-        <v>27.86439876117019</v>
+        <v>28.485798412621381</v>
       </c>
       <c r="AC31" s="0">
-        <v>27.127467622568343</v>
+        <v>27.455526843629393</v>
       </c>
       <c r="AD31" s="0">
-        <v>26.074205283329526</v>
+        <v>25.735558231435665</v>
       </c>
       <c r="AE31" s="0">
-        <v>25.028159823719495</v>
+        <v>24.905025047453083</v>
       </c>
       <c r="AF31" s="0">
-        <v>26.514683537470482</v>
+        <v>25.830560270087744</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>29.715795051972563</v>
+        <v>14.955623433236699</v>
       </c>
       <c r="B32" s="0">
-        <v>28.760728564152238</v>
+        <v>17.224968193607534</v>
       </c>
       <c r="C32" s="0">
-        <v>29.350621342044761</v>
+        <v>21.934650310350641</v>
       </c>
       <c r="D32" s="0">
-        <v>29.235799781069524</v>
+        <v>26.801160284828264</v>
       </c>
       <c r="E32" s="0">
-        <v>28.36260608992129</v>
+        <v>27.013423628902157</v>
       </c>
       <c r="F32" s="0">
-        <v>26.460690320032271</v>
+        <v>26.182992135839296</v>
       </c>
       <c r="G32" s="0">
-        <v>27.800468012880405</v>
+        <v>28.102910619228062</v>
       </c>
       <c r="H32" s="0">
-        <v>31.424487668790782</v>
+        <v>30.685744812168707</v>
       </c>
       <c r="I32" s="0">
-        <v>27.45051141714578</v>
+        <v>27.88684163677544</v>
       </c>
       <c r="J32" s="0">
-        <v>28.525304252738106</v>
+        <v>29.329897738234017</v>
       </c>
       <c r="K32" s="0">
-        <v>27.409914813522882</v>
+        <v>26.484721874637899</v>
       </c>
       <c r="L32" s="0">
-        <v>26.031998514323575</v>
+        <v>24.588939708089516</v>
       </c>
       <c r="M32" s="0">
-        <v>28.740182287874777</v>
+        <v>28.155454282560584</v>
       </c>
       <c r="N32" s="0">
-        <v>28.373449871469703</v>
+        <v>27.460759382997718</v>
       </c>
       <c r="O32" s="0">
-        <v>28.874058684141147</v>
+        <v>27.867130270774027</v>
       </c>
       <c r="P32" s="0">
-        <v>27.962632909492804</v>
+        <v>26.60200971581828</v>
       </c>
       <c r="Q32" s="0">
-        <v>27.782352220902101</v>
+        <v>26.823362754900558</v>
       </c>
       <c r="R32" s="0">
-        <v>28.454168623263776</v>
+        <v>28.294825681370263</v>
       </c>
       <c r="S32" s="0">
-        <v>29.972644534351808</v>
+        <v>28.608433912415197</v>
       </c>
       <c r="T32" s="0">
-        <v>26.220622530014694</v>
+        <v>26.574195864774694</v>
       </c>
       <c r="U32" s="0">
-        <v>27.220588697034664</v>
+        <v>28.413417547989116</v>
       </c>
       <c r="V32" s="0">
-        <v>27.185812568132356</v>
+        <v>27.21368726902757</v>
       </c>
       <c r="W32" s="0">
-        <v>27.824246016334321</v>
+        <v>28.411783906851412</v>
       </c>
       <c r="X32" s="0">
-        <v>27.241672877970618</v>
+        <v>27.085847689412212</v>
       </c>
       <c r="Y32" s="0">
-        <v>27.107125572849888</v>
+        <v>26.887881976264616</v>
       </c>
       <c r="Z32" s="0">
-        <v>25.636710356060725</v>
+        <v>25.910431189190287</v>
       </c>
       <c r="AA32" s="0">
-        <v>25.899894574564428</v>
+        <v>26.585675526245247</v>
       </c>
       <c r="AB32" s="0">
-        <v>28.043236517108937</v>
+        <v>29.143541583922875</v>
       </c>
       <c r="AC32" s="0">
-        <v>25.659810090413128</v>
+        <v>26.419463017899282</v>
       </c>
       <c r="AD32" s="0">
-        <v>26.527411319463305</v>
+        <v>25.561827643595798</v>
       </c>
       <c r="AE32" s="0">
-        <v>25.555898053110159</v>
+        <v>21.084628105769383</v>
       </c>
       <c r="AF32" s="0">
-        <v>25.469428361717735</v>
+        <v>16.239391865194065</v>
       </c>
     </row>
   </sheetData>
